--- a/outputs/ML_Results/mode_MNLR_new/All_short_table.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/All_short_table.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\mode_MNLR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC3FED1-CEB1-4968-8C87-D74BA33B4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32E4DFE5-0262-4A6A-9681-189E636D7BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
-    <sheet name="all" sheetId="3" r:id="rId3"/>
+    <sheet name="All_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="56">
   <si>
     <t>city</t>
   </si>
@@ -78,40 +77,40 @@
     <t>Trip_Purpose_Agg[T.Other]</t>
   </si>
   <si>
-    <t>DistCenter_origin</t>
+    <t>DistCenter_res</t>
   </si>
   <si>
-    <t>DistSubcenter_origin</t>
+    <t>DistSubcenter_res</t>
   </si>
   <si>
-    <t>UrbPopDensity_origin</t>
+    <t>UrbPopDensity_res</t>
   </si>
   <si>
-    <t>UrbBuildDensity_origin</t>
+    <t>IntersecDensity_res</t>
   </si>
   <si>
-    <t>IntersecDensity_origin</t>
+    <t>street_length_res</t>
   </si>
   <si>
-    <t>street_length_origin</t>
+    <t>bike_lane_share_res</t>
   </si>
   <si>
-    <t>bike_lane_share_origin</t>
+    <t>transit_accessibility_res</t>
   </si>
   <si>
-    <t>transit_accessibility_origin</t>
+    <t>LU_UrbFab_res</t>
   </si>
   <si>
-    <t>LU_UrbFab_origin</t>
-  </si>
-  <si>
-    <t>LU_Comm_origin</t>
+    <t>LU_Comm_res</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
     <t>Madrid</t>
+  </si>
+  <si>
+    <t>UrbBuildDensity_res</t>
   </si>
   <si>
     <t>Wien</t>
@@ -279,6 +278,9 @@
     <t>Cycle lane share (%)</t>
   </si>
   <si>
+    <t>Transit accessibility</t>
+  </si>
+  <si>
     <t>Urban fabric area (%)</t>
   </si>
   <si>
@@ -291,32 +293,17 @@
     <t>FR, other</t>
   </si>
   <si>
-    <t>Transit accessibility</t>
-  </si>
-  <si>
-    <t>Country[T.France]</t>
-  </si>
-  <si>
-    <t>Country[T.Germany]</t>
-  </si>
-  <si>
-    <t>Country[T.Spain]</t>
-  </si>
-  <si>
-    <t>Car Ownership</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -819,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,13 +816,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -881,18 +864,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1201,14 +1173,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97:E115"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1243,17 +1218,23 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>-4.7205982709628898E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.6562082538554404E-2</v>
+      </c>
       <c r="E2">
-        <v>0.31439291406366798</v>
+        <v>0.316059565001725</v>
       </c>
       <c r="F2">
-        <v>0.33013571957972698</v>
+        <v>0.20429982076140599</v>
       </c>
       <c r="G2">
-        <v>0.13289094111861399</v>
+        <v>0.113668637339398</v>
       </c>
       <c r="H2" s="1">
-        <v>4.62981363640629E-11</v>
+        <v>5.18661468680755E-20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1264,22 +1245,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>-4.5818852921303997E-3</v>
+        <v>-4.4411540004012998E-3</v>
       </c>
       <c r="D3">
-        <v>-1.6841091361560499E-2</v>
+        <v>-1.6799715784807899E-2</v>
       </c>
       <c r="E3">
-        <v>-9.1304911690435007E-3</v>
+        <v>-9.0324746056126993E-3</v>
       </c>
       <c r="F3">
-        <v>2.6250921059246601E-2</v>
-      </c>
-      <c r="G3">
-        <v>6.3716571666857002E-3</v>
-      </c>
-      <c r="H3">
-        <v>1.7969450777190001E-4</v>
+        <v>5.0576545196134103E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.8886837408334394E-11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.1894164636553998E-6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1290,22 +1271,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>-2.87134941150501</v>
+        <v>-2.8714023111527398</v>
       </c>
       <c r="D4">
-        <v>-2.5406899755476999</v>
+        <v>-2.5411215503268498</v>
       </c>
       <c r="E4">
-        <v>-3.2237792535294298</v>
+        <v>-3.2227176632050498</v>
       </c>
       <c r="F4" s="1">
-        <v>5.8349850498312002E-141</v>
+        <v>1.2790720709242599E-301</v>
       </c>
       <c r="G4" s="1">
-        <v>2.47400562748199E-126</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.98133419066689E-182</v>
+        <v>2.3805748167405399E-215</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,13 +1297,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>-3.064008738397E-4</v>
+        <v>-3.0673799503219999E-4</v>
       </c>
       <c r="D5">
-        <v>-1.6725208877556999E-3</v>
+        <v>-1.6706180489834E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0679221418513098E-5</v>
+        <v>2.0665819815577399E-5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1331,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1.9933350350720601E-13</v>
+        <v>1.6698478624756499E-16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1342,22 +1323,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.61884155462634205</v>
+        <v>0.61782737897831697</v>
       </c>
       <c r="D6">
-        <v>1.87391588688373</v>
+        <v>1.87038938776991</v>
       </c>
       <c r="E6">
-        <v>0.51547656249585105</v>
+        <v>0.516059832790425</v>
       </c>
       <c r="F6" s="1">
-        <v>1.23424812135838E-7</v>
+        <v>1.0577513939834499E-9</v>
       </c>
       <c r="G6" s="1">
-        <v>2.7169480709496599E-39</v>
-      </c>
-      <c r="H6">
-        <v>2.7374995391632002E-3</v>
+        <v>2.4227187337552199E-101</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.0220232862622402E-7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1368,22 +1349,22 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.243439752831171</v>
+        <v>0.24748171136186101</v>
       </c>
       <c r="D7">
-        <v>0.60516260756745799</v>
+        <v>0.60116888304968696</v>
       </c>
       <c r="E7">
-        <v>0.59358717995497001</v>
+        <v>0.59370737713802502</v>
       </c>
       <c r="F7">
-        <v>4.3088809105783298E-2</v>
+        <v>1.1514482341087999E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>9.8564565430468994E-6</v>
+        <v>7.6588619609268102E-10</v>
       </c>
       <c r="H7" s="1">
-        <v>2.8447982869788802E-6</v>
+        <v>1.6937110539825402E-5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1394,22 +1375,22 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>-0.167085680575977</v>
+        <v>-0.16874451609158</v>
       </c>
       <c r="D8">
-        <v>0.51959056744435905</v>
+        <v>0.51538955396347697</v>
       </c>
       <c r="E8">
-        <v>0.313677260290257</v>
+        <v>0.31088118697926298</v>
       </c>
       <c r="F8">
-        <v>2.47393135252486E-2</v>
+        <v>6.0758414831511398E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0968439115127001E-7</v>
+        <v>7.1985818125407198E-10</v>
       </c>
       <c r="H8">
-        <v>1.05746294586339E-2</v>
+        <v>4.4597459196550997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,22 +1401,22 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.36676456228492</v>
+        <v>1.3702814478610299</v>
       </c>
       <c r="D9">
-        <v>0.95135196517517195</v>
+        <v>0.94964730276686304</v>
       </c>
       <c r="E9">
-        <v>1.28114857548862</v>
-      </c>
-      <c r="F9">
-        <v>1.8913280668879E-3</v>
+        <v>1.2816889682947199</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.0315280614039004E-15</v>
       </c>
       <c r="G9" s="1">
-        <v>1.2519348017108799E-21</v>
+        <v>1.9325180673086999E-14</v>
       </c>
       <c r="H9" s="1">
-        <v>5.6755254198298903E-13</v>
+        <v>4.0733570508472998E-16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1445,17 +1426,23 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="C10">
+        <v>-0.335170265698093</v>
+      </c>
       <c r="D10">
-        <v>0.34094397670816701</v>
+        <v>0.34221725873092401</v>
+      </c>
+      <c r="E10">
+        <v>-1.6788678823311101E-2</v>
       </c>
       <c r="F10">
-        <v>0.29808818755215399</v>
+        <v>7.2707849406047007E-2</v>
       </c>
       <c r="G10">
-        <v>8.5082133375367006E-2</v>
+        <v>3.1990430977330397E-2</v>
       </c>
       <c r="H10">
-        <v>0.74427945558470399</v>
+        <v>0.70793354026407895</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,16 +1453,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>-5.6185503851150002E-2</v>
+        <v>-5.6673143962717401E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.8397283772040001E-4</v>
+      </c>
+      <c r="E11">
+        <v>-1.11421088201848E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>9.2692759981080305E-7</v>
+        <v>4.00535738974265E-8</v>
       </c>
       <c r="G11">
-        <v>0.82869834063289205</v>
+        <v>0.82268154178885899</v>
       </c>
       <c r="H11">
-        <v>0.113711895141553</v>
+        <v>0.144721928233918</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1485,20 +1478,23 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>1.9838080285088E-3</v>
+      </c>
       <c r="D12">
-        <v>-3.69068203002441E-2</v>
+        <v>-3.8532223503890399E-2</v>
       </c>
       <c r="E12">
-        <v>-2.5239285431259102E-2</v>
+        <v>-2.5469449698889899E-2</v>
       </c>
       <c r="F12">
-        <v>0.654161153832441</v>
+        <v>0.67131962485971697</v>
       </c>
       <c r="G12">
-        <v>5.2595724404495003E-3</v>
+        <v>4.7174478196548002E-3</v>
       </c>
       <c r="H12">
-        <v>2.2830196989888099E-2</v>
+        <v>2.40152422225283E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1508,40 +1504,23 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
-        <v>3.5094568109951497E-5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4.0206931574750799E-5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.7240245730691499E-5</v>
-      </c>
-      <c r="F13">
-        <v>5.8424149889044E-3</v>
+      <c r="C13">
+        <v>3.3320305587701102E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.6603195513156299E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.67986356335815E-3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.6757409977038202E-7</v>
       </c>
       <c r="G13" s="1">
-        <v>1.1331283025155701E-6</v>
+        <v>2.7822136772534001E-11</v>
       </c>
       <c r="H13">
-        <v>6.0647235950776002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14">
-        <v>0.33621108662594901</v>
-      </c>
-      <c r="G14">
-        <v>0.51569738245740904</v>
-      </c>
-      <c r="H14">
-        <v>0.70003800109696301</v>
+        <v>2.5359028349400002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1549,16 +1528,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>-9.8057221319669996E-4</v>
+      </c>
+      <c r="D15">
+        <v>-4.6298279128209998E-4</v>
+      </c>
+      <c r="E15">
+        <v>-2.3822308463755E-3</v>
       </c>
       <c r="F15">
-        <v>0.65991157280577795</v>
+        <v>0.61033898414038701</v>
       </c>
       <c r="G15">
-        <v>0.78527290772979796</v>
+        <v>0.81140049846860696</v>
       </c>
       <c r="H15">
-        <v>0.298426117715059</v>
+        <v>0.245638673603363</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1566,19 +1554,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>-4.6949022897035996E-3</v>
+        <v>-4.7150172378522997E-3</v>
+      </c>
+      <c r="D16">
+        <v>-1.3672982398077E-3</v>
+      </c>
+      <c r="E16">
+        <v>-8.6898998551530003E-4</v>
       </c>
       <c r="F16">
-        <v>8.7523014176194305E-2</v>
+        <v>1.3087188805013001E-3</v>
       </c>
       <c r="G16">
-        <v>0.28859639014979199</v>
+        <v>0.34182589109848799</v>
       </c>
       <c r="H16">
-        <v>0.41602588115585198</v>
+        <v>0.42547312457306502</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1586,22 +1580,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>-6.1188050276035303E-3</v>
       </c>
       <c r="D17">
-        <v>-1.25768767244041E-2</v>
+        <v>-1.29641910873067E-2</v>
       </c>
       <c r="E17">
-        <v>-1.1401223804167001E-2</v>
+        <v>-1.1631483786908901E-2</v>
       </c>
       <c r="F17">
-        <v>0.10383568574086199</v>
+        <v>7.7703597577231706E-2</v>
       </c>
       <c r="G17">
-        <v>4.7383711772077702E-2</v>
+        <v>6.8872983047450005E-4</v>
       </c>
       <c r="H17">
-        <v>9.4118968189200005E-4</v>
+        <v>2.1407383862729999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,25 +1606,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>-6.3948174796288804E-5</v>
+        <v>-6.0168064301663702E-5</v>
       </c>
       <c r="D18" s="1">
-        <v>9.3983763183175495E-5</v>
+        <v>9.6206518194700305E-5</v>
       </c>
       <c r="E18">
-        <v>1.173144127842E-4</v>
+        <v>1.164155475603E-4</v>
       </c>
       <c r="F18">
-        <v>8.8929645201316007E-3</v>
+        <v>1.11397654015033E-2</v>
       </c>
       <c r="G18">
-        <v>2.0852168748410001E-4</v>
+        <v>1.120936482642E-4</v>
       </c>
       <c r="H18" s="1">
-        <v>2.8064250273356001E-6</v>
+        <v>8.7430565644773597E-8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1635,25 +1632,25 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>-6.8486195091754703E-3</v>
+        <v>-6.8130476678005397E-3</v>
       </c>
       <c r="D19">
-        <v>-1.0599374441283499E-2</v>
+        <v>-1.04820871639799E-2</v>
       </c>
       <c r="E19">
-        <v>-4.3991990991302903E-3</v>
-      </c>
-      <c r="F19">
-        <v>7.4274030736024002E-3</v>
+        <v>-4.45863550692179E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.0823746786873204E-7</v>
       </c>
       <c r="G19" s="1">
-        <v>8.1538620318675304E-13</v>
+        <v>2.6222464261486001E-12</v>
       </c>
       <c r="H19">
-        <v>1.2900318041400001E-3</v>
+        <v>3.7545013353209997E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,884 +1658,987 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>-6.8827084186983099E-3</v>
+        <v>-6.2660664114133E-3</v>
+      </c>
+      <c r="D20">
+        <v>4.3334236673685999E-3</v>
+      </c>
+      <c r="E20">
+        <v>3.5292949828858102E-3</v>
       </c>
       <c r="F20">
-        <v>4.4631661299711998E-3</v>
+        <v>6.4766476994476E-3</v>
       </c>
       <c r="G20">
-        <v>0.24555116057275</v>
+        <v>8.0639294673361395E-2</v>
       </c>
       <c r="H20">
-        <v>0.16609779720718601</v>
+        <v>9.1933794682139802E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
+      <c r="C21">
+        <v>-0.18239592880987099</v>
+      </c>
       <c r="D21">
-        <v>0.25950968952331499</v>
+        <v>0.27726128206057299</v>
       </c>
       <c r="E21">
-        <v>0.54988327119330604</v>
+        <v>0.56121346823348195</v>
       </c>
       <c r="F21">
-        <v>0.103244542498763</v>
+        <v>0.119559631534529</v>
       </c>
       <c r="G21" s="1">
-        <v>1.6694245915702799E-5</v>
+        <v>2.5561149218442701E-6</v>
       </c>
       <c r="H21" s="1">
-        <v>4.2192112179864598E-26</v>
+        <v>3.9192262700773098E-28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
+      <c r="C22">
+        <v>-5.5016371545831997E-3</v>
+      </c>
       <c r="D22">
-        <v>-5.4673677616211003E-3</v>
+        <v>-4.9662597417903E-3</v>
       </c>
       <c r="E22">
-        <v>-7.1001740973131002E-3</v>
+        <v>-6.4289639088492001E-3</v>
       </c>
       <c r="F22">
-        <v>0.317313442564917</v>
+        <v>0.36260536992291198</v>
       </c>
       <c r="G22">
-        <v>9.9520429991269296E-2</v>
+        <v>0.13281854158449599</v>
       </c>
       <c r="H22">
-        <v>8.5355061471469994E-3</v>
+        <v>1.29130742475453E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23">
-        <v>-2.2918812252313598</v>
+        <v>-2.3955342055524</v>
       </c>
       <c r="D23">
-        <v>-2.5401290816834901</v>
+        <v>-2.6995286152792901</v>
       </c>
       <c r="E23">
-        <v>-2.8709776091968102</v>
+        <v>-2.9594756441218699</v>
       </c>
       <c r="F23" s="1">
-        <v>1.7380620831953502E-55</v>
+        <v>6.8366735902686602E-65</v>
       </c>
       <c r="G23" s="1">
-        <v>2.4524541101512699E-153</v>
+        <v>1.7718106761241201E-176</v>
       </c>
       <c r="H23" s="1">
-        <v>8.7509507181550004E-247</v>
+        <v>7.12666994202848E-284</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-4.477851640174E-4</v>
+        <v>-4.303620466061E-4</v>
       </c>
       <c r="D24">
-        <v>-2.9490179235338999E-3</v>
-      </c>
-      <c r="E24">
-        <v>1.3271017087250001E-4</v>
+        <v>-2.935672125717E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.5273273355999597E-5</v>
       </c>
       <c r="F24" s="1">
-        <v>1.9580240227089199E-34</v>
+        <v>3.63090988305154E-39</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>2.4998089069686101E-110</v>
+        <v>9.6346916665026201E-37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>1.2886327100789099</v>
+        <v>1.4019002234598801</v>
       </c>
       <c r="D25">
-        <v>0.98303682074860399</v>
+        <v>1.0367661492587501</v>
       </c>
       <c r="E25">
-        <v>1.47507434226048</v>
+        <v>1.58145859531946</v>
       </c>
       <c r="F25" s="1">
-        <v>3.0431752174358798E-8</v>
+        <v>5.8320385939607697E-9</v>
       </c>
       <c r="G25" s="1">
-        <v>5.2236076289621698E-28</v>
+        <v>6.09188309581633E-32</v>
       </c>
       <c r="H25" s="1">
-        <v>2.9600444350405602E-34</v>
+        <v>9.40794997265559E-43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26">
-        <v>1.2733761707160101</v>
+        <v>1.4202707200165401</v>
       </c>
       <c r="D26">
-        <v>1.8406179018984301</v>
+        <v>1.9084146572173499</v>
       </c>
       <c r="E26">
-        <v>2.4839033078261998</v>
+        <v>2.5655731756081801</v>
       </c>
       <c r="F26">
-        <v>2.4774669822590003E-4</v>
+        <v>5.6882969020569996E-4</v>
       </c>
       <c r="G26" s="1">
-        <v>2.9110083198142099E-39</v>
+        <v>6.1896025403257902E-41</v>
       </c>
       <c r="H26" s="1">
-        <v>4.6521695372919797E-48</v>
+        <v>2.0867323625553701E-54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
-        <v>1.09952142820201</v>
+        <v>1.1922642259990599</v>
       </c>
       <c r="D27">
-        <v>0.70047964905659299</v>
+        <v>0.72543545959210998</v>
       </c>
       <c r="E27">
-        <v>1.09626316345557</v>
+        <v>1.0776293572829001</v>
       </c>
       <c r="F27" s="1">
-        <v>7.3983151663968005E-5</v>
+        <v>1.1896656232249401E-5</v>
       </c>
       <c r="G27" s="1">
-        <v>4.5097526554755602E-12</v>
+        <v>4.29591302171423E-13</v>
       </c>
       <c r="H27" s="1">
-        <v>2.0634775574566801E-14</v>
+        <v>4.7328424282358502E-16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28">
-        <v>2.2469956949809999</v>
+        <v>2.3912333436348399</v>
       </c>
       <c r="D28">
-        <v>1.2379909668332001</v>
+        <v>1.3656881706600701</v>
       </c>
       <c r="E28">
-        <v>2.0470903030352599</v>
+        <v>2.2545968293751599</v>
       </c>
       <c r="F28" s="1">
-        <v>3.9454979841912498E-22</v>
+        <v>1.9841652141518301E-24</v>
       </c>
       <c r="G28" s="1">
-        <v>9.59085567863328E-28</v>
+        <v>1.30986600033689E-35</v>
       </c>
       <c r="H28" s="1">
-        <v>6.5194600092932899E-62</v>
+        <v>2.2188480867903199E-80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
+      <c r="C29">
+        <v>-21.514831622383401</v>
+      </c>
+      <c r="D29">
+        <v>-0.37802760932061102</v>
+      </c>
       <c r="E29">
-        <v>1.21485709769766</v>
+        <v>0.91133070118471204</v>
       </c>
       <c r="F29">
-        <v>0.99943621317784204</v>
+        <v>0.998197963994642</v>
       </c>
       <c r="G29">
-        <v>0.50385002195011597</v>
+        <v>0.43528192855110498</v>
       </c>
       <c r="H29">
-        <v>3.5713681554909002E-3</v>
+        <v>3.1333241761256403E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
+      <c r="C30">
+        <v>-1.6211011981039799E-2</v>
+      </c>
       <c r="D30">
-        <v>-6.0363693533222601E-2</v>
+        <v>-7.6753939778166205E-2</v>
       </c>
       <c r="E30">
-        <v>-8.0342308683805194E-2</v>
+        <v>-7.8017657808353305E-2</v>
       </c>
       <c r="F30">
-        <v>0.26999603749479101</v>
+        <v>0.52791019686187002</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0197413410703E-5</v>
+        <v>2.8837425035493298E-10</v>
       </c>
       <c r="H30" s="1">
-        <v>2.73694587764014E-10</v>
+        <v>1.4777372280423099E-14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
+      <c r="C31">
+        <v>4.66806933842287E-2</v>
+      </c>
+      <c r="D31">
+        <v>-1.3494039853029501E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.4369760891151501E-2</v>
+      </c>
       <c r="F31">
-        <v>0.17948522560110899</v>
+        <v>0.22279988065723899</v>
       </c>
       <c r="G31">
-        <v>0.15749413709314999</v>
+        <v>0.36234907284687901</v>
       </c>
       <c r="H31">
-        <v>0.52122137504144295</v>
+        <v>7.2879523942617597E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
-        <v>2.1230836676119702E-5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.44232608352613E-5</v>
+      <c r="C32">
+        <v>2.1665139984054899E-3</v>
+      </c>
+      <c r="D32">
+        <v>3.0576719115924102E-3</v>
+      </c>
+      <c r="E32">
+        <v>1.7511442996833799E-3</v>
       </c>
       <c r="F32">
-        <v>0.544130940466651</v>
+        <v>2.9065744676694299E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>7.9569209241949007E-6</v>
+        <v>9.8555973543805694E-7</v>
       </c>
       <c r="H32">
-        <v>5.8215836374160004E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33">
-        <v>0.24326021665873099</v>
-      </c>
-      <c r="G33">
-        <v>0.76415100990875395</v>
-      </c>
-      <c r="H33">
-        <v>0.71838028933855602</v>
+        <v>5.5396985158649996E-4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>2.0591633715756501E-2</v>
+        <v>1.7749253108802699E-2</v>
       </c>
       <c r="D34">
-        <v>7.1014332587920996E-3</v>
+        <v>1.0215250768602101E-2</v>
       </c>
       <c r="E34">
-        <v>5.7022519597840996E-3</v>
+        <v>7.2722379479389998E-3</v>
       </c>
       <c r="F34">
-        <v>1.0510000157482101E-2</v>
+        <v>1.1267040826612E-2</v>
       </c>
       <c r="G34">
-        <v>2.5174350096804899E-2</v>
+        <v>3.7563393989300002E-4</v>
       </c>
       <c r="H34">
-        <v>5.6504422289794597E-2</v>
+        <v>4.0019633373949001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35">
-        <v>2.5340858738514601E-2</v>
+        <v>2.5255039283318799E-2</v>
       </c>
       <c r="D35">
-        <v>6.1347965897329002E-3</v>
+        <v>8.1696864427831997E-3</v>
+      </c>
+      <c r="E35">
+        <v>2.9119831864862001E-3</v>
       </c>
       <c r="F35">
-        <v>1.58229352559719E-2</v>
+        <v>1.19051925422609E-2</v>
       </c>
       <c r="G35">
-        <v>9.5715018185298595E-2</v>
+        <v>2.3095575954101999E-2</v>
       </c>
       <c r="H35">
-        <v>0.61151703232041399</v>
+        <v>0.37123198903106802</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>3.1082622924387199E-2</v>
+        <v>2.8705610395869E-2</v>
       </c>
       <c r="D36">
-        <v>-8.4484678085608896E-3</v>
+        <v>-8.08610428448844E-3</v>
+      </c>
+      <c r="E36">
+        <v>-4.1533654649396701E-3</v>
       </c>
       <c r="F36" s="1">
-        <v>9.2260393174020997E-5</v>
+        <v>8.58402615981248E-5</v>
       </c>
       <c r="G36">
-        <v>5.6270102160127601E-2</v>
+        <v>5.2669594699606803E-2</v>
       </c>
       <c r="H36">
-        <v>0.16406411087651601</v>
+        <v>0.216444834804669</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>1.0618133075619999E-4</v>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.3042390236343005E-5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.8622350635615493E-5</v>
       </c>
       <c r="E37" s="1">
-        <v>9.6693605041758195E-5</v>
+        <v>7.5981063743307497E-5</v>
       </c>
       <c r="F37">
-        <v>0.66482154295607299</v>
+        <v>4.0615878693029801E-2</v>
       </c>
       <c r="G37">
-        <v>4.3497264002211001E-3</v>
-      </c>
-      <c r="H37">
-        <v>1.5806147528486E-3</v>
+        <v>5.7952188995320005E-4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7.6962329699004005E-5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>-8.3390313438155093E-3</v>
+      </c>
+      <c r="D38">
+        <v>-1.1572987169121401E-2</v>
       </c>
       <c r="E38">
-        <v>-5.4773149065502199E-3</v>
+        <v>-1.03467835398633E-2</v>
       </c>
       <c r="F38">
-        <v>0.37841241094961298</v>
-      </c>
-      <c r="G38">
-        <v>0.192631224583732</v>
-      </c>
-      <c r="H38">
-        <v>4.4370591735212697E-2</v>
+        <v>0.14975093477163401</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.9058702889367598E-5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4.40943131856746E-5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>7.3644471233385404E-3</v>
       </c>
       <c r="D39">
-        <v>-1.21437082261668E-2</v>
+        <v>-1.02221435215394E-2</v>
+      </c>
+      <c r="E39">
+        <v>-8.2404938126144102E-4</v>
       </c>
       <c r="F39">
-        <v>0.72567754826318998</v>
+        <v>0.341466114291681</v>
       </c>
       <c r="G39">
-        <v>9.3402691734869995E-4</v>
+        <v>2.4900020848656001E-3</v>
       </c>
       <c r="H39">
-        <v>0.544888277262636</v>
+        <v>0.77922099774804898</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1.3431559934330699</v>
+        <v>-1.3411399335922101</v>
       </c>
       <c r="D40">
-        <v>0.144091386397461</v>
+        <v>0.14405000382559999</v>
       </c>
       <c r="E40">
-        <v>0.53081935960251603</v>
-      </c>
-      <c r="F40">
-        <v>1.2883415642641199E-2</v>
+        <v>0.53140168421780798</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.0099632152791798E-5</v>
       </c>
       <c r="G40" s="1">
-        <v>2.6936702127974401E-6</v>
+        <v>2.9417224849736499E-6</v>
       </c>
       <c r="H40" s="1">
-        <v>2.42840434560345E-68</v>
+        <v>4.2620508468909998E-86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
+      <c r="C41">
+        <v>-2.89019927497139E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.9557827435583001E-3</v>
+      </c>
+      <c r="E41">
+        <v>-6.9015594245140004E-4</v>
+      </c>
       <c r="F41">
-        <v>0.110389234712207</v>
+        <v>0.20372835594015301</v>
       </c>
       <c r="G41">
-        <v>0.180630143174205</v>
+        <v>9.6682875379459798E-2</v>
       </c>
       <c r="H41">
-        <v>0.52484492705062802</v>
+        <v>0.42607218446238199</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
+      <c r="C42">
+        <v>-1.8922852533908101</v>
+      </c>
       <c r="D42">
-        <v>-1.75650233307415</v>
+        <v>-1.7561790035717999</v>
       </c>
       <c r="E42">
-        <v>-2.3039979892386002</v>
+        <v>-2.30319116551575</v>
       </c>
       <c r="F42">
-        <v>0.23027542491567601</v>
-      </c>
-      <c r="G42">
-        <v>1.7745642974189999E-4</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
+        <v>2.5004841713030801E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.4456946898670701E-49</v>
+      </c>
+      <c r="H42" s="1">
+        <v>7.05174804240591E-106</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43">
-        <v>-2.638199598538E-4</v>
+        <v>-2.6359108866209999E-4</v>
       </c>
       <c r="D43">
-        <v>-1.5214076664763999E-3</v>
+        <v>-1.5218599484909999E-3</v>
       </c>
       <c r="E43" s="1">
-        <v>1.5912893115057E-5</v>
+        <v>1.5842692351141101E-5</v>
       </c>
       <c r="F43" s="1">
-        <v>1.1428447345424801E-12</v>
+        <v>4.9448896480880299E-12</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>8.0103750629463699E-5</v>
+        <v>1.07612644903678E-16</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44">
-        <v>1.7345481787625401</v>
+        <v>1.73539592378422</v>
       </c>
       <c r="D44">
-        <v>1.5342231427105799</v>
+        <v>1.5358262291968101</v>
       </c>
       <c r="E44">
-        <v>1.5204030592345701</v>
+        <v>1.5190761919578499</v>
       </c>
       <c r="F44">
-        <v>2.1376903351452599E-2</v>
+        <v>0.231582600585958</v>
       </c>
       <c r="G44" s="1">
-        <v>3.8380037662267202E-58</v>
+        <v>4.8484568097564799E-30</v>
       </c>
       <c r="H44" s="1">
-        <v>6.3143513553915498E-9</v>
+        <v>5.2196882735129998E-22</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
+      <c r="C45">
+        <v>0.69104630053439198</v>
+      </c>
       <c r="D45">
-        <v>1.5008915964843901</v>
+        <v>1.5022775670492201</v>
       </c>
       <c r="E45">
-        <v>1.69150806352691</v>
+        <v>1.6901698398943701</v>
       </c>
       <c r="F45">
-        <v>0.69183950231991498</v>
+        <v>0.32062520980513598</v>
       </c>
       <c r="G45" s="1">
-        <v>2.6813749002471801E-56</v>
+        <v>2.91878146141222E-27</v>
       </c>
       <c r="H45" s="1">
-        <v>4.3436525417329303E-5</v>
+        <v>1.12740985060461E-88</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
+      <c r="C46">
+        <v>0.71003574055951102</v>
+      </c>
       <c r="D46">
-        <v>1.1236550707112101</v>
+        <v>1.1247477809217099</v>
       </c>
       <c r="E46">
-        <v>0.99796714768525996</v>
+        <v>0.99696722034479601</v>
       </c>
       <c r="F46">
-        <v>0.29007577322682798</v>
+        <v>0.480625810177716</v>
       </c>
       <c r="G46" s="1">
-        <v>4.3558876005351003E-77</v>
+        <v>1.0158098920686399E-34</v>
       </c>
       <c r="H46" s="1">
-        <v>3.78893474722415E-41</v>
+        <v>2.5144918877511599E-15</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47">
-        <v>1.78249664862117</v>
+        <v>1.78341279307046</v>
       </c>
       <c r="D47">
-        <v>0.84332058157965495</v>
+        <v>0.84562825096543603</v>
       </c>
       <c r="E47">
-        <v>1.6889995405785501</v>
+        <v>1.68843842152176</v>
       </c>
       <c r="F47">
-        <v>3.4221969403199902E-2</v>
-      </c>
-      <c r="G47">
-        <v>2.3402687070355501E-2</v>
+        <v>0.15910740931937101</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.4037268740369699E-32</v>
       </c>
       <c r="H47" s="1">
-        <v>8.2546975521519702E-20</v>
+        <v>1.1794409263915499E-133</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
+      <c r="C48">
+        <v>1.0337989796023199</v>
+      </c>
       <c r="D48">
-        <v>0.67062078934395497</v>
+        <v>0.67577974938591301</v>
       </c>
       <c r="E48">
-        <v>1.245708245219</v>
+        <v>1.24845346822238</v>
       </c>
       <c r="F48">
-        <v>0.511879997812558</v>
+        <v>0.67065605801683403</v>
       </c>
       <c r="G48">
-        <v>6.0776327940970001E-4</v>
+        <v>6.0474305424700005E-4</v>
       </c>
       <c r="H48" s="1">
-        <v>1.95685817638293E-7</v>
+        <v>1.2590428095828E-7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
+      <c r="C49">
+        <v>3.74275137649187E-2</v>
+      </c>
+      <c r="D49">
+        <v>-6.0559172221419995E-4</v>
+      </c>
       <c r="E49">
-        <v>-4.4005486039174098E-2</v>
+        <v>-4.43113532255308E-2</v>
       </c>
       <c r="F49">
-        <v>0.51096805518863098</v>
+        <v>0.239991302169202</v>
       </c>
       <c r="G49">
-        <v>0.68731371709384903</v>
+        <v>0.72236379871802803</v>
       </c>
       <c r="H49" s="1">
-        <v>4.3196187374385699E-28</v>
+        <v>1.39411236278261E-42</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
+      <c r="C50">
+        <v>-1.3959635844072E-2</v>
+      </c>
       <c r="D50">
-        <v>-2.53721057256205E-2</v>
+        <v>-2.49974148902849E-2</v>
       </c>
       <c r="E50">
-        <v>-1.04572183155799E-2</v>
+        <v>-9.2851943071557991E-3</v>
       </c>
       <c r="F50">
-        <v>0.62082860648192795</v>
+        <v>0.60847915270068598</v>
       </c>
       <c r="G50">
-        <v>1.1984519900299999E-4</v>
+        <v>2.0451925563210401E-2</v>
       </c>
       <c r="H50">
-        <v>4.27766487576847E-2</v>
+        <v>0.114454515403122</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="1">
-        <v>2.91128925677027E-5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2.4074120116401001E-5</v>
+      <c r="C51">
+        <v>-1.46104449741112E-3</v>
+      </c>
+      <c r="D51">
+        <v>2.9563236518825599E-3</v>
+      </c>
+      <c r="E51">
+        <v>2.5012099566112602E-3</v>
       </c>
       <c r="F51">
-        <v>0.58302311348782598</v>
-      </c>
-      <c r="G51">
-        <v>5.8702021726919997E-4</v>
+        <v>0.138653303464573</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.34986465985811E-18</v>
       </c>
       <c r="H51" s="1">
-        <v>6.4494835021419798E-11</v>
+        <v>6.6273911076234399E-22</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
-        <v>21</v>
+      <c r="C52">
+        <v>-4.9828509930642797E-3</v>
       </c>
       <c r="D52">
-        <v>3.5577759726177099E-3</v>
+        <v>3.5436380609320901E-3</v>
       </c>
       <c r="E52">
-        <v>4.8350179785149302E-3</v>
+        <v>4.7269988147212198E-3</v>
       </c>
       <c r="F52">
-        <v>0.55288593773335704</v>
+        <v>0.48477237327397998</v>
       </c>
       <c r="G52">
-        <v>2.1231510077058999E-3</v>
+        <v>8.2995487441676702E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>2.9952930278873199E-11</v>
+        <v>2.36630607452525E-5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>8.5255764946041996E-3</v>
       </c>
       <c r="D53">
-        <v>3.3959543676771002E-3</v>
+        <v>3.3324828693592E-3</v>
       </c>
       <c r="E53">
-        <v>3.6382832783615001E-3</v>
+        <v>3.5476746229176001E-3</v>
       </c>
       <c r="F53">
-        <v>0.484629361292363</v>
+        <v>0.49563922409653099</v>
       </c>
       <c r="G53">
-        <v>5.0109718384300998E-2</v>
+        <v>8.1562207288471897E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>7.5225970047877995E-13</v>
+        <v>8.3821515192391792E-6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>5.6828308878445997E-3</v>
       </c>
       <c r="D54">
-        <v>-3.0118207502377002E-3</v>
+        <v>-2.9180830326272999E-3</v>
+      </c>
+      <c r="E54">
+        <v>-8.2003019863900002E-4</v>
       </c>
       <c r="F54">
-        <v>0.59076895553567998</v>
+        <v>0.69680426625972902</v>
       </c>
       <c r="G54">
-        <v>9.2714729705257903E-2</v>
+        <v>8.4806310285311604E-2</v>
       </c>
       <c r="H54">
-        <v>0.21945161692321299</v>
+        <v>0.34828970302655399</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>2.72250069059429E-2</v>
+      </c>
+      <c r="D55">
+        <v>5.7419169548798797E-3</v>
+      </c>
+      <c r="E55">
+        <v>4.4482739119497596E-3</v>
       </c>
       <c r="F55">
-        <v>0.35905841202793098</v>
+        <v>0.494660210900777</v>
       </c>
       <c r="G55">
-        <v>0.44491442934398301</v>
+        <v>0.31600353625184602</v>
       </c>
       <c r="H55">
-        <v>0.43919589856616398</v>
+        <v>0.32454748785419002</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>1.2541419233770001E-4</v>
       </c>
       <c r="D56" s="1">
-        <v>5.4383233390897799E-5</v>
+        <v>5.3350506429638198E-5</v>
       </c>
       <c r="E56" s="1">
-        <v>3.0973766427095003E-5</v>
+        <v>2.9748046294751599E-5</v>
       </c>
       <c r="F56">
-        <v>0.27116989169943101</v>
-      </c>
-      <c r="G56">
-        <v>1.2297859626393201E-2</v>
+        <v>0.17657614433999</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.0075343450055E-8</v>
       </c>
       <c r="H56">
-        <v>2.7909821737340002E-4</v>
+        <v>2.5628384340517E-3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>6.7691755398486802E-3</v>
       </c>
       <c r="D57">
-        <v>-7.71597622225391E-3</v>
+        <v>-7.8415542783698798E-3</v>
       </c>
       <c r="E57">
-        <v>-1.0064377834403299E-2</v>
+        <v>-1.0271227260366601E-2</v>
       </c>
       <c r="F57">
-        <v>0.58811188005497395</v>
-      </c>
-      <c r="G57">
-        <v>4.5996755310606001E-3</v>
+        <v>0.48438324355707102</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.0220543037561301E-6</v>
       </c>
       <c r="H57" s="1">
-        <v>6.0335224708955704E-9</v>
+        <v>1.06001091616185E-13</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>-1.7099543550683099E-3</v>
       </c>
       <c r="D58">
-        <v>7.9864213757973607E-3</v>
+        <v>7.8839518228591299E-3</v>
+      </c>
+      <c r="E58">
+        <v>-1.2009911448953099E-3</v>
       </c>
       <c r="F58">
-        <v>0.86410363969988102</v>
+        <v>0.84189043291854304</v>
       </c>
       <c r="G58">
-        <v>1.7730112499809999E-4</v>
+        <v>5.05451294281163E-2</v>
       </c>
       <c r="H58">
-        <v>0.33817164874121097</v>
+        <v>0.391543181614118</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2548,20 +2648,23 @@
       <c r="B59" t="s">
         <v>9</v>
       </c>
+      <c r="C59">
+        <v>-0.16542512708793899</v>
+      </c>
       <c r="D59">
-        <v>0.23576811089765901</v>
+        <v>0.240813827189505</v>
       </c>
       <c r="E59">
-        <v>0.49696979792707002</v>
+        <v>0.49268381072400502</v>
       </c>
       <c r="F59">
-        <v>0.256933310735874</v>
+        <v>0.29448842278392301</v>
       </c>
       <c r="G59">
-        <v>1.51600167595433E-2</v>
+        <v>1.3005423402960001E-2</v>
       </c>
       <c r="H59" s="1">
-        <v>7.04648403660137E-12</v>
+        <v>2.83766370389308E-11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2571,17 +2674,23 @@
       <c r="B60" t="s">
         <v>10</v>
       </c>
+      <c r="C60">
+        <v>-1.702669845225E-3</v>
+      </c>
+      <c r="D60">
+        <v>-6.8585141451429996E-3</v>
+      </c>
       <c r="E60">
-        <v>-1.53781846323019E-2</v>
+        <v>-1.6089122998139901E-2</v>
       </c>
       <c r="F60">
-        <v>0.78520636816312295</v>
+        <v>0.78126916327015405</v>
       </c>
       <c r="G60">
-        <v>0.15127861435760701</v>
+        <v>0.169170088784206</v>
       </c>
       <c r="H60" s="1">
-        <v>3.5772898820741999E-5</v>
+        <v>3.05460151440638E-5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2592,22 +2701,22 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>-1.7396792200515501</v>
+        <v>-1.7834018060772501</v>
       </c>
       <c r="D61">
-        <v>-1.86719750481474</v>
+        <v>-1.8590709246272401</v>
       </c>
       <c r="E61">
-        <v>-2.1569178520052898</v>
+        <v>-2.1743759872610999</v>
       </c>
       <c r="F61" s="1">
-        <v>1.8531791599457899E-10</v>
+        <v>3.0706833967479398E-6</v>
       </c>
       <c r="G61" s="1">
-        <v>4.4370358085753597E-33</v>
+        <v>6.4991867394416996E-31</v>
       </c>
       <c r="H61" s="1">
-        <v>2.26623188141761E-63</v>
+        <v>2.81139915134096E-47</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2618,19 +2727,22 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>-2.1517421980469999E-4</v>
+        <v>-2.148350738968E-4</v>
       </c>
       <c r="D62">
-        <v>-1.0184151415819E-3</v>
+        <v>-1.0128294268893E-3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-5.60556079516599E-6</v>
       </c>
       <c r="F62" s="1">
-        <v>3.7757800422088302E-18</v>
+        <v>6.8669172115942705E-20</v>
       </c>
       <c r="G62" s="1">
-        <v>2.3107583905294602E-186</v>
+        <v>1.09223956757037E-185</v>
       </c>
       <c r="H62">
-        <v>0.24003621079899501</v>
+        <v>0.213673431216408</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2641,22 +2753,22 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>1.4294189484264599</v>
+        <v>1.42701873243514</v>
       </c>
       <c r="D63">
-        <v>1.65205333231518</v>
+        <v>1.64233184418628</v>
       </c>
       <c r="E63">
-        <v>1.47230133977888</v>
-      </c>
-      <c r="F63">
-        <v>2.3011864153399999E-4</v>
+        <v>1.48335022053556</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5.0285666361532499E-5</v>
       </c>
       <c r="G63" s="1">
-        <v>1.49750375702178E-18</v>
+        <v>6.4326181133492405E-13</v>
       </c>
       <c r="H63" s="1">
-        <v>1.2358998660567699E-12</v>
+        <v>4.4501000156119702E-8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2666,20 +2778,23 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
+      <c r="C64">
+        <v>0.83116596597794101</v>
+      </c>
       <c r="D64">
-        <v>1.4442940173682699</v>
+        <v>1.44969770577193</v>
       </c>
       <c r="E64">
-        <v>2.25151245008075</v>
+        <v>2.27456280571971</v>
       </c>
       <c r="F64">
-        <v>0.113564946107783</v>
+        <v>0.155774936304301</v>
       </c>
       <c r="G64" s="1">
-        <v>1.28157135463233E-6</v>
+        <v>5.6807681373947499E-5</v>
       </c>
       <c r="H64" s="1">
-        <v>2.9910443523004899E-21</v>
+        <v>3.98557899507666E-10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2690,22 +2805,22 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>0.974947960699454</v>
+        <v>0.97622019014384098</v>
       </c>
       <c r="D65">
-        <v>1.21966116551804</v>
+        <v>1.21200098649564</v>
       </c>
       <c r="E65">
-        <v>0.76331300506806798</v>
+        <v>0.78052832967118702</v>
       </c>
       <c r="F65">
-        <v>2.7373073069922999E-2</v>
+        <v>1.2626944593145201E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>2.3363387567035001E-9</v>
-      </c>
-      <c r="H65" s="1">
-        <v>9.9399928654837804E-5</v>
+        <v>2.7946322914098598E-9</v>
+      </c>
+      <c r="H65">
+        <v>2.4691669285919998E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2716,22 +2831,22 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>1.75355324919989</v>
+        <v>1.7389897110630099</v>
       </c>
       <c r="D66">
-        <v>0.79947659040077901</v>
+        <v>0.825157709382905</v>
       </c>
       <c r="E66">
-        <v>1.95353999451483</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1.6953634970647299E-5</v>
+        <v>1.9934861463173601</v>
+      </c>
+      <c r="F66">
+        <v>1.7914153505917999E-3</v>
       </c>
       <c r="G66">
-        <v>3.1867226372889998E-4</v>
+        <v>1.16944094076E-4</v>
       </c>
       <c r="H66" s="1">
-        <v>5.5633142036955801E-27</v>
+        <v>5.5263775938879703E-16</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2741,20 +2856,23 @@
       <c r="B67" t="s">
         <v>17</v>
       </c>
+      <c r="C67">
+        <v>0.95762438931304805</v>
+      </c>
       <c r="D67">
-        <v>0.94224699361535103</v>
+        <v>0.95054953595719405</v>
       </c>
       <c r="E67">
-        <v>0.90782765690599099</v>
+        <v>1.0711785537259999</v>
       </c>
       <c r="F67">
-        <v>0.26306338843643101</v>
+        <v>0.26365507507936797</v>
       </c>
       <c r="G67">
-        <v>7.3706798077354696E-2</v>
+        <v>6.9161920076367706E-2</v>
       </c>
       <c r="H67">
-        <v>3.0740651969505199E-2</v>
+        <v>1.9659246986315701E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2764,20 +2882,23 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
+      <c r="C68">
+        <v>-8.8038952297185294E-2</v>
+      </c>
       <c r="D68">
-        <v>-0.13099451137019799</v>
+        <v>-0.12795766001780801</v>
       </c>
       <c r="E68">
-        <v>-0.11397379632195601</v>
+        <v>-0.15184887081967799</v>
       </c>
       <c r="F68">
-        <v>0.121609219411345</v>
-      </c>
-      <c r="G68">
-        <v>1.041959279258E-4</v>
+        <v>4.0391360118611497E-2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6.3448964570137496E-8</v>
       </c>
       <c r="H68" s="1">
-        <v>3.8670369676889097E-5</v>
+        <v>4.72010184944341E-14</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2787,14 +2908,23 @@
       <c r="B69" t="s">
         <v>19</v>
       </c>
+      <c r="C69">
+        <v>4.5237257668385697E-2</v>
+      </c>
+      <c r="D69">
+        <v>4.2433321463686002E-3</v>
+      </c>
+      <c r="E69">
+        <v>-7.7201399223442001E-3</v>
+      </c>
       <c r="F69">
-        <v>0.80703724910818597</v>
+        <v>0.28180043089526002</v>
       </c>
       <c r="G69">
-        <v>0.76234154295771295</v>
+        <v>0.71357260614789997</v>
       </c>
       <c r="H69">
-        <v>0.117196736701353</v>
+        <v>0.60424855645842201</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2804,57 +2934,23 @@
       <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="1">
-        <v>5.2595421961930397E-5</v>
+      <c r="C70">
+        <v>3.0059567438246103E-4</v>
+      </c>
+      <c r="D70">
+        <v>2.5846903415416801E-3</v>
+      </c>
+      <c r="E70">
+        <v>3.9878698401893103E-3</v>
       </c>
       <c r="F70">
-        <v>0.43910155238224602</v>
+        <v>0.76990746882934902</v>
       </c>
       <c r="G70">
-        <v>0.381209002656962</v>
+        <v>0.10507443809478299</v>
       </c>
       <c r="H70">
-        <v>1.3835529598512201E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71">
-        <v>0.46118903889965301</v>
-      </c>
-      <c r="G71">
-        <v>0.80849007412158502</v>
-      </c>
-      <c r="H71">
-        <v>0.74694077670136705</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72">
-        <v>-2.1642853955889701E-2</v>
-      </c>
-      <c r="D72">
-        <v>9.0052469368877008E-3</v>
-      </c>
-      <c r="F72">
-        <v>1.0847641379724E-2</v>
-      </c>
-      <c r="G72">
-        <v>7.9424961504239999E-2</v>
-      </c>
-      <c r="H72">
-        <v>0.69346661630754602</v>
+        <v>1.3555936922309E-3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2862,19 +2958,25 @@
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>1.21035548533682E-2</v>
       </c>
       <c r="D73">
-        <v>9.9242383195663995E-3</v>
+        <v>2.1163245700708002E-3</v>
+      </c>
+      <c r="E73">
+        <v>2.6746575622732002E-3</v>
       </c>
       <c r="F73">
-        <v>0.264408555995155</v>
+        <v>1.7351836782898099E-2</v>
       </c>
       <c r="G73">
-        <v>5.7626926942408903E-2</v>
+        <v>0.52114885288552903</v>
       </c>
       <c r="H73">
-        <v>0.619449574013065</v>
+        <v>0.25469238089042701</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2882,56 +2984,25 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>2.3737315059421098E-2</v>
+      </c>
+      <c r="D74">
+        <v>2.6878794215042402E-3</v>
+      </c>
+      <c r="E74">
+        <v>-2.48854686884164E-3</v>
       </c>
       <c r="F74">
-        <v>0.17634633803246</v>
+        <v>0.120127742012181</v>
       </c>
       <c r="G74">
-        <v>0.69423494729896695</v>
+        <v>0.74262282867540996</v>
       </c>
       <c r="H74">
-        <v>0.40026979415778302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75">
-        <v>1.132034252808E-4</v>
-      </c>
-      <c r="F75">
-        <v>0.30239604912527701</v>
-      </c>
-      <c r="G75">
-        <v>0.75410386515156402</v>
-      </c>
-      <c r="H75">
-        <v>6.6650956904910297E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76">
-        <v>-1.3279091699372201E-2</v>
-      </c>
-      <c r="F76">
-        <v>0.47961482096787</v>
-      </c>
-      <c r="G76">
-        <v>0.71038616571011803</v>
-      </c>
-      <c r="H76">
-        <v>5.0857572190541399E-2</v>
+        <v>0.64914832930619704</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2939,16 +3010,25 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>-1.5390251187094001E-2</v>
+      </c>
+      <c r="D77">
+        <v>-2.6549870482787999E-3</v>
+      </c>
+      <c r="E77">
+        <v>7.5876594396056098E-3</v>
       </c>
       <c r="F77">
-        <v>0.19403168685366201</v>
+        <v>0.14772294024871599</v>
       </c>
       <c r="G77">
-        <v>0.79084453085278505</v>
+        <v>0.63645408147642502</v>
       </c>
       <c r="H77">
-        <v>0.49270406691762297</v>
+        <v>0.14348285232876301</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2959,22 +3039,22 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>-0.60789245790969104</v>
+        <v>-0.61047931768638697</v>
       </c>
       <c r="D78">
-        <v>7.5668444312326902E-2</v>
+        <v>7.3599117193724195E-2</v>
       </c>
       <c r="E78">
-        <v>0.416548759973977</v>
+        <v>0.41472720454883899</v>
       </c>
       <c r="F78" s="1">
-        <v>4.2447911056609403E-26</v>
+        <v>8.4990485899374903E-26</v>
       </c>
       <c r="G78">
-        <v>7.2025084089577997E-3</v>
+        <v>8.9904329029332E-3</v>
       </c>
       <c r="H78" s="1">
-        <v>7.2526696596650101E-44</v>
+        <v>2.9230986416988199E-41</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2984,20 +3064,23 @@
       <c r="B79" t="s">
         <v>10</v>
       </c>
+      <c r="C79">
+        <v>-1.3840983442449999E-4</v>
+      </c>
       <c r="D79">
-        <v>-5.4600979858121998E-3</v>
+        <v>-5.5046509814808001E-3</v>
       </c>
       <c r="E79">
-        <v>-9.5826567610301002E-3</v>
+        <v>-9.5795239036360995E-3</v>
       </c>
       <c r="F79">
-        <v>0.84240477060617402</v>
+        <v>0.72200201558807697</v>
       </c>
       <c r="G79">
-        <v>4.7707271360970002E-4</v>
+        <v>7.4143633530130001E-4</v>
       </c>
       <c r="H79" s="1">
-        <v>1.9478570028538999E-9</v>
+        <v>4.8122777875490603E-9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3008,16 +3091,16 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>-2.21050147575659</v>
+        <v>-2.2082787722450599</v>
       </c>
       <c r="D80">
-        <v>-2.4708270801082</v>
+        <v>-2.47505976157642</v>
       </c>
       <c r="E80">
-        <v>-3.0954275081934801</v>
+        <v>-3.0866955687367299</v>
       </c>
       <c r="F80" s="1">
-        <v>2.2987008669012399E-148</v>
+        <v>8.5704663404248596E-150</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3034,22 +3117,22 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>-3.0578723723679999E-4</v>
+        <v>-3.0579963303179998E-4</v>
       </c>
       <c r="D81">
-        <v>-1.7613218197756E-3</v>
+        <v>-1.7606540187877001E-3</v>
       </c>
       <c r="E81" s="1">
-        <v>3.8621946031139699E-5</v>
+        <v>3.8863504011758297E-5</v>
       </c>
       <c r="F81" s="1">
-        <v>8.1346973608602895E-135</v>
+        <v>9.5225006813897503E-136</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>1.33049063737326E-43</v>
+        <v>4.4716565694550298E-46</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3060,22 +3143,22 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>1.8682025888888001</v>
+        <v>1.86712396639014</v>
       </c>
       <c r="D82">
-        <v>1.7745093477093701</v>
+        <v>1.7740770034466999</v>
       </c>
       <c r="E82">
-        <v>1.6838921075667299</v>
+        <v>1.6849171384080901</v>
       </c>
       <c r="F82" s="1">
-        <v>4.9586181767696101E-51</v>
+        <v>1.4913697155052E-50</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <v>1.68776596928999E-120</v>
+        <v>3.12594328782883E-123</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3086,22 +3169,22 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>2.0865239901313801</v>
+        <v>2.0818274426306198</v>
       </c>
       <c r="D83">
-        <v>2.0248499984297399</v>
+        <v>2.01351507585641</v>
       </c>
       <c r="E83">
-        <v>2.4863239619500801</v>
+        <v>2.4882065319296101</v>
       </c>
       <c r="F83" s="1">
-        <v>1.6573006182430499E-38</v>
+        <v>1.4238628438555199E-38</v>
       </c>
       <c r="G83" s="1">
-        <v>6.6746866814144898E-190</v>
+        <v>4.1557336396112799E-192</v>
       </c>
       <c r="H83" s="1">
-        <v>2.3933677427160201E-175</v>
+        <v>1.5789303257703401E-175</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3112,22 +3195,22 @@
         <v>15</v>
       </c>
       <c r="C84">
-        <v>1.1657309200530499</v>
+        <v>1.1696237014212201</v>
       </c>
       <c r="D84">
-        <v>0.80179545339040803</v>
+        <v>0.80037211266622998</v>
       </c>
       <c r="E84">
-        <v>1.2341854081146699</v>
+        <v>1.2406447951091899</v>
       </c>
       <c r="F84" s="1">
-        <v>3.8407553628330502E-17</v>
+        <v>5.0502625757795202E-17</v>
       </c>
       <c r="G84" s="1">
-        <v>2.4224178025383601E-64</v>
+        <v>7.2114133102704005E-63</v>
       </c>
       <c r="H84" s="1">
-        <v>4.9652350936043198E-58</v>
+        <v>2.5504550303921699E-59</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3138,22 +3221,22 @@
         <v>16</v>
       </c>
       <c r="C85">
-        <v>2.1281517562697299</v>
+        <v>2.1308929464287401</v>
       </c>
       <c r="D85">
-        <v>0.75372226118517505</v>
+        <v>0.75526287488948196</v>
       </c>
       <c r="E85">
-        <v>1.75311582037744</v>
+        <v>1.75790405178334</v>
       </c>
       <c r="F85" s="1">
-        <v>9.0362557913515407E-75</v>
+        <v>1.5532661207917801E-75</v>
       </c>
       <c r="G85" s="1">
-        <v>1.2485295388657499E-41</v>
+        <v>7.0753659442915198E-42</v>
       </c>
       <c r="H85" s="1">
-        <v>1.52347167817887E-124</v>
+        <v>6.2616716909684105E-125</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3164,22 +3247,22 @@
         <v>17</v>
       </c>
       <c r="C86">
-        <v>1.2179050492413399</v>
+        <v>1.2147990328001601</v>
       </c>
       <c r="D86">
-        <v>0.60266307765382898</v>
+        <v>0.599695715548617</v>
       </c>
       <c r="E86">
-        <v>1.6707968871266701</v>
+        <v>1.67067280510994</v>
       </c>
       <c r="F86" s="1">
-        <v>1.57594300654213E-12</v>
+        <v>9.2875548577343907E-12</v>
       </c>
       <c r="G86" s="1">
-        <v>7.7961581263803598E-19</v>
+        <v>2.6222004764249299E-18</v>
       </c>
       <c r="H86" s="1">
-        <v>2.27912648599499E-84</v>
+        <v>1.27481202994639E-81</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3190,22 +3273,22 @@
         <v>18</v>
       </c>
       <c r="C87">
-        <v>-5.92858535512584E-2</v>
+        <v>-5.6827045375313898E-2</v>
       </c>
       <c r="D87">
-        <v>-3.7274283675068902E-2</v>
+        <v>-4.1791441746405401E-2</v>
       </c>
       <c r="E87">
-        <v>-6.6172195252216195E-2</v>
+        <v>-5.8534595603577898E-2</v>
       </c>
       <c r="F87" s="1">
-        <v>6.2944912929744997E-8</v>
+        <v>4.8666524494846801E-8</v>
       </c>
       <c r="G87" s="1">
-        <v>6.7236233961463703E-17</v>
+        <v>5.12517681625051E-24</v>
       </c>
       <c r="H87" s="1">
-        <v>8.5301262029810597E-36</v>
+        <v>2.04974697607018E-29</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3215,17 +3298,23 @@
       <c r="B88" t="s">
         <v>19</v>
       </c>
+      <c r="C88">
+        <v>1.4420154619364E-3</v>
+      </c>
       <c r="D88">
-        <v>1.65200479457739E-2</v>
+        <v>1.53803911694687E-2</v>
+      </c>
+      <c r="E88">
+        <v>9.4584040107301998E-3</v>
       </c>
       <c r="F88">
-        <v>0.83521623643152199</v>
+        <v>0.824964153217143</v>
       </c>
       <c r="G88">
-        <v>2.30935288209193E-2</v>
+        <v>3.5836236869904399E-2</v>
       </c>
       <c r="H88">
-        <v>0.34310914284106703</v>
+        <v>0.285476558459621</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3235,23 +3324,23 @@
       <c r="B89" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="1">
-        <v>2.90379869562041E-5</v>
-      </c>
-      <c r="D89" s="1">
-        <v>6.6386605507015294E-5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>5.7054600295313498E-5</v>
+      <c r="C89">
+        <v>3.4344886647687599E-3</v>
+      </c>
+      <c r="D89">
+        <v>7.70275832016279E-3</v>
+      </c>
+      <c r="E89">
+        <v>6.4705421066408898E-3</v>
       </c>
       <c r="F89">
-        <v>1.5031852902190001E-3</v>
+        <v>2.2353260474829999E-4</v>
       </c>
       <c r="G89" s="1">
-        <v>3.6301340409415801E-44</v>
+        <v>2.2696875339574299E-51</v>
       </c>
       <c r="H89" s="1">
-        <v>4.69406084468087E-35</v>
+        <v>2.8972419856199099E-38</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3259,45 +3348,25 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C90">
-        <v>2.65511343729984E-2</v>
+        <v>2.3325969627381701E-2</v>
       </c>
       <c r="D90">
-        <v>2.5144526486388302E-2</v>
+        <v>2.6452620039817201E-2</v>
+      </c>
+      <c r="E90">
+        <v>-1.3183336059017199E-2</v>
       </c>
       <c r="F90">
-        <v>1.40797785980207E-2</v>
+        <v>3.0809960020650101E-2</v>
       </c>
       <c r="G90" s="1">
-        <v>9.1728703958169304E-5</v>
+        <v>4.2109496303395299E-5</v>
       </c>
       <c r="H90">
-        <v>0.68357589121942697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91">
-        <v>4.5167980098052996E-3</v>
-      </c>
-      <c r="E91">
-        <v>-3.7964448265833E-3</v>
-      </c>
-      <c r="F91">
-        <v>0.68621714279962798</v>
-      </c>
-      <c r="G91" s="1">
-        <v>4.0044894170722599E-6</v>
-      </c>
-      <c r="H91">
-        <v>2.6324450747080002E-4</v>
+        <v>4.94787467622416E-2</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3305,25 +3374,25 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92">
-        <v>-9.3665378196261008E-3</v>
+        <v>-9.2166112675844004E-3</v>
       </c>
       <c r="D92">
-        <v>8.1313572069414992E-3</v>
+        <v>4.0581395417782001E-3</v>
       </c>
       <c r="E92">
-        <v>2.6876854803208998E-3</v>
-      </c>
-      <c r="F92">
-        <v>8.7220197768250003E-4</v>
+        <v>4.6999625047263998E-3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>6.0124440517830603E-5</v>
       </c>
       <c r="G92" s="1">
-        <v>3.6741502848050397E-12</v>
-      </c>
-      <c r="H92">
-        <v>1.25735197766752E-2</v>
+        <v>1.3815521170457601E-5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1.30128649699287E-8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3331,19 +3400,25 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93">
-        <v>8.2962939098313298E-3</v>
+        <v>8.5581408713349301E-3</v>
+      </c>
+      <c r="D93">
+        <v>-2.3003447164122001E-3</v>
+      </c>
+      <c r="E93">
+        <v>-4.1784767557075298E-4</v>
       </c>
       <c r="F93" s="1">
-        <v>1.2528190597247199E-5</v>
+        <v>4.7022052180075502E-6</v>
       </c>
       <c r="G93">
-        <v>0.158929660293332</v>
+        <v>3.9854149809882999E-2</v>
       </c>
       <c r="H93">
-        <v>0.33399460307752998</v>
+        <v>0.71325034801688303</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3351,25 +3426,25 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1">
-        <v>8.5533368819655097E-5</v>
+        <v>7.91166328364304E-5</v>
       </c>
       <c r="D94">
-        <v>1.7411440869989999E-4</v>
+        <v>1.769484449567E-4</v>
       </c>
       <c r="E94">
-        <v>2.8525526991729998E-4</v>
+        <v>2.6516514596279999E-4</v>
       </c>
       <c r="F94">
-        <v>4.4202033428700098E-2</v>
+        <v>6.1215843630207302E-2</v>
       </c>
       <c r="G94" s="1">
-        <v>7.1882554739141198E-14</v>
+        <v>1.0187256143650099E-14</v>
       </c>
       <c r="H94" s="1">
-        <v>7.8144885531256801E-33</v>
+        <v>2.3144582447205599E-30</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3377,19 +3452,25 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>-2.5886559206994299E-3</v>
       </c>
       <c r="D95">
-        <v>-3.6854605230747001E-3</v>
+        <v>-3.0938121324389899E-3</v>
+      </c>
+      <c r="E95">
+        <v>-8.49835808567671E-4</v>
       </c>
       <c r="F95">
-        <v>0.26132701986337797</v>
+        <v>0.214361652800794</v>
       </c>
       <c r="G95">
-        <v>3.761532189893E-4</v>
+        <v>1.3294647528109E-3</v>
       </c>
       <c r="H95">
-        <v>0.28512839603908702</v>
+        <v>0.43225188309395202</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3397,25 +3478,25 @@
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96">
-        <v>-5.4841430227852098E-3</v>
+        <v>-4.4609944795206396E-3</v>
       </c>
       <c r="D96">
-        <v>3.8005127395353399E-3</v>
+        <v>4.3689071505063799E-3</v>
       </c>
       <c r="E96">
-        <v>1.02787126127364E-2</v>
+        <v>1.0558133104104099E-2</v>
       </c>
       <c r="F96">
-        <v>6.6025528495013502E-2</v>
+        <v>0.151032472481408</v>
       </c>
       <c r="G96">
-        <v>6.6207439009805004E-3</v>
+        <v>2.0526372931521999E-3</v>
       </c>
       <c r="H96" s="1">
-        <v>1.0340909072055099E-12</v>
+        <v>1.1952659494115401E-12</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3426,22 +3507,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>-0.159902163455832</v>
+        <v>-0.160295445934866</v>
       </c>
       <c r="D97">
-        <v>9.5668143220158305E-2</v>
+        <v>9.5788782022244195E-2</v>
       </c>
       <c r="E97">
-        <v>0.263960197477422</v>
+        <v>0.26408450472824002</v>
       </c>
       <c r="F97">
-        <v>3.6989429471433999E-3</v>
+        <v>2.3056457060888999E-3</v>
       </c>
       <c r="G97">
-        <v>5.3789559074649197E-2</v>
+        <v>5.2927388623405201E-2</v>
       </c>
       <c r="H97" s="1">
-        <v>1.43621940989983E-8</v>
+        <v>1.7177828371934002E-8</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3451,17 +3532,23 @@
       <c r="B98" t="s">
         <v>10</v>
       </c>
+      <c r="C98">
+        <v>4.493773198147E-4</v>
+      </c>
       <c r="D98">
-        <v>-8.0777469819022993E-3</v>
+        <v>-7.9824736911074008E-3</v>
+      </c>
+      <c r="E98">
+        <v>-3.7619095163368001E-3</v>
       </c>
       <c r="F98">
-        <v>0.71545091626000901</v>
+        <v>0.64486466947807497</v>
       </c>
       <c r="G98">
-        <v>4.1269943735788997E-3</v>
+        <v>6.0197680530268E-3</v>
       </c>
       <c r="H98">
-        <v>0.11699325630405</v>
+        <v>0.116542288751995</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3472,22 +3559,22 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>-3.0428098478669598</v>
+        <v>-3.0408488051461799</v>
       </c>
       <c r="D99">
-        <v>-2.8401304896055901</v>
+        <v>-2.8372729824935301</v>
       </c>
       <c r="E99">
-        <v>-3.4945052099210798</v>
+        <v>-3.4915865003927</v>
       </c>
       <c r="F99" s="1">
-        <v>8.6364892271336695E-43</v>
+        <v>1.9790530589619099E-39</v>
       </c>
       <c r="G99" s="1">
-        <v>2.3591502635505201E-133</v>
+        <v>9.7948619823172805E-101</v>
       </c>
       <c r="H99" s="1">
-        <v>3.1474434468993798E-215</v>
+        <v>3.3827332255373598E-151</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3498,22 +3585,22 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>-3.4430071094929999E-4</v>
+        <v>-3.4424015353180001E-4</v>
       </c>
       <c r="D100">
-        <v>-1.6150637042149001E-3</v>
+        <v>-1.6153026835908E-3</v>
       </c>
       <c r="E100" s="1">
-        <v>-1.1065064941546899E-5</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
+        <v>-1.1124878698342601E-5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.11558672468286E-227</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" s="1">
-        <v>4.5864276509509198E-5</v>
+      <c r="H100">
+        <v>1.00890972601E-4</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3524,22 +3611,22 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>0.72806367889265999</v>
+        <v>0.72980252004058999</v>
       </c>
       <c r="D101">
-        <v>1.8824333816886101</v>
+        <v>1.88486970114996</v>
       </c>
       <c r="E101">
-        <v>0.59020025755763295</v>
+        <v>0.59038557628571298</v>
       </c>
       <c r="F101" s="1">
-        <v>3.93624383388416E-8</v>
+        <v>9.4028779303750598E-6</v>
       </c>
       <c r="G101" s="1">
-        <v>2.5650256975217701E-46</v>
+        <v>7.2599535213640098E-37</v>
       </c>
       <c r="H101">
-        <v>7.4879918018410003E-4</v>
+        <v>4.5913627418259998E-4</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3550,22 +3637,22 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>0.428458381965728</v>
+        <v>0.43040513162322502</v>
       </c>
       <c r="D102">
-        <v>0.94367200996594902</v>
+        <v>0.94440199186231599</v>
       </c>
       <c r="E102">
-        <v>0.93227350199891801</v>
+        <v>0.93351855004642803</v>
       </c>
       <c r="F102">
-        <v>3.8679960373681897E-2</v>
+        <v>4.3112240120240001E-4</v>
       </c>
       <c r="G102" s="1">
-        <v>5.14943259093701E-14</v>
+        <v>2.67508143265456E-14</v>
       </c>
       <c r="H102" s="1">
-        <v>3.8318720311501803E-8</v>
+        <v>1.13543847613525E-6</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3575,20 +3662,23 @@
       <c r="B103" t="s">
         <v>15</v>
       </c>
+      <c r="C103">
+        <v>0.10353264768727299</v>
+      </c>
       <c r="D103">
-        <v>0.70750103475949</v>
+        <v>0.70913538279640798</v>
       </c>
       <c r="E103">
-        <v>0.51312074860068102</v>
+        <v>0.51252572212254499</v>
       </c>
       <c r="F103">
-        <v>0.35538420787944502</v>
+        <v>0.40211993077233998</v>
       </c>
       <c r="G103" s="1">
-        <v>5.0160499883927797E-6</v>
+        <v>3.79612107995871E-7</v>
       </c>
       <c r="H103">
-        <v>4.6781236353709002E-3</v>
+        <v>1.7362491350751E-3</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3599,22 +3689,22 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>1.2569517443740399</v>
+        <v>1.2585697237245901</v>
       </c>
       <c r="D104">
-        <v>0.74953995584157695</v>
+        <v>0.75143467253081897</v>
       </c>
       <c r="E104">
-        <v>1.34601384465476</v>
-      </c>
-      <c r="F104">
-        <v>2.1344903600013002E-3</v>
+        <v>1.3479030228900299</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1.9811160101771101E-21</v>
       </c>
       <c r="G104" s="1">
-        <v>2.1726484005634099E-9</v>
+        <v>3.5519751084692002E-12</v>
       </c>
       <c r="H104" s="1">
-        <v>5.2880625993859102E-14</v>
+        <v>6.9045646858380602E-17</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3624,17 +3714,23 @@
       <c r="B105" t="s">
         <v>17</v>
       </c>
+      <c r="C105">
+        <v>9.9037824304810604E-2</v>
+      </c>
       <c r="D105">
-        <v>0.55394101568104803</v>
+        <v>0.55478968721052702</v>
+      </c>
+      <c r="E105">
+        <v>0.22905638309350901</v>
       </c>
       <c r="F105">
-        <v>0.71536673499476799</v>
+        <v>0.57724922939572099</v>
       </c>
       <c r="G105">
-        <v>2.2266398434674E-3</v>
+        <v>1.5092157136893001E-3</v>
       </c>
       <c r="H105">
-        <v>0.26914406639719601</v>
+        <v>0.26773807915491199</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3644,17 +3740,23 @@
       <c r="B106" t="s">
         <v>18</v>
       </c>
+      <c r="C106">
+        <v>-1.7641819616338102E-2</v>
+      </c>
       <c r="D106">
-        <v>-2.51803468147427E-2</v>
+        <v>-2.09416429782611E-2</v>
+      </c>
+      <c r="E106">
+        <v>-1.5294794982088701E-2</v>
       </c>
       <c r="F106">
-        <v>0.118965570659731</v>
+        <v>8.7525161111970007E-2</v>
       </c>
       <c r="G106">
-        <v>3.0999579706869999E-2</v>
+        <v>6.30178735647208E-2</v>
       </c>
       <c r="H106">
-        <v>0.41192922306329499</v>
+        <v>0.14220347642794201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3665,22 +3767,22 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>-3.8208484857319799E-2</v>
+        <v>-3.8054662539206398E-2</v>
       </c>
       <c r="D107">
-        <v>4.6887519741526301E-2</v>
+        <v>4.7993723709380001E-2</v>
       </c>
       <c r="E107">
-        <v>3.01023789313642E-2</v>
+        <v>3.03805317816555E-2</v>
       </c>
       <c r="F107">
-        <v>2.9187856804333698E-2</v>
+        <v>6.17716382681101E-2</v>
       </c>
       <c r="G107">
-        <v>1.11420989691761E-2</v>
+        <v>7.6681709583349003E-3</v>
       </c>
       <c r="H107">
-        <v>8.6696457090675499E-2</v>
+        <v>7.8155997388559301E-2</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3690,23 +3792,23 @@
       <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="1">
-        <v>4.61366828032247E-5</v>
-      </c>
-      <c r="D108" s="1">
-        <v>6.0619060310346598E-5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>3.7215879888131697E-5</v>
+      <c r="C108">
+        <v>3.9308120701259299E-3</v>
+      </c>
+      <c r="D108">
+        <v>5.8302906349294199E-3</v>
+      </c>
+      <c r="E108">
+        <v>3.7746160511888398E-3</v>
       </c>
       <c r="F108">
-        <v>3.8841962684941001E-3</v>
+        <v>9.3995685511338006E-3</v>
       </c>
       <c r="G108" s="1">
-        <v>3.18374489014349E-6</v>
+        <v>2.8427507486754901E-7</v>
       </c>
       <c r="H108">
-        <v>2.8828837352463999E-3</v>
+        <v>5.3053624537080003E-4</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3714,36 +3816,25 @@
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C109">
+        <v>-5.2803631465448203E-3</v>
+      </c>
+      <c r="D109">
+        <v>1.3245764984016201E-4</v>
+      </c>
+      <c r="E109">
+        <v>3.10635517199282E-3</v>
       </c>
       <c r="F109">
-        <v>0.24901617572419599</v>
+        <v>0.241988866640508</v>
       </c>
       <c r="G109">
-        <v>0.76658619502411196</v>
+        <v>0.77313879386356898</v>
       </c>
       <c r="H109">
-        <v>0.46688707543052699</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110">
-        <v>4.8989784631463997E-3</v>
-      </c>
-      <c r="F110">
-        <v>0.78114878605266203</v>
-      </c>
-      <c r="G110">
-        <v>0.251425238244533</v>
-      </c>
-      <c r="H110">
-        <v>4.06701566325171E-2</v>
+        <v>0.439675196666932</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3751,19 +3842,25 @@
         <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>3.1530454951798001E-3</v>
+        <v>3.0779825422462001E-3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>-8.6436186898525502E-5</v>
+      </c>
+      <c r="E111">
+        <v>-6.645454737039E-4</v>
       </c>
       <c r="F111">
-        <v>5.5315030495923803E-2</v>
+        <v>7.3911546577992995E-2</v>
       </c>
       <c r="G111">
-        <v>0.52373533901231395</v>
+        <v>0.71824638082665904</v>
       </c>
       <c r="H111">
-        <v>0.68114419540409699</v>
+        <v>0.59969862621791903</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3771,25 +3868,25 @@
         <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>2.1884564447771399E-2</v>
+        <v>2.1726060501657901E-2</v>
       </c>
       <c r="D112">
-        <v>1.15276503159199E-2</v>
+        <v>1.06412457995744E-2</v>
       </c>
       <c r="E112">
-        <v>9.1117928402044707E-3</v>
+        <v>9.5580403631904901E-3</v>
       </c>
       <c r="F112" s="1">
-        <v>2.8137893395644602E-24</v>
-      </c>
-      <c r="G112" s="1">
-        <v>7.8759572019066502E-6</v>
+        <v>1.06406703624393E-24</v>
+      </c>
+      <c r="G112">
+        <v>1.241166971172E-4</v>
       </c>
       <c r="H112" s="1">
-        <v>9.6664956782662194E-5</v>
+        <v>2.7923612306598999E-5</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3797,16 +3894,25 @@
         <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2.1494458177168501E-6</v>
+      </c>
+      <c r="D113" s="1">
+        <v>-2.1373437407862701E-5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1.7972903737794601E-5</v>
       </c>
       <c r="F113">
-        <v>0.84115648125339904</v>
+        <v>0.83900376070953697</v>
       </c>
       <c r="G113">
-        <v>0.71750762555698999</v>
+        <v>0.42245039063709899</v>
       </c>
       <c r="H113">
-        <v>0.57413138318163603</v>
+        <v>0.53401967067372802</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3814,19 +3920,25 @@
         <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C114">
-        <v>-6.17343098725401E-3</v>
+        <v>-5.6495632926336602E-3</v>
+      </c>
+      <c r="D114">
+        <v>-3.1050198193417798E-3</v>
+      </c>
+      <c r="E114">
+        <v>4.94446971053541E-3</v>
       </c>
       <c r="F114">
-        <v>6.8273548448774604E-2</v>
+        <v>5.7484151603520002E-2</v>
       </c>
       <c r="G114">
-        <v>0.56197254122819296</v>
+        <v>0.204997675935956</v>
       </c>
       <c r="H114">
-        <v>0.17035528207230699</v>
+        <v>2.6500879841567002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3834,51 +3946,48 @@
         <v>32</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C115">
+        <v>-2.0645881060795401E-3</v>
       </c>
       <c r="D115">
-        <v>5.1517731257296299E-3</v>
+        <v>5.5152689619850596E-3</v>
       </c>
       <c r="E115">
-        <v>7.7927552650594104E-3</v>
+        <v>7.3728634595093302E-3</v>
       </c>
       <c r="F115">
-        <v>0.42330789213179898</v>
+        <v>0.318279029489624</v>
       </c>
       <c r="G115">
-        <v>3.4831652489237801E-2</v>
+        <v>2.4180497257725701E-2</v>
       </c>
       <c r="H115">
-        <v>2.3769201061430001E-4</v>
+        <v>1.1231241260782E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:H115">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R37" sqref="K1:R37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L62" sqref="J1:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
@@ -3887,7 +3996,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -3907,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
@@ -3917,386 +4026,555 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>-4.7205982709628898E-2</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5">
+        <v>-4.7205982709628898E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.6562082538554404E-2</v>
+      </c>
       <c r="E4" s="5">
-        <v>0.31439291406366798</v>
+        <v>0.316059565001725</v>
       </c>
       <c r="F4" s="6">
-        <v>-0.197472690234613</v>
+        <v>-0.18239592880987099</v>
       </c>
       <c r="G4" s="5">
-        <v>0.25950968952331499</v>
+        <v>0.27726128206057299</v>
       </c>
       <c r="H4" s="5">
-        <v>0.54988327119330604</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.56121346823348195</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>-4.4411540004012998E-3</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>-4.5818852921303997E-3</v>
+        <v>-4.4411540004012998E-3</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.6841091361560499E-2</v>
+        <v>-1.6799715784807899E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>-9.1304911690435007E-3</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>-9.0324746056126993E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-5.5016371545831997E-3</v>
+      </c>
       <c r="G5" s="6">
-        <v>-5.4673677616211003E-3</v>
+        <v>-4.9662597417903E-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-7.1001740973131002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-6.4289639088492001E-3</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>-2.8714023111527398</v>
+      </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5">
-        <v>-2.87134941150501</v>
+        <v>-2.8714023111527398</v>
       </c>
       <c r="D6" s="5">
-        <v>-2.5406899755476999</v>
+        <v>-2.5411215503268498</v>
       </c>
       <c r="E6" s="5">
-        <v>-3.2237792535294298</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-2.2918812252313598</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-2.5401290816834901</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-2.8709776091968102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-3.2227176632050498</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-2.3955342055524</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-2.6995286152792901</v>
+      </c>
+      <c r="H6" s="11">
+        <v>-2.9594756441218699</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>-3.0673799503219999E-4</v>
+      </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8">
-        <v>-3.064008738397E-4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>-1.6725208877556999E-3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2.0679221418513098E-5</v>
-      </c>
-      <c r="F7" s="8">
-        <v>-4.477851640174E-4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-2.9490179235338999E-3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1.3271017087250001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>-3.0673799503219999E-4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-1.6706180489834E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.0665819815577399E-5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-4.303620466061E-4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-2.935672125717E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5.5273273355999597E-5</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0.61782737897831697</v>
+      </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5">
-        <v>0.61884155462634205</v>
+        <v>0.61782737897831697</v>
       </c>
       <c r="D8" s="5">
-        <v>1.87391588688373</v>
+        <v>1.87038938776991</v>
       </c>
       <c r="E8" s="5">
-        <v>0.51547656249585105</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.2886327100789099</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.98303682074860399</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.47507434226048</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.516059832790425</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1.4019002234598801</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.0367661492587501</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.58145859531946</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>0.24748171136186101</v>
+      </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5">
-        <v>0.243439752831171</v>
+        <v>0.24748171136186101</v>
       </c>
       <c r="D9" s="5">
-        <v>0.60516260756745799</v>
+        <v>0.60116888304968696</v>
       </c>
       <c r="E9" s="5">
-        <v>0.59358717995497001</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1.2733761707160101</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1.8406179018984301</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2.4839033078261998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.59370737713802502</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1.4202707200165401</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.9084146572173499</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.5655731756081801</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>-0.16874451609158</v>
+      </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="5">
-        <v>-0.167085680575977</v>
+        <v>-0.16874451609158</v>
       </c>
       <c r="D10" s="5">
-        <v>0.51959056744435905</v>
+        <v>0.51538955396347697</v>
       </c>
       <c r="E10" s="5">
-        <v>0.313677260290257</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.09952142820201</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.70047964905659299</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.09626316345557</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.31088118697926298</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.1922642259990599</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.72543545959210998</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.0776293572829001</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1.3702814478610299</v>
+      </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5">
-        <v>1.36676456228492</v>
+        <v>1.3702814478610299</v>
       </c>
       <c r="D11" s="5">
-        <v>0.95135196517517195</v>
+        <v>0.94964730276686304</v>
       </c>
       <c r="E11" s="5">
-        <v>1.28114857548862</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.2469956949809999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1.2379909668332001</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2.0470903030352599</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.2816889682947199</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2.3912333436348399</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.3656881706600701</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.2545968293751599</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>-0.335170265698093</v>
+      </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>-0.335170265698093</v>
+      </c>
       <c r="D12" s="6">
-        <v>0.34094397670816701</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+        <v>0.34221725873092401</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-1.6788678823311101E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-21.514831622383401</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-0.37802760932061102</v>
+      </c>
       <c r="H12" s="5">
-        <v>1.21485709769766</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.91133070118471204</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>-5.6673143962717401E-2</v>
+      </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>-5.6185503851150002E-2</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>-5.6673143962717401E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-1.8397283772040001E-4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-1.11421088201848E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1.6211011981039799E-2</v>
+      </c>
       <c r="G13" s="5">
-        <v>-6.0363693533222601E-2</v>
+        <v>-7.6753939778166205E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>-8.0342308683805194E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-7.8017657808353305E-2</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>1.9838080285088E-3</v>
+      </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>1.9838080285088E-3</v>
+      </c>
       <c r="D14" s="5">
-        <v>-3.69068203002441E-2</v>
+        <v>-3.8532223503890399E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>-2.5239285431259102E-2</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-2.5469449698889899E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4.66806933842287E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>-1.3494039853029501E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.4369760891151501E-2</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>3.3320305587701102E-3</v>
+      </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7">
-        <v>3.5094568109951497E-5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4.0206931574750799E-5</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1.7240245730691499E-5</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>2.1230836676119702E-5</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1.44232608352613E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>3.3320305587701102E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.6603195513156299E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.67986356335815E-3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.1665139984054899E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.0576719115924102E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.7511442996833799E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>-9.8057221319669996E-4</v>
+      </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="7">
+        <v>-9.8057221319669996E-4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-4.6298279128209998E-4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-2.3822308463755E-3</v>
+      </c>
       <c r="F17" s="5">
-        <v>2.0591633715756501E-2</v>
+        <v>1.7749253108802699E-2</v>
       </c>
       <c r="G17" s="5">
-        <v>7.1014332587920996E-3</v>
+        <v>1.0215250768602101E-2</v>
       </c>
       <c r="H17" s="6">
-        <v>5.7022519597840996E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+        <v>7.2722379479389998E-3</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>-4.7150172378522997E-3</v>
+      </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="6">
-        <v>-4.6949022897035996E-3</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+        <v>-4.7150172378522997E-3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.3672982398077E-3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-8.6898998551530003E-4</v>
+      </c>
       <c r="F18" s="5">
-        <v>2.5340858738514601E-2</v>
+        <v>2.5255039283318799E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>6.1347965897329002E-3</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+        <v>8.1696864427831997E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.9119831864862001E-3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>-6.1188050276035303E-3</v>
+      </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>-6.1188050276035303E-3</v>
+      </c>
       <c r="D19" s="5">
-        <v>-1.25768767244041E-2</v>
+        <v>-1.29641910873067E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>-1.1401223804167001E-2</v>
+        <v>-1.1631483786908901E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>3.1082622924387199E-2</v>
+        <v>2.8705610395869E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>-8.4484678085608896E-3</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-8.08610428448844E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-4.1533654649396701E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>-6.0168064301663702E-5</v>
+      </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8">
-        <v>-6.3948174796288804E-5</v>
-      </c>
-      <c r="D20" s="8">
-        <v>9.3983763183175495E-5</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1.173144127842E-4</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8">
-        <v>1.0618133075619999E-4</v>
-      </c>
-      <c r="H20" s="8">
-        <v>9.6693605041758195E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7">
+        <v>-6.0168064301663702E-5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9.6206518194700305E-5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.164155475603E-4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7.3042390236343005E-5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7.8622350635615493E-5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7.5981063743307497E-5</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>-6.8130476678005397E-3</v>
+      </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5">
-        <v>-6.8486195091754703E-3</v>
+        <v>-6.8130476678005397E-3</v>
       </c>
       <c r="D21" s="5">
-        <v>-1.0599374441283499E-2</v>
+        <v>-1.04820871639799E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>-4.3991990991302903E-3</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>-4.45863550692179E-3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>-8.3390313438155093E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>-1.1572987169121401E-2</v>
+      </c>
       <c r="H21" s="5">
-        <v>-5.4773149065502199E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-1.03467835398633E-2</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>-6.2660664114133E-3</v>
+      </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5">
-        <v>-6.8827084186983099E-3</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+        <v>-6.2660664114133E-3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4.3334236673685999E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3.5292949828858102E-3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7.3644471233385404E-3</v>
+      </c>
       <c r="G22" s="5">
-        <v>-1.21437082261668E-2</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-1.02221435215394E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>-8.2404938126144102E-4</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -4305,1222 +4583,1000 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="5">
-        <v>-1.3431559934330699</v>
+        <v>-1.3411399335922101</v>
       </c>
       <c r="D24" s="5">
-        <v>0.144091386397461</v>
+        <v>0.14405000382559999</v>
       </c>
       <c r="E24" s="5">
-        <v>0.53081935960251603</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>0.53140168421780798</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-0.16542512708793899</v>
+      </c>
       <c r="G24" s="5">
-        <v>0.23576811089765901</v>
+        <v>0.240813827189505</v>
       </c>
       <c r="H24" s="5">
-        <v>0.49696979792707002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.49268381072400502</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="C25" s="5">
+        <v>-2.89019927497139E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.9557827435583001E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-6.9015594245140004E-4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-1.702669845225E-3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>-6.8585141451429996E-3</v>
+      </c>
       <c r="H25" s="5">
-        <v>-1.53781846323019E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-1.6089122998139901E-2</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>-1.8922852533908101</v>
+      </c>
       <c r="D26" s="5">
-        <v>-1.75650233307415</v>
+        <v>-1.7561790035717999</v>
       </c>
       <c r="E26" s="5">
-        <v>-2.3039979892386002</v>
+        <v>-2.30319116551575</v>
       </c>
       <c r="F26" s="5">
-        <v>-1.7396792200515501</v>
+        <v>-1.7834018060772501</v>
       </c>
       <c r="G26" s="5">
-        <v>-1.86719750481474</v>
+        <v>-1.8590709246272401</v>
       </c>
       <c r="H26" s="5">
-        <v>-2.1569178520052898</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+        <v>-2.1743759872610999</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="8">
-        <v>-2.638199598538E-4</v>
-      </c>
-      <c r="D27" s="8">
-        <v>-1.5214076664763999E-3</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1.5912893115057E-5</v>
-      </c>
-      <c r="F27" s="8">
-        <v>-2.1517421980469999E-4</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-1.0184151415819E-3</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>-2.6359108866209999E-4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-1.5218599484909999E-3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1.5842692351141101E-5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-2.148350738968E-4</v>
+      </c>
+      <c r="G27" s="7">
+        <v>-1.0128294268893E-3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>-5.60556079516599E-6</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="5">
-        <v>1.7345481787625401</v>
+        <v>1.73539592378422</v>
       </c>
       <c r="D28" s="5">
-        <v>1.5342231427105799</v>
+        <v>1.5358262291968101</v>
       </c>
       <c r="E28" s="5">
-        <v>1.5204030592345701</v>
+        <v>1.5190761919578499</v>
       </c>
       <c r="F28" s="5">
-        <v>1.4294189484264599</v>
+        <v>1.42701873243514</v>
       </c>
       <c r="G28" s="5">
-        <v>1.65205333231518</v>
+        <v>1.64233184418628</v>
       </c>
       <c r="H28" s="5">
-        <v>1.47230133977888</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.48335022053556</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>0.69104630053439198</v>
+      </c>
       <c r="D29" s="5">
-        <v>1.5008915964843901</v>
+        <v>1.5022775670492201</v>
       </c>
       <c r="E29" s="5">
-        <v>1.69150806352691</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>1.6901698398943701</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.83116596597794101</v>
+      </c>
       <c r="G29" s="5">
-        <v>1.4442940173682699</v>
-      </c>
-      <c r="H29" s="5">
-        <v>2.25151245008075</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.44969770577193</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2.27456280571971</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>0.71003574055951102</v>
+      </c>
       <c r="D30" s="5">
-        <v>1.1236550707112101</v>
+        <v>1.1247477809217099</v>
       </c>
       <c r="E30" s="5">
-        <v>0.99796714768525996</v>
+        <v>0.99696722034479601</v>
       </c>
       <c r="F30" s="5">
-        <v>0.974947960699454</v>
+        <v>0.97622019014384098</v>
       </c>
       <c r="G30" s="5">
-        <v>1.21966116551804</v>
+        <v>1.21200098649564</v>
       </c>
       <c r="H30" s="5">
-        <v>0.76331300506806798</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+        <v>0.78052832967118702</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="5">
-        <v>1.78249664862117</v>
+        <v>1.78341279307046</v>
       </c>
       <c r="D31" s="5">
-        <v>0.84332058157965495</v>
+        <v>0.84562825096543603</v>
       </c>
       <c r="E31" s="5">
-        <v>1.6889995405785501</v>
+        <v>1.68843842152176</v>
       </c>
       <c r="F31" s="5">
-        <v>1.75355324919989</v>
+        <v>1.7389897110630099</v>
       </c>
       <c r="G31" s="5">
-        <v>0.79947659040077901</v>
+        <v>0.825157709382905</v>
       </c>
       <c r="H31" s="5">
-        <v>1.95353999451483</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+        <v>1.9934861463173601</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>1.0337989796023199</v>
+      </c>
       <c r="D32" s="5">
-        <v>0.67062078934395497</v>
+        <v>0.67577974938591301</v>
       </c>
       <c r="E32" s="5">
-        <v>1.245708245219</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>1.24845346822238</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.95762438931304805</v>
+      </c>
       <c r="G32" s="6">
-        <v>0.94224699361535103</v>
+        <v>0.95054953595719405</v>
       </c>
       <c r="H32" s="5">
-        <v>0.90782765690599099</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.0711785537259999</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="5">
+        <v>3.74275137649187E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-6.0559172221419995E-4</v>
+      </c>
       <c r="E33" s="5">
-        <v>-4.4005486039174098E-2</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>-4.43113532255308E-2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-8.8038952297185294E-2</v>
+      </c>
       <c r="G33" s="5">
-        <v>-0.13099451137019799</v>
+        <v>-0.12795766001780801</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.11397379632195601</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-0.15184887081967799</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <v>-1.3959635844072E-2</v>
+      </c>
       <c r="D34" s="5">
-        <v>-2.53721057256205E-2</v>
+        <v>-2.49974148902849E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>-1.04572183155799E-2</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-9.2851943071557991E-3</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4.5237257668385697E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>4.2433321463686002E-3</v>
+      </c>
+      <c r="H34" s="5">
+        <v>-7.7201399223442001E-3</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7">
-        <v>2.91128925677027E-5</v>
-      </c>
-      <c r="E35" s="7">
-        <v>2.4074120116401001E-5</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7">
-        <v>5.2595421961930397E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="5">
+        <v>-1.46104449741112E-3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2.9563236518825599E-3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2.5012099566112602E-3</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3.0059567438246103E-4</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.5846903415416801E-3</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3.9878698401893103E-3</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>-4.9828509930642797E-3</v>
+      </c>
       <c r="D36" s="5">
-        <v>3.5577759726177099E-3</v>
+        <v>3.5436380609320901E-3</v>
       </c>
       <c r="E36" s="5">
-        <v>4.8350179785149302E-3</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>4.7269988147212198E-3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5">
+        <v>8.5255764946041996E-3</v>
+      </c>
       <c r="D37" s="6">
-        <v>3.3959543676771002E-3</v>
+        <v>3.3324828693592E-3</v>
       </c>
       <c r="E37" s="5">
-        <v>3.6382832783615001E-3</v>
-      </c>
-      <c r="F37" s="5">
-        <v>-2.1642853955889701E-2</v>
-      </c>
-      <c r="G37" s="6">
-        <v>9.0052469368877008E-3</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+        <v>3.5476746229176001E-3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>5.6828308878445997E-3</v>
+      </c>
       <c r="D38" s="6">
-        <v>-3.0118207502377002E-3</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+        <v>-2.9180830326272999E-3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>-8.2003019863900002E-4</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.21035548533682E-2</v>
+      </c>
       <c r="G38" s="6">
-        <v>9.9242383195663995E-3</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2.1163245700708002E-3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2.6746575622732002E-3</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
+        <v>2.72250069059429E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5.7419169548798797E-3</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4.4482739119497596E-3</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2.3737315059421098E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.6878794215042402E-3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>-2.48854686884164E-3</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8">
-        <v>5.4383233390897799E-5</v>
-      </c>
-      <c r="E40" s="7">
-        <v>3.0973766427095003E-5</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="9">
-        <v>1.132034252808E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1.2541419233770001E-4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5.3350506429638198E-5</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2.9748046294751599E-5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6.7691755398486802E-3</v>
+      </c>
       <c r="D41" s="5">
-        <v>-7.71597622225391E-3</v>
+        <v>-7.8415542783698798E-3</v>
       </c>
       <c r="E41" s="5">
-        <v>-1.0064377834403299E-2</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6">
-        <v>-1.3279091699372201E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-1.0271227260366601E-2</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-1.7099543550683099E-3</v>
+      </c>
       <c r="D42" s="5">
-        <v>7.9864213757973607E-3</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+        <v>7.8839518228591299E-3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-1.2009911448953099E-3</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-1.5390251187094001E-2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>-2.6549870482787999E-3</v>
+      </c>
+      <c r="H42" s="5">
+        <v>7.5876594396056098E-3</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="5">
-        <v>-0.159902163455832</v>
+        <v>-0.160295445934866</v>
       </c>
       <c r="D44" s="6">
-        <v>9.5668143220158305E-2</v>
+        <v>9.5788782022244195E-2</v>
       </c>
       <c r="E44" s="5">
-        <v>0.263960197477422</v>
+        <v>0.26408450472824002</v>
       </c>
       <c r="F44" s="5">
-        <v>-0.60789245790969104</v>
+        <v>-0.61047931768638697</v>
       </c>
       <c r="G44" s="5">
-        <v>7.5668444312326902E-2</v>
+        <v>7.3599117193724195E-2</v>
       </c>
       <c r="H44" s="5">
-        <v>0.416548759973977</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.41472720454883899</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>4.493773198147E-4</v>
+      </c>
       <c r="D45" s="5">
-        <v>-8.0777469819022993E-3</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+        <v>-7.9824736911074008E-3</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-3.7619095163368001E-3</v>
+      </c>
+      <c r="F45" s="5">
+        <v>-1.3840983442449999E-4</v>
+      </c>
       <c r="G45" s="5">
-        <v>-5.4600979858121998E-3</v>
+        <v>-5.5046509814808001E-3</v>
       </c>
       <c r="H45" s="5">
-        <v>-9.5826567610301002E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-9.5795239036360995E-3</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="5">
-        <v>-3.0428098478669598</v>
+        <v>-3.0408488051461799</v>
       </c>
       <c r="D46" s="5">
-        <v>-2.8401304896055901</v>
+        <v>-2.8372729824935301</v>
       </c>
       <c r="E46" s="5">
-        <v>-3.4945052099210798</v>
+        <v>-3.4915865003927</v>
       </c>
       <c r="F46" s="5">
-        <v>-2.21050147575659</v>
+        <v>-2.2082787722450599</v>
       </c>
       <c r="G46" s="5">
-        <v>-2.4708270801082</v>
+        <v>-2.47505976157642</v>
       </c>
       <c r="H46" s="5">
-        <v>-3.0954275081934801</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-3.0866955687367299</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="8">
-        <v>-3.4430071094929999E-4</v>
-      </c>
-      <c r="D47" s="8">
-        <v>-1.6150637042149001E-3</v>
-      </c>
-      <c r="E47" s="7">
-        <v>-1.1065064941546899E-5</v>
-      </c>
-      <c r="F47" s="8">
-        <v>-3.0578723723679999E-4</v>
-      </c>
-      <c r="G47" s="8">
-        <v>-1.7613218197756E-3</v>
-      </c>
-      <c r="H47" s="7">
-        <v>3.8621946031139699E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="7">
+        <v>-3.4424015353180001E-4</v>
+      </c>
+      <c r="D47" s="7">
+        <v>-1.6153026835908E-3</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-1.1124878698342601E-5</v>
+      </c>
+      <c r="F47" s="7">
+        <v>-3.0579963303179998E-4</v>
+      </c>
+      <c r="G47" s="7">
+        <v>-1.7606540187877001E-3</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3.8863504011758297E-5</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="5">
-        <v>0.72806367889265999</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1.8824333816886101</v>
+        <v>0.72980252004058999</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1.88486970114996</v>
       </c>
       <c r="E48" s="5">
-        <v>0.59020025755763295</v>
+        <v>0.59038557628571298</v>
       </c>
       <c r="F48" s="5">
-        <v>1.8682025888888001</v>
+        <v>1.86712396639014</v>
       </c>
       <c r="G48" s="5">
-        <v>1.7745093477093701</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1.6838921075667299</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.7740770034466999</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1.6849171384080901</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="5">
-        <v>0.428458381965728</v>
+        <v>0.43040513162322502</v>
       </c>
       <c r="D49" s="5">
-        <v>0.94367200996594902</v>
+        <v>0.94440199186231599</v>
       </c>
       <c r="E49" s="5">
-        <v>0.93227350199891801</v>
+        <v>0.93351855004642803</v>
       </c>
       <c r="F49" s="5">
-        <v>2.0865239901313801</v>
+        <v>2.0818274426306198</v>
       </c>
       <c r="G49" s="5">
-        <v>2.0248499984297399</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2.4863239619500801</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2.01351507585641</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2.4882065319296101</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5">
+        <v>0.10353264768727299</v>
+      </c>
       <c r="D50" s="5">
-        <v>0.70750103475949</v>
+        <v>0.70913538279640798</v>
       </c>
       <c r="E50" s="5">
-        <v>0.51312074860068102</v>
+        <v>0.51252572212254499</v>
       </c>
       <c r="F50" s="5">
-        <v>1.1657309200530499</v>
+        <v>1.1696237014212201</v>
       </c>
       <c r="G50" s="5">
-        <v>0.80179545339040803</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1.2341854081146699</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.80037211266622998</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1.2406447951091899</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="5">
-        <v>1.2569517443740399</v>
+        <v>1.2585697237245901</v>
       </c>
       <c r="D51" s="5">
-        <v>0.74953995584157695</v>
+        <v>0.75143467253081897</v>
       </c>
       <c r="E51" s="5">
-        <v>1.34601384465476</v>
+        <v>1.3479030228900299</v>
       </c>
       <c r="F51" s="5">
-        <v>2.1281517562697299</v>
+        <v>2.1308929464287401</v>
       </c>
       <c r="G51" s="5">
-        <v>0.75372226118517505</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1.75311582037744</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.75526287488948196</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1.75790405178334</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5">
+        <v>9.9037824304810604E-2</v>
+      </c>
       <c r="D52" s="5">
-        <v>0.55394101568104803</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
-        <v>1.2179050492413399</v>
+        <v>0.55478968721052702</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.22905638309350901</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1.2147990328001601</v>
       </c>
       <c r="G52" s="5">
-        <v>0.60266307765382898</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1.6707968871266701</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.599695715548617</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1.67067280510994</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>-1.7641819616338102E-2</v>
+      </c>
       <c r="D53" s="5">
-        <v>-2.51803468147427E-2</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>-2.09416429782611E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-1.5294794982088701E-2</v>
+      </c>
       <c r="F53" s="5">
-        <v>-5.92858535512584E-2</v>
+        <v>-5.6827045375313898E-2</v>
       </c>
       <c r="G53" s="5">
-        <v>-3.7274283675068902E-2</v>
+        <v>-4.1791441746405401E-2</v>
       </c>
       <c r="H53" s="5">
-        <v>-6.6172195252216195E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-5.8534595603577898E-2</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="5">
-        <v>-3.8208484857319799E-2</v>
+        <v>-3.8054662539206398E-2</v>
       </c>
       <c r="D54" s="5">
-        <v>4.6887519741526301E-2</v>
+        <v>4.7993723709380001E-2</v>
       </c>
       <c r="E54" s="6">
-        <v>3.01023789313642E-2</v>
-      </c>
-      <c r="F54" s="5"/>
+        <v>3.03805317816555E-2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.4420154619364E-3</v>
+      </c>
       <c r="G54" s="5">
-        <v>1.65200479457739E-2</v>
-      </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1.53803911694687E-2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>9.4584040107301998E-3</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="7">
-        <v>4.61366828032247E-5</v>
-      </c>
-      <c r="D55" s="7">
-        <v>6.0619060310346598E-5</v>
-      </c>
-      <c r="E55" s="7">
-        <v>3.7215879888131697E-5</v>
-      </c>
-      <c r="F55" s="7">
-        <v>2.90379869562041E-5</v>
-      </c>
-      <c r="G55" s="7">
-        <v>6.6386605507015294E-5</v>
-      </c>
-      <c r="H55" s="7">
-        <v>5.7054600295313498E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="5">
+        <v>3.9308120701259299E-3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5.8302906349294199E-3</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3.7746160511888398E-3</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3.4344886647687599E-3</v>
+      </c>
+      <c r="G55" s="5">
+        <v>7.70275832016279E-3</v>
+      </c>
+      <c r="H55" s="5">
+        <v>6.4705421066408898E-3</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="C56" s="5">
+        <v>-5.2803631465448203E-3</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.3245764984016201E-4</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3.10635517199282E-3</v>
+      </c>
       <c r="F56" s="5">
-        <v>2.65511343729984E-2</v>
+        <v>2.3325969627381701E-2</v>
       </c>
       <c r="G56" s="5">
-        <v>2.5144526486388302E-2</v>
-      </c>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2.6452620039817201E-2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>-1.3183336059017199E-2</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5">
-        <v>4.8989784631463997E-3</v>
-      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5">
-        <v>4.5167980098052996E-3</v>
-      </c>
-      <c r="H57" s="5">
-        <v>-3.7964448265833E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="6">
-        <v>3.1530454951798001E-3</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+        <v>3.0779825422462001E-3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>-8.6436186898525502E-5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>-6.645454737039E-4</v>
+      </c>
       <c r="F58" s="5">
-        <v>-9.3665378196261008E-3</v>
+        <v>-9.2166112675844004E-3</v>
       </c>
       <c r="G58" s="5">
-        <v>8.1313572069414992E-3</v>
+        <v>4.0581395417782001E-3</v>
       </c>
       <c r="H58" s="5">
-        <v>2.6876854803208998E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+        <v>4.6999625047263998E-3</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="5">
-        <v>2.1884564447771399E-2</v>
+        <v>2.1726060501657901E-2</v>
       </c>
       <c r="D59" s="5">
-        <v>1.15276503159199E-2</v>
+        <v>1.06412457995744E-2</v>
       </c>
       <c r="E59" s="5">
-        <v>9.1117928402044707E-3</v>
+        <v>9.5580403631904901E-3</v>
       </c>
       <c r="F59" s="5">
-        <v>8.2962939098313298E-3</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+        <v>8.5581408713349301E-3</v>
+      </c>
+      <c r="G59" s="5">
+        <v>-2.3003447164122001E-3</v>
+      </c>
+      <c r="H59" s="5">
+        <v>-4.1784767557075298E-4</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="8">
-        <v>8.5533368819655097E-5</v>
-      </c>
-      <c r="G60" s="8">
-        <v>1.7411440869989999E-4</v>
-      </c>
-      <c r="H60" s="8">
-        <v>2.8525526991729998E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2.1494458177168501E-6</v>
+      </c>
+      <c r="D60" s="7">
+        <v>-2.1373437407862701E-5</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1.7972903737794601E-5</v>
+      </c>
+      <c r="F60" s="7">
+        <v>7.91166328364304E-5</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1.769484449567E-4</v>
+      </c>
+      <c r="H60" s="7">
+        <v>2.6516514596279999E-4</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" s="6">
-        <v>-6.17343098725401E-3</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+        <v>-5.6495632926336602E-3</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-3.1050198193417798E-3</v>
+      </c>
+      <c r="E61" s="5">
+        <v>4.94446971053541E-3</v>
+      </c>
+      <c r="F61" s="5">
+        <v>-2.5886559206994299E-3</v>
+      </c>
       <c r="G61" s="5">
-        <v>-3.6854605230747001E-3</v>
-      </c>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-3.0938121324389899E-3</v>
+      </c>
+      <c r="H61" s="5">
+        <v>-8.49835808567671E-4</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11">
-        <v>5.1517731257296299E-3</v>
-      </c>
-      <c r="E62" s="11">
-        <v>7.7927552650594104E-3</v>
+        <v>52</v>
+      </c>
+      <c r="C62" s="9">
+        <v>-2.0645881060795401E-3</v>
+      </c>
+      <c r="D62" s="9">
+        <v>5.5152689619850596E-3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>7.3728634595093302E-3</v>
       </c>
       <c r="F62" s="10">
-        <v>-5.4841430227852098E-3</v>
-      </c>
-      <c r="G62" s="11">
-        <v>3.8005127395353399E-3</v>
-      </c>
-      <c r="H62" s="11">
-        <v>1.02787126127364E-2</v>
-      </c>
+        <v>-4.4609944795206396E-3</v>
+      </c>
+      <c r="G62" s="9">
+        <v>4.3689071505063799E-3</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1.0558133104104099E-2</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE0173-DB86-4D7A-95F7-9035EAC43991}">
-  <dimension ref="B1:H33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-1.1171690023184</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-0.94867936463101898</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-0.90569886851953196</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.5350799062924301</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>-0.217127878426285</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-2.9219331150750198</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-1.1952631053909299</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-0.41938329139712899</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-0.139931917469206</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.11324469414114199</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.41359034492797098</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
-        <v>-3.1279281232034998E-3</v>
-      </c>
-      <c r="E8" s="12">
-        <v>-5.5747591382213999E-3</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12">
-        <v>-2.5185241061955099</v>
-      </c>
-      <c r="D9" s="12">
-        <v>-2.3545893495840899</v>
-      </c>
-      <c r="E9" s="12">
-        <v>-2.8721799623768098</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-3.0174917487550001E-4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-1.6551782716294E-3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1.91386406327327E-5</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.89993969801993601</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1.53797201142851</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.37609843297957</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.85265396174835895</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.29412706227732</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.70880622689377</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.26083959599753898</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.720773717192293</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.89340484153204303</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1.45401206210204</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.78895873889878199</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.6668374270722599</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0.34497924752137299</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.56069923256374699</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.1462032417679</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12">
-        <v>-1.67417196661017E-2</v>
-      </c>
-      <c r="D16" s="12">
-        <v>-1.0748489260133E-2</v>
-      </c>
-      <c r="E16" s="12">
-        <v>-1.89528182838569E-2</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="12">
-        <v>-2.6491938868869299E-2</v>
-      </c>
-      <c r="D17" s="12">
-        <v>-2.3861048489595301E-2</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2.56227605457114E-5</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2.85250904007592E-5</v>
-      </c>
-      <c r="E18" s="15">
-        <v>3.4635620099814199E-5</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12">
-        <v>4.8933383806217604E-3</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6.4756223830003999E-3</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="15">
-        <v>4.5574385837833997E-3</v>
-      </c>
-      <c r="D20" s="15">
-        <v>7.2664663428934004E-3</v>
-      </c>
-      <c r="E20" s="15">
-        <v>4.8761006994345003E-3</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="12">
-        <v>3.0390968330015998E-3</v>
-      </c>
-      <c r="D21" s="12">
-        <v>3.1298776759979001E-3</v>
-      </c>
-      <c r="E21" s="12">
-        <v>4.5182479904924003E-3</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1.2897159247838999E-2</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2.80328382504427E-3</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3.9521851164381703E-3</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="14">
-        <v>5.3765324009704901E-5</v>
-      </c>
-      <c r="D23" s="14">
-        <v>4.9430980302120803E-5</v>
-      </c>
-      <c r="E23" s="14">
-        <v>7.0328659103148898E-5</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="12">
-        <v>-2.36221768241745E-3</v>
-      </c>
-      <c r="D24" s="12">
-        <v>-1.6764445272214E-3</v>
-      </c>
-      <c r="E24" s="12">
-        <v>-2.0122930444276999E-3</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="12">
-        <v>-3.5651865241979998E-3</v>
-      </c>
-      <c r="D25" s="12">
-        <v>6.9575009909970398E-3</v>
-      </c>
-      <c r="E25" s="12">
-        <v>6.8063553491808301E-3</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outputs/ML_Results/mode_MNLR_new/All_short_table.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/All_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\mode_MNLR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32E4DFE5-0262-4A6A-9681-189E636D7BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947ABE54-F81E-48A5-92E7-D58F0D5FA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -878,9 +878,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -918,7 +918,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1024,7 +1024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1166,14 +1166,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
@@ -1219,22 +1219,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>-4.7205982709628898E-2</v>
+        <v>-4.3891218804291102E-2</v>
       </c>
       <c r="D2">
-        <v>6.6562082538554404E-2</v>
+        <v>6.7454219317951106E-2</v>
       </c>
       <c r="E2">
-        <v>0.316059565001725</v>
+        <v>0.31418598513256202</v>
       </c>
       <c r="F2">
-        <v>0.20429982076140599</v>
+        <v>0.35001224497334799</v>
       </c>
       <c r="G2">
-        <v>0.113668637339398</v>
+        <v>0.10359704761901101</v>
       </c>
       <c r="H2" s="1">
-        <v>5.18661468680755E-20</v>
+        <v>2.5301487230569402E-18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1245,22 +1245,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>-4.4411540004012998E-3</v>
+        <v>-4.5053759320806E-3</v>
       </c>
       <c r="D3">
-        <v>-1.6799715784807899E-2</v>
+        <v>-1.6719516374362101E-2</v>
       </c>
       <c r="E3">
-        <v>-9.0324746056126993E-3</v>
+        <v>-9.0545949220727992E-3</v>
       </c>
       <c r="F3">
-        <v>5.0576545196134103E-2</v>
+        <v>0.15663537619423101</v>
       </c>
       <c r="G3" s="1">
-        <v>5.8886837408334394E-11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.1894164636553998E-6</v>
+        <v>3.01236600701997E-7</v>
+      </c>
+      <c r="H3">
+        <v>2.4039267639994E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,19 +1271,19 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>-2.8714023111527398</v>
+        <v>-2.8703718848349302</v>
       </c>
       <c r="D4">
-        <v>-2.5411215503268498</v>
+        <v>-2.54328622381915</v>
       </c>
       <c r="E4">
-        <v>-3.2227176632050498</v>
+        <v>-3.2238789384895301</v>
       </c>
       <c r="F4" s="1">
-        <v>1.2790720709242599E-301</v>
+        <v>4.6387665790120603E-19</v>
       </c>
       <c r="G4" s="1">
-        <v>2.3805748167405399E-215</v>
+        <v>5.7436217740167396E-85</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>-3.0673799503219999E-4</v>
+        <v>-3.064056530382E-4</v>
       </c>
       <c r="D5">
-        <v>-1.6706180489834E-3</v>
+        <v>-1.6721239930837001E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0665819815577399E-5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>2.0601885751886701E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.5490710502607901E-135</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1.6698478624756499E-16</v>
+        <v>1.1184483128188501E-15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1323,22 +1323,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.61782737897831697</v>
+        <v>0.61849609067922695</v>
       </c>
       <c r="D6">
-        <v>1.87038938776991</v>
+        <v>1.8722308271063299</v>
       </c>
       <c r="E6">
-        <v>0.516059832790425</v>
+        <v>0.51488718921451804</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0577513939834499E-9</v>
+        <v>6.2720354543011798E-6</v>
       </c>
       <c r="G6" s="1">
-        <v>2.4227187337552199E-101</v>
+        <v>2.7412434962747198E-87</v>
       </c>
       <c r="H6" s="1">
-        <v>4.0220232862622402E-7</v>
+        <v>1.9003933725708E-6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1349,22 +1349,22 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.24748171136186101</v>
+        <v>0.24265624300718999</v>
       </c>
       <c r="D7">
-        <v>0.60116888304968696</v>
+        <v>0.60511482728871901</v>
       </c>
       <c r="E7">
-        <v>0.59370737713802502</v>
+        <v>0.59391911133174602</v>
       </c>
       <c r="F7">
-        <v>1.1514482341087999E-2</v>
+        <v>0.16537963558660801</v>
       </c>
       <c r="G7" s="1">
-        <v>7.6588619609268102E-10</v>
+        <v>2.4326386050660802E-14</v>
       </c>
       <c r="H7" s="1">
-        <v>1.6937110539825402E-5</v>
+        <v>3.6493744109525702E-6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1375,22 +1375,22 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>-0.16874451609158</v>
+        <v>-0.16792998177763799</v>
       </c>
       <c r="D8">
-        <v>0.51538955396347697</v>
+        <v>0.51928397898241696</v>
       </c>
       <c r="E8">
-        <v>0.31088118697926298</v>
+        <v>0.312915555855309</v>
       </c>
       <c r="F8">
-        <v>6.0758414831511398E-2</v>
+        <v>0.35295825276095699</v>
       </c>
       <c r="G8" s="1">
-        <v>7.1985818125407198E-10</v>
+        <v>1.9880097361294699E-12</v>
       </c>
       <c r="H8">
-        <v>4.4597459196550997E-3</v>
+        <v>1.1204148959028E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1401,22 +1401,22 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.3702814478610299</v>
+        <v>1.3669485808936599</v>
       </c>
       <c r="D9">
-        <v>0.94964730276686304</v>
+        <v>0.95284755551445699</v>
       </c>
       <c r="E9">
-        <v>1.2816889682947199</v>
+        <v>1.28172704384319</v>
       </c>
       <c r="F9" s="1">
-        <v>8.0315280614039004E-15</v>
+        <v>8.1834635903204198E-7</v>
       </c>
       <c r="G9" s="1">
-        <v>1.9325180673086999E-14</v>
+        <v>7.4655705492093303E-29</v>
       </c>
       <c r="H9" s="1">
-        <v>4.0733570508472998E-16</v>
+        <v>6.85978203631121E-40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1427,22 +1427,22 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>-0.335170265698093</v>
+        <v>-0.34044890179311599</v>
       </c>
       <c r="D10">
-        <v>0.34221725873092401</v>
+        <v>0.340916704253095</v>
       </c>
       <c r="E10">
-        <v>-1.6788678823311101E-2</v>
+        <v>-1.67370478085168E-2</v>
       </c>
       <c r="F10">
-        <v>7.2707849406047007E-2</v>
+        <v>0.313777878446377</v>
       </c>
       <c r="G10">
-        <v>3.1990430977330397E-2</v>
+        <v>2.1319922949198E-2</v>
       </c>
       <c r="H10">
-        <v>0.70793354026407895</v>
+        <v>0.65906013851382605</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,22 +1453,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>-5.6673143962717401E-2</v>
+        <v>-5.3779960511092698E-2</v>
       </c>
       <c r="D11">
-        <v>-1.8397283772040001E-4</v>
+        <v>-1.3659872326918E-3</v>
       </c>
       <c r="E11">
-        <v>-1.11421088201848E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4.00535738974265E-8</v>
+        <v>-1.10289637087378E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.9096937397249001E-3</v>
       </c>
       <c r="G11">
-        <v>0.82268154178885899</v>
+        <v>0.82071268781882301</v>
       </c>
       <c r="H11">
-        <v>0.144721928233918</v>
+        <v>0.161946077962656</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,22 +1479,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.9838080285088E-3</v>
+        <v>1.7593882396621E-3</v>
       </c>
       <c r="D12">
-        <v>-3.8532223503890399E-2</v>
+        <v>-4.0506088698429699E-2</v>
       </c>
       <c r="E12">
-        <v>-2.5469449698889899E-2</v>
+        <v>-2.6723406246433601E-2</v>
       </c>
       <c r="F12">
-        <v>0.67131962485971697</v>
+        <v>0.71858071444552096</v>
       </c>
       <c r="G12">
-        <v>4.7174478196548002E-3</v>
+        <v>3.0915906491904002E-3</v>
       </c>
       <c r="H12">
-        <v>2.40152422225283E-2</v>
+        <v>1.7476015633105801E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1505,22 +1505,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>3.3320305587701102E-3</v>
+        <v>3.3477945248358999E-3</v>
       </c>
       <c r="D13">
-        <v>3.6603195513156299E-3</v>
+        <v>3.7097221209881001E-3</v>
       </c>
       <c r="E13">
-        <v>1.67986356335815E-3</v>
+        <v>1.7139584124084E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>3.6757409977038202E-7</v>
+        <v>1.0241003099402301E-6</v>
       </c>
       <c r="G13" s="1">
-        <v>2.7822136772534001E-11</v>
+        <v>2.5887897274723498E-9</v>
       </c>
       <c r="H13">
-        <v>2.5359028349400002E-4</v>
+        <v>1.0231465195865001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,22 +1531,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-9.8057221319669996E-4</v>
+        <v>-1.3615104261074E-3</v>
       </c>
       <c r="D15">
-        <v>-4.6298279128209998E-4</v>
+        <v>1.00188051688E-4</v>
       </c>
       <c r="E15">
-        <v>-2.3822308463755E-3</v>
+        <v>-1.8102667343789999E-3</v>
       </c>
       <c r="F15">
-        <v>0.61033898414038701</v>
+        <v>0.69319888139769803</v>
       </c>
       <c r="G15">
-        <v>0.81140049846860696</v>
+        <v>0.81715285509296898</v>
       </c>
       <c r="H15">
-        <v>0.245638673603363</v>
+        <v>0.41087102783072199</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1557,22 +1557,22 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>-4.7150172378522997E-3</v>
+        <v>-4.6965966443980999E-3</v>
       </c>
       <c r="D16">
-        <v>-1.3672982398077E-3</v>
+        <v>-1.3634737964591001E-3</v>
       </c>
       <c r="E16">
-        <v>-8.6898998551530003E-4</v>
+        <v>-9.4131024108109996E-4</v>
       </c>
       <c r="F16">
-        <v>1.3087188805013001E-3</v>
+        <v>1.9859992117407899E-2</v>
       </c>
       <c r="G16">
-        <v>0.34182589109848799</v>
+        <v>0.352179532686067</v>
       </c>
       <c r="H16">
-        <v>0.42547312457306502</v>
+        <v>0.4008882109036</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,22 +1583,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>-6.1188050276035303E-3</v>
+        <v>-6.2477826483407E-3</v>
       </c>
       <c r="D17">
-        <v>-1.29641910873067E-2</v>
+        <v>-1.21365520886583E-2</v>
       </c>
       <c r="E17">
-        <v>-1.1631483786908901E-2</v>
+        <v>-1.09879466374988E-2</v>
       </c>
       <c r="F17">
-        <v>7.7703597577231706E-2</v>
+        <v>0.114180452313756</v>
       </c>
       <c r="G17">
-        <v>6.8872983047450005E-4</v>
+        <v>1.7256689881404001E-3</v>
       </c>
       <c r="H17">
-        <v>2.1407383862729999E-4</v>
+        <v>5.0597739940319998E-4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1608,23 +1608,23 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
-        <v>-6.0168064301663702E-5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9.6206518194700305E-5</v>
+      <c r="C18">
+        <v>-3.0760677287395002E-3</v>
+      </c>
+      <c r="D18">
+        <v>5.5731537455449998E-3</v>
       </c>
       <c r="E18">
-        <v>1.164155475603E-4</v>
+        <v>7.2044963802833E-3</v>
       </c>
       <c r="F18">
-        <v>1.11397654015033E-2</v>
+        <v>5.3179258790991397E-2</v>
       </c>
       <c r="G18">
-        <v>1.120936482642E-4</v>
+        <v>8.5466377622590004E-4</v>
       </c>
       <c r="H18" s="1">
-        <v>8.7430565644773597E-8</v>
+        <v>1.62767388063314E-6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1635,22 +1635,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>-6.8130476678005397E-3</v>
+        <v>-7.1108121414079004E-3</v>
       </c>
       <c r="D19">
-        <v>-1.04820871639799E-2</v>
+        <v>-1.03474577583963E-2</v>
       </c>
       <c r="E19">
-        <v>-4.45863550692179E-3</v>
+        <v>-4.3456789502653E-3</v>
       </c>
       <c r="F19" s="1">
-        <v>8.0823746786873204E-7</v>
+        <v>1.4797298799877099E-6</v>
       </c>
       <c r="G19" s="1">
-        <v>2.6222464261486001E-12</v>
+        <v>9.7652578167379899E-12</v>
       </c>
       <c r="H19">
-        <v>3.7545013353209997E-4</v>
+        <v>8.2392096721890004E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,22 +1661,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>-6.2660664114133E-3</v>
+        <v>-6.7613424217834997E-3</v>
       </c>
       <c r="D20">
-        <v>4.3334236673685999E-3</v>
+        <v>4.4543791667016998E-3</v>
       </c>
       <c r="E20">
-        <v>3.5292949828858102E-3</v>
+        <v>3.6813721181964002E-3</v>
       </c>
       <c r="F20">
-        <v>6.4766476994476E-3</v>
+        <v>2.47255052327039E-2</v>
       </c>
       <c r="G20">
-        <v>8.0639294673361395E-2</v>
+        <v>0.121580661888397</v>
       </c>
       <c r="H20">
-        <v>9.1933794682139802E-2</v>
+        <v>0.120292484585609</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1687,22 +1687,22 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>-0.18239592880987099</v>
+        <v>-0.165931902692976</v>
       </c>
       <c r="D21">
-        <v>0.27726128206057299</v>
+        <v>0.27343208832049198</v>
       </c>
       <c r="E21">
-        <v>0.56121346823348195</v>
+        <v>0.56583394002259202</v>
       </c>
       <c r="F21">
-        <v>0.119559631534529</v>
+        <v>0.153463766380464</v>
       </c>
       <c r="G21" s="1">
-        <v>2.5561149218442701E-6</v>
+        <v>3.3388373205722601E-6</v>
       </c>
       <c r="H21" s="1">
-        <v>3.9192262700773098E-28</v>
+        <v>5.25540836597018E-28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1713,22 +1713,22 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>-5.5016371545831997E-3</v>
+        <v>-5.8618025640976004E-3</v>
       </c>
       <c r="D22">
-        <v>-4.9662597417903E-3</v>
+        <v>-5.0740398641838996E-3</v>
       </c>
       <c r="E22">
-        <v>-6.4289639088492001E-3</v>
+        <v>-6.4580579811502996E-3</v>
       </c>
       <c r="F22">
-        <v>0.36260536992291198</v>
+        <v>0.32269942338951801</v>
       </c>
       <c r="G22">
-        <v>0.13281854158449599</v>
+        <v>0.124332474121266</v>
       </c>
       <c r="H22">
-        <v>1.29130742475453E-2</v>
+        <v>1.48501204368612E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,22 +1739,22 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>-2.3955342055524</v>
+        <v>-2.3838532245294299</v>
       </c>
       <c r="D23">
-        <v>-2.6995286152792901</v>
+        <v>-2.6802905106686001</v>
       </c>
       <c r="E23">
-        <v>-2.9594756441218699</v>
+        <v>-2.9402391235449001</v>
       </c>
       <c r="F23" s="1">
-        <v>6.8366735902686602E-65</v>
+        <v>1.6565824904594199E-64</v>
       </c>
       <c r="G23" s="1">
-        <v>1.7718106761241201E-176</v>
+        <v>1.48124878642763E-176</v>
       </c>
       <c r="H23" s="1">
-        <v>7.12666994202848E-284</v>
+        <v>2.0931596917735301E-283</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1765,22 +1765,22 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-4.303620466061E-4</v>
+        <v>-4.2747320156030002E-4</v>
       </c>
       <c r="D24">
-        <v>-2.935672125717E-3</v>
+        <v>-2.9362652010844E-3</v>
       </c>
       <c r="E24" s="1">
-        <v>5.5273273355999597E-5</v>
+        <v>5.5303370015256203E-5</v>
       </c>
       <c r="F24" s="1">
-        <v>3.63090988305154E-39</v>
+        <v>5.38160382036163E-39</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>9.6346916665026201E-37</v>
+        <v>1.7093086035919001E-36</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1791,22 +1791,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>1.4019002234598801</v>
+        <v>1.37572885088648</v>
       </c>
       <c r="D25">
-        <v>1.0367661492587501</v>
+        <v>1.0312383811227399</v>
       </c>
       <c r="E25">
-        <v>1.58145859531946</v>
+        <v>1.5985525188318299</v>
       </c>
       <c r="F25" s="1">
-        <v>5.8320385939607697E-9</v>
+        <v>8.57514675786218E-9</v>
       </c>
       <c r="G25" s="1">
-        <v>6.09188309581633E-32</v>
+        <v>6.0444835802399104E-32</v>
       </c>
       <c r="H25" s="1">
-        <v>9.40794997265559E-43</v>
+        <v>3.0455333549664901E-43</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1817,22 +1817,22 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>1.4202707200165401</v>
+        <v>1.3184122771747</v>
       </c>
       <c r="D26">
-        <v>1.9084146572173499</v>
+        <v>1.89443589575474</v>
       </c>
       <c r="E26">
-        <v>2.5655731756081801</v>
+        <v>2.5496571199454801</v>
       </c>
       <c r="F26">
-        <v>5.6882969020569996E-4</v>
+        <v>8.5149536331400005E-4</v>
       </c>
       <c r="G26" s="1">
-        <v>6.1896025403257902E-41</v>
+        <v>7.2812051548404504E-41</v>
       </c>
       <c r="H26" s="1">
-        <v>2.0867323625553701E-54</v>
+        <v>2.45262602514155E-54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1843,22 +1843,22 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>1.1922642259990599</v>
+        <v>1.17964288755997</v>
       </c>
       <c r="D27">
-        <v>0.72543545959210998</v>
+        <v>0.73095696685122802</v>
       </c>
       <c r="E27">
-        <v>1.0776293572829001</v>
+        <v>1.0912672766957401</v>
       </c>
       <c r="F27" s="1">
-        <v>1.1896656232249401E-5</v>
+        <v>1.6774315322717199E-5</v>
       </c>
       <c r="G27" s="1">
-        <v>4.29591302171423E-13</v>
+        <v>4.4462019550276602E-13</v>
       </c>
       <c r="H27" s="1">
-        <v>4.7328424282358502E-16</v>
+        <v>3.5271669560713402E-16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,22 +1869,22 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>2.3912333436348399</v>
+        <v>2.4026244937635899</v>
       </c>
       <c r="D28">
-        <v>1.3656881706600701</v>
+        <v>1.36895033440118</v>
       </c>
       <c r="E28">
-        <v>2.2545968293751599</v>
+        <v>2.27069410276152</v>
       </c>
       <c r="F28" s="1">
-        <v>1.9841652141518301E-24</v>
+        <v>2.2088611018597698E-24</v>
       </c>
       <c r="G28" s="1">
-        <v>1.30986600033689E-35</v>
+        <v>1.05154474961541E-35</v>
       </c>
       <c r="H28" s="1">
-        <v>2.2188480867903199E-80</v>
+        <v>1.23231607810502E-80</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1895,22 +1895,22 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>-21.514831622383401</v>
+        <v>-17.925523013073299</v>
       </c>
       <c r="D29">
-        <v>-0.37802760932061102</v>
+        <v>-0.43197571841182802</v>
       </c>
       <c r="E29">
-        <v>0.91133070118471204</v>
+        <v>0.94451145884288401</v>
       </c>
       <c r="F29">
-        <v>0.998197963994642</v>
+        <v>0.99729740936286604</v>
       </c>
       <c r="G29">
-        <v>0.43528192855110498</v>
+        <v>0.36010723633193398</v>
       </c>
       <c r="H29">
-        <v>3.1333241761256403E-2</v>
+        <v>1.6469327082679699E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1921,22 +1921,22 @@
         <v>18</v>
       </c>
       <c r="C30">
-        <v>-1.6211011981039799E-2</v>
+        <v>-1.66129412751253E-2</v>
       </c>
       <c r="D30">
-        <v>-7.6753939778166205E-2</v>
+        <v>-8.3382324864562804E-2</v>
       </c>
       <c r="E30">
-        <v>-7.8017657808353305E-2</v>
+        <v>-7.87008838336722E-2</v>
       </c>
       <c r="F30">
-        <v>0.52791019686187002</v>
+        <v>0.51499380607467504</v>
       </c>
       <c r="G30" s="1">
-        <v>2.8837425035493298E-10</v>
+        <v>2.42148024885126E-13</v>
       </c>
       <c r="H30" s="1">
-        <v>1.4777372280423099E-14</v>
+        <v>5.5389144607419401E-15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1947,22 +1947,22 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>4.66806933842287E-2</v>
+        <v>4.6893514526292999E-2</v>
       </c>
       <c r="D31">
-        <v>-1.3494039853029501E-2</v>
+        <v>-1.5386858539044101E-2</v>
       </c>
       <c r="E31">
-        <v>2.4369760891151501E-2</v>
+        <v>2.0386210503155901E-2</v>
       </c>
       <c r="F31">
-        <v>0.22279988065723899</v>
+        <v>0.23610334527874799</v>
       </c>
       <c r="G31">
-        <v>0.36234907284687901</v>
+        <v>0.30085640781807799</v>
       </c>
       <c r="H31">
-        <v>7.2879523942617597E-2</v>
+        <v>0.12576946374164399</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1973,22 +1973,22 @@
         <v>20</v>
       </c>
       <c r="C32">
-        <v>2.1665139984054899E-3</v>
+        <v>2.2767435328166002E-3</v>
       </c>
       <c r="D32">
-        <v>3.0576719115924102E-3</v>
+        <v>3.1955624398377E-3</v>
       </c>
       <c r="E32">
-        <v>1.7511442996833799E-3</v>
+        <v>1.8514362089914001E-3</v>
       </c>
       <c r="F32">
-        <v>2.9065744676694299E-2</v>
+        <v>2.21346159054761E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>9.8555973543805694E-7</v>
+        <v>1.9469051846065901E-7</v>
       </c>
       <c r="H32">
-        <v>5.5396985158649996E-4</v>
+        <v>2.107609806692E-4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1999,22 +1999,22 @@
         <v>21</v>
       </c>
       <c r="C34">
-        <v>1.7749253108802699E-2</v>
+        <v>1.6535929928971699E-2</v>
       </c>
       <c r="D34">
-        <v>1.0215250768602101E-2</v>
+        <v>1.08394019787136E-2</v>
       </c>
       <c r="E34">
-        <v>7.2722379479389998E-3</v>
+        <v>7.0180514546447003E-3</v>
       </c>
       <c r="F34">
-        <v>1.1267040826612E-2</v>
+        <v>1.6279523987479502E-2</v>
       </c>
       <c r="G34">
-        <v>3.7563393989300002E-4</v>
+        <v>1.1887981074989999E-4</v>
       </c>
       <c r="H34">
-        <v>4.0019633373949001E-3</v>
+        <v>5.3939911549036003E-3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2025,22 +2025,22 @@
         <v>22</v>
       </c>
       <c r="C35">
-        <v>2.5255039283318799E-2</v>
+        <v>2.3495817495855401E-2</v>
       </c>
       <c r="D35">
-        <v>8.1696864427831997E-3</v>
+        <v>8.2286452649181999E-3</v>
       </c>
       <c r="E35">
-        <v>2.9119831864862001E-3</v>
+        <v>2.8237004382384002E-3</v>
       </c>
       <c r="F35">
-        <v>1.19051925422609E-2</v>
+        <v>1.8442265851102299E-2</v>
       </c>
       <c r="G35">
-        <v>2.3095575954101999E-2</v>
+        <v>2.07250887450065E-2</v>
       </c>
       <c r="H35">
-        <v>0.37123198903106802</v>
+        <v>0.38992923460357498</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2051,22 +2051,22 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>2.8705610395869E-2</v>
+        <v>2.8014323714348002E-2</v>
       </c>
       <c r="D36">
-        <v>-8.08610428448844E-3</v>
+        <v>-5.6001087643380004E-3</v>
       </c>
       <c r="E36">
-        <v>-4.1533654649396701E-3</v>
-      </c>
-      <c r="F36" s="1">
-        <v>8.58402615981248E-5</v>
+        <v>-4.1263462846113002E-3</v>
+      </c>
+      <c r="F36">
+        <v>1.201585796767E-4</v>
       </c>
       <c r="G36">
-        <v>5.2669594699606803E-2</v>
+        <v>0.15053330053778</v>
       </c>
       <c r="H36">
-        <v>0.216444834804669</v>
+        <v>0.21123074559162899</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2076,23 +2076,23 @@
       <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1">
-        <v>7.3042390236343005E-5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7.8622350635615493E-5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>7.5981063743307497E-5</v>
+      <c r="C37">
+        <v>6.568301491769E-3</v>
+      </c>
+      <c r="D37">
+        <v>4.2402907273481E-3</v>
+      </c>
+      <c r="E37">
+        <v>6.243194078112E-3</v>
       </c>
       <c r="F37">
-        <v>4.0615878693029801E-2</v>
+        <v>2.86138319257318E-2</v>
       </c>
       <c r="G37">
-        <v>5.7952188995320005E-4</v>
+        <v>2.8173842748660399E-2</v>
       </c>
       <c r="H37" s="1">
-        <v>7.6962329699004005E-5</v>
+        <v>7.3867597805819904E-5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2103,22 +2103,22 @@
         <v>25</v>
       </c>
       <c r="C38">
-        <v>-8.3390313438155093E-3</v>
+        <v>-9.1739376578312999E-3</v>
       </c>
       <c r="D38">
-        <v>-1.1572987169121401E-2</v>
+        <v>-1.1444134262571499E-2</v>
       </c>
       <c r="E38">
-        <v>-1.03467835398633E-2</v>
+        <v>-1.0165013187998E-2</v>
       </c>
       <c r="F38">
-        <v>0.14975093477163401</v>
+        <v>0.10415181806825299</v>
       </c>
       <c r="G38" s="1">
-        <v>3.9058702889367598E-5</v>
+        <v>3.54778321643079E-5</v>
       </c>
       <c r="H38" s="1">
-        <v>4.40943131856746E-5</v>
+        <v>3.6040199948540703E-5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2129,22 +2129,22 @@
         <v>26</v>
       </c>
       <c r="C39">
-        <v>7.3644471233385404E-3</v>
+        <v>6.2544735150417002E-3</v>
       </c>
       <c r="D39">
-        <v>-1.02221435215394E-2</v>
+        <v>-1.0221385764019099E-2</v>
       </c>
       <c r="E39">
-        <v>-8.2404938126144102E-4</v>
+        <v>-5.248467806274E-4</v>
       </c>
       <c r="F39">
-        <v>0.341466114291681</v>
+        <v>0.41678979368628</v>
       </c>
       <c r="G39">
-        <v>2.4900020848656001E-3</v>
+        <v>2.5418140073658001E-3</v>
       </c>
       <c r="H39">
-        <v>0.77922099774804898</v>
+        <v>0.84712270501421005</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2155,22 +2155,22 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>-1.3411399335922101</v>
+        <v>-1.3392456443755201</v>
       </c>
       <c r="D40">
-        <v>0.14405000382559999</v>
+        <v>0.141151097188673</v>
       </c>
       <c r="E40">
-        <v>0.53140168421780798</v>
+        <v>0.53175258696863004</v>
       </c>
       <c r="F40" s="1">
-        <v>2.0099632152791798E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2.9417224849736499E-6</v>
+        <v>1.5366555918135701E-14</v>
+      </c>
+      <c r="G40">
+        <v>3.9032235396500002E-4</v>
       </c>
       <c r="H40" s="1">
-        <v>4.2620508468909998E-86</v>
+        <v>1.30448908530333E-115</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,22 +2181,22 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>-2.89019927497139E-2</v>
+        <v>-2.87753313318517E-2</v>
       </c>
       <c r="D41">
-        <v>2.9557827435583001E-3</v>
+        <v>3.0494872926784002E-3</v>
       </c>
       <c r="E41">
-        <v>-6.9015594245140004E-4</v>
+        <v>-6.7422720242139996E-4</v>
       </c>
       <c r="F41">
-        <v>0.20372835594015301</v>
+        <v>0.15823309912143399</v>
       </c>
       <c r="G41">
-        <v>9.6682875379459798E-2</v>
+        <v>0.126962576408745</v>
       </c>
       <c r="H41">
-        <v>0.42607218446238199</v>
+        <v>0.60038071685304695</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,22 +2207,22 @@
         <v>11</v>
       </c>
       <c r="C42">
-        <v>-1.8922852533908101</v>
+        <v>-1.8912390395875001</v>
       </c>
       <c r="D42">
-        <v>-1.7561790035717999</v>
+        <v>-1.75011997618792</v>
       </c>
       <c r="E42">
-        <v>-2.30319116551575</v>
+        <v>-2.3025546165528001</v>
       </c>
       <c r="F42">
-        <v>2.5004841713030801E-2</v>
+        <v>5.81220446518644E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>2.4456946898670701E-49</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.05174804240591E-106</v>
+        <v>1.7087972623908299E-212</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2233,22 +2233,22 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>-2.6359108866209999E-4</v>
+        <v>-2.627420838419E-4</v>
       </c>
       <c r="D43">
-        <v>-1.5218599484909999E-3</v>
+        <v>-1.5216805588415001E-3</v>
       </c>
       <c r="E43" s="1">
-        <v>1.5842692351141101E-5</v>
+        <v>1.5814157137961299E-5</v>
       </c>
       <c r="F43" s="1">
-        <v>4.9448896480880299E-12</v>
+        <v>4.2606863686148301E-12</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <v>1.07612644903678E-16</v>
+        <v>1.09061278932038E-15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2259,22 +2259,22 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>1.73539592378422</v>
+        <v>1.73677680558966</v>
       </c>
       <c r="D44">
-        <v>1.5358262291968101</v>
+        <v>1.5339704308220801</v>
       </c>
       <c r="E44">
-        <v>1.5190761919578499</v>
+        <v>1.5222733756098401</v>
       </c>
       <c r="F44">
-        <v>0.231582600585958</v>
+        <v>0.151589858652217</v>
       </c>
       <c r="G44" s="1">
-        <v>4.8484568097564799E-30</v>
+        <v>6.2847003479757403E-24</v>
       </c>
       <c r="H44" s="1">
-        <v>5.2196882735129998E-22</v>
+        <v>8.36851484766164E-149</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2285,22 +2285,22 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>0.69104630053439198</v>
+        <v>0.69422188505483196</v>
       </c>
       <c r="D45">
-        <v>1.5022775670492201</v>
+        <v>1.5035224459234999</v>
       </c>
       <c r="E45">
-        <v>1.6901698398943701</v>
+        <v>1.6940001937384901</v>
       </c>
       <c r="F45">
-        <v>0.32062520980513598</v>
+        <v>0.25217407384756302</v>
       </c>
       <c r="G45" s="1">
-        <v>2.91878146141222E-27</v>
+        <v>1.0827831251684701E-33</v>
       </c>
       <c r="H45" s="1">
-        <v>1.12740985060461E-88</v>
+        <v>4.1415300961634798E-97</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2311,22 +2311,22 @@
         <v>15</v>
       </c>
       <c r="C46">
-        <v>0.71003574055951102</v>
+        <v>0.71023210203835796</v>
       </c>
       <c r="D46">
-        <v>1.1247477809217099</v>
+        <v>1.12167160289497</v>
       </c>
       <c r="E46">
-        <v>0.99696722034479601</v>
+        <v>0.99446460345815701</v>
       </c>
       <c r="F46">
-        <v>0.480625810177716</v>
+        <v>0.230083466594354</v>
       </c>
       <c r="G46" s="1">
-        <v>1.0158098920686399E-34</v>
+        <v>5.2139816965437699E-48</v>
       </c>
       <c r="H46" s="1">
-        <v>2.5144918877511599E-15</v>
+        <v>1.1072222002030401E-47</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2337,22 +2337,22 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>1.78341279307046</v>
+        <v>1.7823591476514999</v>
       </c>
       <c r="D47">
-        <v>0.84562825096543603</v>
+        <v>0.84485939950681199</v>
       </c>
       <c r="E47">
-        <v>1.68843842152176</v>
+        <v>1.69423694224319</v>
       </c>
       <c r="F47">
-        <v>0.15910740931937101</v>
+        <v>6.1851401750234996E-3</v>
       </c>
       <c r="G47" s="1">
-        <v>1.4037268740369699E-32</v>
+        <v>3.2778285042833101E-18</v>
       </c>
       <c r="H47" s="1">
-        <v>1.1794409263915499E-133</v>
+        <v>1.9646455590533099E-184</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2363,22 +2363,22 @@
         <v>17</v>
       </c>
       <c r="C48">
-        <v>1.0337989796023199</v>
+        <v>1.0314627119981501</v>
       </c>
       <c r="D48">
-        <v>0.67577974938591301</v>
+        <v>0.674926273808785</v>
       </c>
       <c r="E48">
-        <v>1.24845346822238</v>
+        <v>1.24633319210226</v>
       </c>
       <c r="F48">
-        <v>0.67065605801683403</v>
+        <v>0.27752307480309901</v>
       </c>
       <c r="G48">
-        <v>6.0474305424700005E-4</v>
+        <v>9.5428943679250005E-4</v>
       </c>
       <c r="H48" s="1">
-        <v>1.2590428095828E-7</v>
+        <v>3.2936226836337198E-32</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2389,22 +2389,22 @@
         <v>18</v>
       </c>
       <c r="C49">
-        <v>3.74275137649187E-2</v>
+        <v>3.8532574305332801E-2</v>
       </c>
       <c r="D49">
-        <v>-6.0559172221419995E-4</v>
+        <v>-1.0998138038225999E-3</v>
       </c>
       <c r="E49">
-        <v>-4.43113532255308E-2</v>
+        <v>-4.3866478421642797E-2</v>
       </c>
       <c r="F49">
-        <v>0.239991302169202</v>
+        <v>0.13564430081210099</v>
       </c>
       <c r="G49">
-        <v>0.72236379871802803</v>
+        <v>0.72325196901378597</v>
       </c>
       <c r="H49" s="1">
-        <v>1.39411236278261E-42</v>
+        <v>2.36922590800793E-42</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2415,22 +2415,22 @@
         <v>19</v>
       </c>
       <c r="C50">
-        <v>-1.3959635844072E-2</v>
+        <v>-1.52581212580077E-2</v>
       </c>
       <c r="D50">
-        <v>-2.49974148902849E-2</v>
+        <v>-2.5619301037095001E-2</v>
       </c>
       <c r="E50">
-        <v>-9.2851943071557991E-3</v>
+        <v>-8.4437472432662003E-3</v>
       </c>
       <c r="F50">
-        <v>0.60847915270068598</v>
+        <v>0.62013119769677005</v>
       </c>
       <c r="G50">
-        <v>2.0451925563210401E-2</v>
+        <v>4.8200618372321999E-3</v>
       </c>
       <c r="H50">
-        <v>0.114454515403122</v>
+        <v>9.2745326819580504E-2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2441,22 +2441,22 @@
         <v>20</v>
       </c>
       <c r="C51">
-        <v>-1.46104449741112E-3</v>
+        <v>-1.5111038538037E-3</v>
       </c>
       <c r="D51">
-        <v>2.9563236518825599E-3</v>
+        <v>2.9714258774087001E-3</v>
       </c>
       <c r="E51">
-        <v>2.5012099566112602E-3</v>
+        <v>2.4973367909132999E-3</v>
       </c>
       <c r="F51">
-        <v>0.138653303464573</v>
+        <v>0.30330217447654201</v>
       </c>
       <c r="G51" s="1">
-        <v>1.34986465985811E-18</v>
+        <v>3.7732043799833301E-9</v>
       </c>
       <c r="H51" s="1">
-        <v>6.6273911076234399E-22</v>
+        <v>1.7746759362249701E-42</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2467,22 +2467,22 @@
         <v>29</v>
       </c>
       <c r="C52">
-        <v>-4.9828509930642797E-3</v>
+        <v>-6.6667372918556003E-3</v>
       </c>
       <c r="D52">
-        <v>3.5436380609320901E-3</v>
+        <v>2.9087459690420002E-3</v>
       </c>
       <c r="E52">
-        <v>4.7269988147212198E-3</v>
+        <v>5.6151245364872001E-3</v>
       </c>
       <c r="F52">
-        <v>0.48477237327397998</v>
+        <v>0.39764289677029402</v>
       </c>
       <c r="G52">
-        <v>8.2995487441676702E-2</v>
+        <v>2.56937511230486E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>2.36630607452525E-5</v>
+        <v>1.0906642677495E-10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2493,22 +2493,22 @@
         <v>21</v>
       </c>
       <c r="C53">
-        <v>8.5255764946041996E-3</v>
+        <v>8.4556442956002995E-3</v>
       </c>
       <c r="D53">
-        <v>3.3324828693592E-3</v>
+        <v>3.4234129431201001E-3</v>
       </c>
       <c r="E53">
-        <v>3.5476746229176001E-3</v>
+        <v>3.7416758262052998E-3</v>
       </c>
       <c r="F53">
-        <v>0.49563922409653099</v>
+        <v>0.13830644461077299</v>
       </c>
       <c r="G53">
-        <v>8.1562207288471897E-2</v>
+        <v>8.3061312416239097E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>8.3821515192391792E-6</v>
+        <v>1.20166088776529E-6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,22 +2519,22 @@
         <v>22</v>
       </c>
       <c r="C54">
-        <v>5.6828308878445997E-3</v>
+        <v>5.4154042196825998E-3</v>
       </c>
       <c r="D54">
-        <v>-2.9180830326272999E-3</v>
+        <v>-2.7989251370459001E-3</v>
       </c>
       <c r="E54">
-        <v>-8.2003019863900002E-4</v>
+        <v>-7.0512339090160003E-4</v>
       </c>
       <c r="F54">
-        <v>0.69680426625972902</v>
+        <v>0.62498421822966999</v>
       </c>
       <c r="G54">
-        <v>8.4806310285311604E-2</v>
+        <v>0.35586360874041401</v>
       </c>
       <c r="H54">
-        <v>0.34828970302655399</v>
+        <v>0.45928370296148302</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2545,22 +2545,22 @@
         <v>23</v>
       </c>
       <c r="C55">
-        <v>2.72250069059429E-2</v>
+        <v>2.44642227803996E-2</v>
       </c>
       <c r="D55">
-        <v>5.7419169548798797E-3</v>
+        <v>5.7427633152038002E-3</v>
       </c>
       <c r="E55">
-        <v>4.4482739119497596E-3</v>
+        <v>4.7339027924587001E-3</v>
       </c>
       <c r="F55">
-        <v>0.494660210900777</v>
+        <v>0.36953825103929899</v>
       </c>
       <c r="G55">
-        <v>0.31600353625184602</v>
+        <v>0.24982122194237799</v>
       </c>
       <c r="H55">
-        <v>0.32454748785419002</v>
+        <v>0.24932434907748199</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2571,22 +2571,22 @@
         <v>24</v>
       </c>
       <c r="C56">
-        <v>1.2541419233770001E-4</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5.3350506429638198E-5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2.9748046294751599E-5</v>
+        <v>8.6504757658423005E-3</v>
+      </c>
+      <c r="D56">
+        <v>3.4107285993124998E-3</v>
+      </c>
+      <c r="E56">
+        <v>1.8171657191089E-3</v>
       </c>
       <c r="F56">
-        <v>0.17657614433999</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1.0075343450055E-8</v>
-      </c>
-      <c r="H56">
-        <v>2.5628384340517E-3</v>
+        <v>6.8216733189765205E-2</v>
+      </c>
+      <c r="G56">
+        <v>1.0907380765087999E-3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4.85546601650148E-5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2597,22 +2597,22 @@
         <v>25</v>
       </c>
       <c r="C57">
-        <v>6.7691755398486802E-3</v>
+        <v>7.0548654457437002E-3</v>
       </c>
       <c r="D57">
-        <v>-7.8415542783698798E-3</v>
+        <v>-7.7802090992915001E-3</v>
       </c>
       <c r="E57">
-        <v>-1.0271227260366601E-2</v>
+        <v>-1.01687257691751E-2</v>
       </c>
       <c r="F57">
-        <v>0.48438324355707102</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1.0220543037561301E-6</v>
+        <v>0.30978198224606002</v>
+      </c>
+      <c r="G57">
+        <v>1.3445245702502001E-3</v>
       </c>
       <c r="H57" s="1">
-        <v>1.06001091616185E-13</v>
+        <v>7.0444369020652202E-36</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2623,22 +2623,22 @@
         <v>26</v>
       </c>
       <c r="C58">
-        <v>-1.7099543550683099E-3</v>
+        <v>-1.557864013126E-3</v>
       </c>
       <c r="D58">
-        <v>7.8839518228591299E-3</v>
+        <v>8.0334048088973996E-3</v>
       </c>
       <c r="E58">
-        <v>-1.2009911448953099E-3</v>
+        <v>-1.1165795350403999E-3</v>
       </c>
       <c r="F58">
-        <v>0.84189043291854304</v>
+        <v>0.73941502794213398</v>
       </c>
       <c r="G58">
-        <v>5.05451294281163E-2</v>
+        <v>7.2676832219036203E-2</v>
       </c>
       <c r="H58">
-        <v>0.391543181614118</v>
+        <v>0.43671756590470201</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2649,22 +2649,22 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>-0.16542512708793899</v>
+        <v>-0.173348477354412</v>
       </c>
       <c r="D59">
-        <v>0.240813827189505</v>
+        <v>0.23848718743254099</v>
       </c>
       <c r="E59">
-        <v>0.49268381072400502</v>
+        <v>0.48418885306239701</v>
       </c>
       <c r="F59">
-        <v>0.29448842278392301</v>
+        <v>0.44420868328479102</v>
       </c>
       <c r="G59">
-        <v>1.3005423402960001E-2</v>
+        <v>4.6002449954594099E-2</v>
       </c>
       <c r="H59" s="1">
-        <v>2.83766370389308E-11</v>
+        <v>1.8485603067636401E-11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2675,22 +2675,22 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>-1.702669845225E-3</v>
+        <v>-2.1922216941643998E-3</v>
       </c>
       <c r="D60">
-        <v>-6.8585141451429996E-3</v>
+        <v>-7.8255547137577007E-3</v>
       </c>
       <c r="E60">
-        <v>-1.6089122998139901E-2</v>
+        <v>-1.6267871217134199E-2</v>
       </c>
       <c r="F60">
-        <v>0.78126916327015405</v>
+        <v>0.62558502750245704</v>
       </c>
       <c r="G60">
-        <v>0.169170088784206</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3.05460151440638E-5</v>
+        <v>0.25860765420089299</v>
+      </c>
+      <c r="H60">
+        <v>5.3385477529628397E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2701,22 +2701,22 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>-1.7834018060772501</v>
+        <v>-1.7854255842996301</v>
       </c>
       <c r="D61">
-        <v>-1.8590709246272401</v>
+        <v>-1.85487238148926</v>
       </c>
       <c r="E61">
-        <v>-2.1743759872610999</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3.0706833967479398E-6</v>
+        <v>-2.17311423007515</v>
+      </c>
+      <c r="F61">
+        <v>9.4104613405876E-3</v>
       </c>
       <c r="G61" s="1">
-        <v>6.4991867394416996E-31</v>
+        <v>1.8694773437501599E-10</v>
       </c>
       <c r="H61" s="1">
-        <v>2.81139915134096E-47</v>
+        <v>1.49247256955746E-14</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2727,22 +2727,22 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>-2.148350738968E-4</v>
+        <v>-2.1364047148439999E-4</v>
       </c>
       <c r="D62">
-        <v>-1.0128294268893E-3</v>
+        <v>-1.0140879694273E-3</v>
       </c>
       <c r="E62" s="1">
-        <v>-5.60556079516599E-6</v>
+        <v>-6.1947400720298298E-6</v>
       </c>
       <c r="F62" s="1">
-        <v>6.8669172115942705E-20</v>
+        <v>7.4296176846146698E-19</v>
       </c>
       <c r="G62" s="1">
-        <v>1.09223956757037E-185</v>
+        <v>2.9693982255365601E-164</v>
       </c>
       <c r="H62">
-        <v>0.213673431216408</v>
+        <v>0.17267167164934</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2753,22 +2753,22 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>1.42701873243514</v>
+        <v>1.43386718191859</v>
       </c>
       <c r="D63">
-        <v>1.64233184418628</v>
+        <v>1.6626587621602</v>
       </c>
       <c r="E63">
-        <v>1.48335022053556</v>
-      </c>
-      <c r="F63" s="1">
-        <v>5.0285666361532499E-5</v>
+        <v>1.47695346301845</v>
+      </c>
+      <c r="F63">
+        <v>7.0794571990271003E-3</v>
       </c>
       <c r="G63" s="1">
-        <v>6.4326181133492405E-13</v>
+        <v>1.32023331356288E-6</v>
       </c>
       <c r="H63" s="1">
-        <v>4.4501000156119702E-8</v>
+        <v>3.51193611520217E-15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2779,22 +2779,22 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>0.83116596597794101</v>
+        <v>0.86567786098026001</v>
       </c>
       <c r="D64">
-        <v>1.44969770577193</v>
+        <v>1.48709688196428</v>
       </c>
       <c r="E64">
-        <v>2.27456280571971</v>
+        <v>2.30439476819982</v>
       </c>
       <c r="F64">
-        <v>0.155774936304301</v>
+        <v>0.200323968976546</v>
       </c>
       <c r="G64" s="1">
-        <v>5.6807681373947499E-5</v>
+        <v>4.5599127194504699E-7</v>
       </c>
       <c r="H64" s="1">
-        <v>3.98557899507666E-10</v>
+        <v>6.0216439440956697E-21</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2805,22 +2805,22 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>0.97622019014384098</v>
+        <v>0.96685639623125796</v>
       </c>
       <c r="D65">
-        <v>1.21200098649564</v>
+        <v>1.23036146206654</v>
       </c>
       <c r="E65">
-        <v>0.78052832967118702</v>
+        <v>0.779412019944279</v>
       </c>
       <c r="F65">
-        <v>1.2626944593145201E-2</v>
+        <v>0.17823442328325001</v>
       </c>
       <c r="G65" s="1">
-        <v>2.7946322914098598E-9</v>
+        <v>2.1231842389911201E-6</v>
       </c>
       <c r="H65">
-        <v>2.4691669285919998E-3</v>
+        <v>1.4958544098896999E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2831,22 +2831,22 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>1.7389897110630099</v>
+        <v>1.72602708667649</v>
       </c>
       <c r="D66">
-        <v>0.825157709382905</v>
+        <v>0.85269805812382005</v>
       </c>
       <c r="E66">
-        <v>1.9934861463173601</v>
+        <v>1.99511598536783</v>
       </c>
       <c r="F66">
-        <v>1.7914153505917999E-3</v>
-      </c>
-      <c r="G66">
-        <v>1.16944094076E-4</v>
+        <v>1.7619619765869999E-3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>7.2505002168529202E-5</v>
       </c>
       <c r="H66" s="1">
-        <v>5.5263775938879703E-16</v>
+        <v>4.5087036783980498E-37</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2857,22 +2857,22 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>0.95762438931304805</v>
+        <v>0.87561405234709999</v>
       </c>
       <c r="D67">
-        <v>0.95054953595719405</v>
+        <v>0.93798139684279702</v>
       </c>
       <c r="E67">
-        <v>1.0711785537259999</v>
+        <v>1.05649983842217</v>
       </c>
       <c r="F67">
-        <v>0.26365507507936797</v>
+        <v>0.179022857382059</v>
       </c>
       <c r="G67">
-        <v>6.9161920076367706E-2</v>
+        <v>0.13790833182960999</v>
       </c>
       <c r="H67">
-        <v>1.9659246986315701E-2</v>
+        <v>1.71602900977183E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2883,22 +2883,22 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>-8.8038952297185294E-2</v>
+        <v>-8.8982807099194899E-2</v>
       </c>
       <c r="D68">
-        <v>-0.12795766001780801</v>
+        <v>-0.127747666548644</v>
       </c>
       <c r="E68">
-        <v>-0.15184887081967799</v>
+        <v>-0.149536576105811</v>
       </c>
       <c r="F68">
-        <v>4.0391360118611497E-2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>6.3448964570137496E-8</v>
+        <v>8.7264309448177896E-2</v>
+      </c>
+      <c r="G68">
+        <v>1.948081047273E-4</v>
       </c>
       <c r="H68" s="1">
-        <v>4.72010184944341E-14</v>
+        <v>9.8111923725928096E-12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2909,22 +2909,22 @@
         <v>19</v>
       </c>
       <c r="C69">
-        <v>4.5237257668385697E-2</v>
+        <v>5.1162376989313203E-2</v>
       </c>
       <c r="D69">
-        <v>4.2433321463686002E-3</v>
+        <v>7.3446473945604999E-3</v>
       </c>
       <c r="E69">
-        <v>-7.7201399223442001E-3</v>
+        <v>-9.1420561932385996E-3</v>
       </c>
       <c r="F69">
-        <v>0.28180043089526002</v>
+        <v>0.34216620978753198</v>
       </c>
       <c r="G69">
-        <v>0.71357260614789997</v>
+        <v>0.686083422223009</v>
       </c>
       <c r="H69">
-        <v>0.60424855645842201</v>
+        <v>0.54612084352983403</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2935,22 +2935,22 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>3.0059567438246103E-4</v>
+        <v>1.69719447384E-4</v>
       </c>
       <c r="D70">
-        <v>2.5846903415416801E-3</v>
+        <v>2.5644074910513002E-3</v>
       </c>
       <c r="E70">
-        <v>3.9878698401893103E-3</v>
+        <v>4.1139846541013003E-3</v>
       </c>
       <c r="F70">
-        <v>0.76990746882934902</v>
+        <v>0.84190215599199703</v>
       </c>
       <c r="G70">
-        <v>0.10507443809478299</v>
+        <v>9.6003588646306995E-2</v>
       </c>
       <c r="H70">
-        <v>1.3555936922309E-3</v>
+        <v>4.4112028191480002E-4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2961,22 +2961,22 @@
         <v>22</v>
       </c>
       <c r="C73">
-        <v>1.21035548533682E-2</v>
+        <v>1.15209334175409E-2</v>
       </c>
       <c r="D73">
-        <v>2.1163245700708002E-3</v>
+        <v>2.0489060221725E-3</v>
       </c>
       <c r="E73">
-        <v>2.6746575622732002E-3</v>
+        <v>2.7282473164594E-3</v>
       </c>
       <c r="F73">
-        <v>1.7351836782898099E-2</v>
+        <v>2.1934454162364302E-2</v>
       </c>
       <c r="G73">
-        <v>0.52114885288552903</v>
+        <v>0.52029571060994295</v>
       </c>
       <c r="H73">
-        <v>0.25469238089042701</v>
+        <v>0.28976456858954502</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2987,22 +2987,22 @@
         <v>23</v>
       </c>
       <c r="C74">
-        <v>2.3737315059421098E-2</v>
+        <v>2.42371020700641E-2</v>
       </c>
       <c r="D74">
-        <v>2.6878794215042402E-3</v>
+        <v>2.9215949905640999E-3</v>
       </c>
       <c r="E74">
-        <v>-2.48854686884164E-3</v>
+        <v>-2.5160708436122998E-3</v>
       </c>
       <c r="F74">
-        <v>0.120127742012181</v>
+        <v>9.0976275824534394E-2</v>
       </c>
       <c r="G74">
-        <v>0.74262282867540996</v>
+        <v>0.53584075618011495</v>
       </c>
       <c r="H74">
-        <v>0.64914832930619704</v>
+        <v>0.66208523242056205</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3013,22 +3013,22 @@
         <v>26</v>
       </c>
       <c r="C77">
-        <v>-1.5390251187094001E-2</v>
+        <v>-1.4039528208284999E-2</v>
       </c>
       <c r="D77">
-        <v>-2.6549870482787999E-3</v>
+        <v>-2.1519884051058001E-3</v>
       </c>
       <c r="E77">
-        <v>7.5876594396056098E-3</v>
+        <v>8.1373526178802995E-3</v>
       </c>
       <c r="F77">
-        <v>0.14772294024871599</v>
+        <v>0.20119405905367099</v>
       </c>
       <c r="G77">
-        <v>0.63645408147642502</v>
+        <v>0.69212017944178195</v>
       </c>
       <c r="H77">
-        <v>0.14348285232876301</v>
+        <v>0.12627785222683199</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -3039,22 +3039,22 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>-0.61047931768638697</v>
+        <v>-0.61165625912370103</v>
       </c>
       <c r="D78">
-        <v>7.3599117193724195E-2</v>
+        <v>7.2213373300335504E-2</v>
       </c>
       <c r="E78">
-        <v>0.41472720454883899</v>
+        <v>0.41269876949614998</v>
       </c>
       <c r="F78" s="1">
-        <v>8.4990485899374903E-26</v>
+        <v>8.6656420168897401E-26</v>
       </c>
       <c r="G78">
-        <v>8.9904329029332E-3</v>
+        <v>1.0209000105627799E-2</v>
       </c>
       <c r="H78" s="1">
-        <v>2.9230986416988199E-41</v>
+        <v>7.3604963113282495E-41</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3064,23 +3064,23 @@
       <c r="B79" t="s">
         <v>10</v>
       </c>
-      <c r="C79">
-        <v>-1.3840983442449999E-4</v>
+      <c r="C79" s="1">
+        <v>-9.0563588941026298E-5</v>
       </c>
       <c r="D79">
-        <v>-5.5046509814808001E-3</v>
+        <v>-5.3959969687170997E-3</v>
       </c>
       <c r="E79">
-        <v>-9.5795239036360995E-3</v>
+        <v>-9.4947368378329993E-3</v>
       </c>
       <c r="F79">
-        <v>0.72200201558807697</v>
+        <v>0.71888541625170799</v>
       </c>
       <c r="G79">
-        <v>7.4143633530130001E-4</v>
+        <v>9.6431260234790001E-4</v>
       </c>
       <c r="H79" s="1">
-        <v>4.8122777875490603E-9</v>
+        <v>6.62876374378669E-9</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3091,16 +3091,16 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>-2.2082787722450599</v>
+        <v>-2.2149010302245098</v>
       </c>
       <c r="D80">
-        <v>-2.47505976157642</v>
+        <v>-2.4790194496160698</v>
       </c>
       <c r="E80">
-        <v>-3.0866955687367299</v>
+        <v>-3.1029112271229198</v>
       </c>
       <c r="F80" s="1">
-        <v>8.5704663404248596E-150</v>
+        <v>2.2800872656867099E-150</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3117,22 +3117,22 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>-3.0579963303179998E-4</v>
+        <v>-3.0539271568019998E-4</v>
       </c>
       <c r="D81">
-        <v>-1.7606540187877001E-3</v>
+        <v>-1.761721882046E-3</v>
       </c>
       <c r="E81" s="1">
-        <v>3.8863504011758297E-5</v>
+        <v>3.9102168850109099E-5</v>
       </c>
       <c r="F81" s="1">
-        <v>9.5225006813897503E-136</v>
+        <v>2.14387418445575E-135</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" s="1">
-        <v>4.4716565694550298E-46</v>
+        <v>1.3170335885272299E-46</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3143,22 +3143,22 @@
         <v>13</v>
       </c>
       <c r="C82">
-        <v>1.86712396639014</v>
+        <v>1.86738440168648</v>
       </c>
       <c r="D82">
-        <v>1.7740770034466999</v>
+        <v>1.7741612249883201</v>
       </c>
       <c r="E82">
-        <v>1.6849171384080901</v>
+        <v>1.6811445953395201</v>
       </c>
       <c r="F82" s="1">
-        <v>1.4913697155052E-50</v>
+        <v>1.45029114503478E-50</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" s="1">
-        <v>3.12594328782883E-123</v>
+        <v>8.6437298635373398E-123</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3169,22 +3169,22 @@
         <v>14</v>
       </c>
       <c r="C83">
-        <v>2.0818274426306198</v>
+        <v>2.0826571731436299</v>
       </c>
       <c r="D83">
-        <v>2.01351507585641</v>
+        <v>2.0209595458288701</v>
       </c>
       <c r="E83">
-        <v>2.4882065319296101</v>
+        <v>2.4893286707913602</v>
       </c>
       <c r="F83" s="1">
-        <v>1.4238628438555199E-38</v>
+        <v>1.2292385570312801E-38</v>
       </c>
       <c r="G83" s="1">
-        <v>4.1557336396112799E-192</v>
+        <v>2.4791483384040598E-193</v>
       </c>
       <c r="H83" s="1">
-        <v>1.5789303257703401E-175</v>
+        <v>1.16090287961471E-175</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3195,22 +3195,22 @@
         <v>15</v>
       </c>
       <c r="C84">
-        <v>1.1696237014212201</v>
+        <v>1.1720405441550099</v>
       </c>
       <c r="D84">
-        <v>0.80037211266622998</v>
+        <v>0.80239406674858105</v>
       </c>
       <c r="E84">
-        <v>1.2406447951091899</v>
+        <v>1.2339582666857201</v>
       </c>
       <c r="F84" s="1">
-        <v>5.0502625757795202E-17</v>
+        <v>4.13356868992828E-17</v>
       </c>
       <c r="G84" s="1">
-        <v>7.2114133102704005E-63</v>
+        <v>4.2505125479295198E-63</v>
       </c>
       <c r="H84" s="1">
-        <v>2.5504550303921699E-59</v>
+        <v>1.3250755614151801E-58</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3221,22 +3221,22 @@
         <v>16</v>
       </c>
       <c r="C85">
-        <v>2.1308929464287401</v>
+        <v>2.1257502461511999</v>
       </c>
       <c r="D85">
-        <v>0.75526287488948196</v>
+        <v>0.75165672483188195</v>
       </c>
       <c r="E85">
-        <v>1.75790405178334</v>
+        <v>1.75878832024901</v>
       </c>
       <c r="F85" s="1">
-        <v>1.5532661207917801E-75</v>
+        <v>3.5403307385751E-75</v>
       </c>
       <c r="G85" s="1">
-        <v>7.0753659442915198E-42</v>
+        <v>1.80713857511244E-41</v>
       </c>
       <c r="H85" s="1">
-        <v>6.2616716909684105E-125</v>
+        <v>3.3518271999140902E-125</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3247,22 +3247,22 @@
         <v>17</v>
       </c>
       <c r="C86">
-        <v>1.2147990328001601</v>
+        <v>1.2151092288129599</v>
       </c>
       <c r="D86">
-        <v>0.599695715548617</v>
+        <v>0.60105389240030604</v>
       </c>
       <c r="E86">
-        <v>1.67067280510994</v>
+        <v>1.67241806745475</v>
       </c>
       <c r="F86" s="1">
-        <v>9.2875548577343907E-12</v>
+        <v>9.0422880850986203E-12</v>
       </c>
       <c r="G86" s="1">
-        <v>2.6222004764249299E-18</v>
+        <v>2.3255631092427001E-18</v>
       </c>
       <c r="H86" s="1">
-        <v>1.27481202994639E-81</v>
+        <v>5.6066593967629295E-82</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3273,22 +3273,22 @@
         <v>18</v>
       </c>
       <c r="C87">
-        <v>-5.6827045375313898E-2</v>
+        <v>-5.5518956800066702E-2</v>
       </c>
       <c r="D87">
-        <v>-4.1791441746405401E-2</v>
+        <v>-3.78763210078224E-2</v>
       </c>
       <c r="E87">
-        <v>-5.8534595603577898E-2</v>
+        <v>-6.9938348721407695E-2</v>
       </c>
       <c r="F87" s="1">
-        <v>4.8666524494846801E-8</v>
+        <v>3.9008607026662898E-7</v>
       </c>
       <c r="G87" s="1">
-        <v>5.12517681625051E-24</v>
+        <v>1.2767447969763399E-18</v>
       </c>
       <c r="H87" s="1">
-        <v>2.04974697607018E-29</v>
+        <v>2.9564395344437498E-39</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3299,22 +3299,22 @@
         <v>19</v>
       </c>
       <c r="C88">
-        <v>1.4420154619364E-3</v>
+        <v>4.6209084034439998E-4</v>
       </c>
       <c r="D88">
-        <v>1.53803911694687E-2</v>
+        <v>1.85760856341954E-2</v>
       </c>
       <c r="E88">
-        <v>9.4584040107301998E-3</v>
+        <v>1.25816597238413E-2</v>
       </c>
       <c r="F88">
-        <v>0.824964153217143</v>
+        <v>0.81102506997021995</v>
       </c>
       <c r="G88">
-        <v>3.5836236869904399E-2</v>
+        <v>1.10773756016272E-2</v>
       </c>
       <c r="H88">
-        <v>0.285476558459621</v>
+        <v>0.15717408992961299</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3325,22 +3325,22 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <v>3.4344886647687599E-3</v>
+        <v>2.8803240014441001E-3</v>
       </c>
       <c r="D89">
-        <v>7.70275832016279E-3</v>
+        <v>7.6566552795115997E-3</v>
       </c>
       <c r="E89">
-        <v>6.4705421066408898E-3</v>
+        <v>6.9221638386242996E-3</v>
       </c>
       <c r="F89">
-        <v>2.2353260474829999E-4</v>
+        <v>2.5813064230314001E-3</v>
       </c>
       <c r="G89" s="1">
-        <v>2.2696875339574299E-51</v>
+        <v>3.2833819917944E-48</v>
       </c>
       <c r="H89" s="1">
-        <v>2.8972419856199099E-38</v>
+        <v>8.9587919821257903E-42</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3351,22 +3351,42 @@
         <v>29</v>
       </c>
       <c r="C90">
-        <v>2.3325969627381701E-2</v>
+        <v>2.2306260648402802E-2</v>
       </c>
       <c r="D90">
-        <v>2.6452620039817201E-2</v>
+        <v>2.7597227041104701E-2</v>
       </c>
       <c r="E90">
-        <v>-1.3183336059017199E-2</v>
+        <v>8.6363768239552993E-3</v>
       </c>
       <c r="F90">
-        <v>3.0809960020650101E-2</v>
+        <v>3.42358086986718E-2</v>
       </c>
       <c r="G90" s="1">
-        <v>4.2109496303395299E-5</v>
+        <v>1.81209877720301E-5</v>
       </c>
       <c r="H90">
-        <v>4.94787467622416E-2</v>
+        <v>0.19448179376160801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>-6.1028565241270005E-4</v>
+      </c>
+      <c r="D91">
+        <v>4.7969882723545004E-3</v>
+      </c>
+      <c r="E91">
+        <v>-2.9660465618649998E-3</v>
+      </c>
+      <c r="F91">
+        <v>0.70809655091750201</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5.5848889195642404E-7</v>
+      </c>
+      <c r="H91">
+        <v>3.5248765676586E-3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3377,22 +3397,22 @@
         <v>22</v>
       </c>
       <c r="C92">
-        <v>-9.2166112675844004E-3</v>
+        <v>-9.6203945222505007E-3</v>
       </c>
       <c r="D92">
-        <v>4.0581395417782001E-3</v>
+        <v>7.7400963731827001E-3</v>
       </c>
       <c r="E92">
-        <v>4.6999625047263998E-3</v>
-      </c>
-      <c r="F92" s="1">
-        <v>6.0124440517830603E-5</v>
+        <v>2.6810748734979002E-3</v>
+      </c>
+      <c r="F92">
+        <v>9.8746822219150003E-4</v>
       </c>
       <c r="G92" s="1">
-        <v>1.3815521170457601E-5</v>
-      </c>
-      <c r="H92" s="1">
-        <v>1.30128649699287E-8</v>
+        <v>1.70810936406442E-11</v>
+      </c>
+      <c r="H92">
+        <v>7.1167479908082996E-3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3403,22 +3423,22 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <v>8.5581408713349301E-3</v>
+        <v>8.9696184275765006E-3</v>
       </c>
       <c r="D93">
-        <v>-2.3003447164122001E-3</v>
+        <v>1.0218799365563E-3</v>
       </c>
       <c r="E93">
-        <v>-4.1784767557075298E-4</v>
+        <v>4.0394323103647998E-3</v>
       </c>
       <c r="F93" s="1">
-        <v>4.7022052180075502E-6</v>
+        <v>7.0567749393314299E-8</v>
       </c>
       <c r="G93">
-        <v>3.9854149809882999E-2</v>
-      </c>
-      <c r="H93">
-        <v>0.71325034801688303</v>
+        <v>0.30865868551272801</v>
+      </c>
+      <c r="H93" s="1">
+        <v>9.0155028342221697E-5</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,23 +3448,23 @@
       <c r="B94" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="1">
-        <v>7.91166328364304E-5</v>
+      <c r="C94">
+        <v>1.08816837694429E-2</v>
       </c>
       <c r="D94">
-        <v>1.769484449567E-4</v>
+        <v>1.1133191491578501E-2</v>
       </c>
       <c r="E94">
-        <v>2.6516514596279999E-4</v>
+        <v>1.5827825474715201E-2</v>
       </c>
       <c r="F94">
-        <v>6.1215843630207302E-2</v>
+        <v>2.1945227403315998E-3</v>
       </c>
       <c r="G94" s="1">
-        <v>1.0187256143650099E-14</v>
+        <v>1.13667518707413E-8</v>
       </c>
       <c r="H94" s="1">
-        <v>2.3144582447205599E-30</v>
+        <v>1.3429065853225301E-13</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3455,22 +3475,22 @@
         <v>25</v>
       </c>
       <c r="C95">
-        <v>-2.5886559206994299E-3</v>
+        <v>-1.4781791447487E-3</v>
       </c>
       <c r="D95">
-        <v>-3.0938121324389899E-3</v>
+        <v>-3.5775121268595E-3</v>
       </c>
       <c r="E95">
-        <v>-8.49835808567671E-4</v>
+        <v>1.3121596828417001E-3</v>
       </c>
       <c r="F95">
-        <v>0.214361652800794</v>
+        <v>0.48705964742270202</v>
       </c>
       <c r="G95">
-        <v>1.3294647528109E-3</v>
+        <v>3.7759617891720002E-4</v>
       </c>
       <c r="H95">
-        <v>0.43225188309395202</v>
+        <v>0.23728336300413599</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3481,22 +3501,22 @@
         <v>26</v>
       </c>
       <c r="C96">
-        <v>-4.4609944795206396E-3</v>
+        <v>-4.4804274131342E-3</v>
       </c>
       <c r="D96">
-        <v>4.3689071505063799E-3</v>
+        <v>3.8764220036178998E-3</v>
       </c>
       <c r="E96">
-        <v>1.0558133104104099E-2</v>
+        <v>9.9792558463673992E-3</v>
       </c>
       <c r="F96">
-        <v>0.151032472481408</v>
+        <v>0.150448856406732</v>
       </c>
       <c r="G96">
-        <v>2.0526372931521999E-3</v>
+        <v>6.2503328636816999E-3</v>
       </c>
       <c r="H96" s="1">
-        <v>1.1952659494115401E-12</v>
+        <v>2.0172571903373099E-11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3507,22 +3527,22 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>-0.160295445934866</v>
+        <v>-0.160717246393379</v>
       </c>
       <c r="D97">
-        <v>9.5788782022244195E-2</v>
+        <v>9.3431988212747896E-2</v>
       </c>
       <c r="E97">
-        <v>0.26408450472824002</v>
-      </c>
-      <c r="F97">
-        <v>2.3056457060888999E-3</v>
+        <v>0.26393753666752101</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2.8085451836687199E-5</v>
       </c>
       <c r="G97">
-        <v>5.2927388623405201E-2</v>
+        <v>4.0670183256829799E-2</v>
       </c>
       <c r="H97" s="1">
-        <v>1.7177828371934002E-8</v>
+        <v>2.6798593140052299E-7</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3533,22 +3553,22 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>4.493773198147E-4</v>
+        <v>3.7014812372100002E-4</v>
       </c>
       <c r="D98">
-        <v>-7.9824736911074008E-3</v>
+        <v>-8.0670225734169997E-3</v>
       </c>
       <c r="E98">
-        <v>-3.7619095163368001E-3</v>
+        <v>-3.9124851305229E-3</v>
       </c>
       <c r="F98">
-        <v>0.64486466947807497</v>
+        <v>0.86585605899665297</v>
       </c>
       <c r="G98">
-        <v>6.0197680530268E-3</v>
+        <v>4.3595991354927699E-2</v>
       </c>
       <c r="H98">
-        <v>0.116542288751995</v>
+        <v>0.13510202310170699</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3559,22 +3579,22 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>-3.0408488051461799</v>
+        <v>-3.0394652237445299</v>
       </c>
       <c r="D99">
-        <v>-2.8372729824935301</v>
+        <v>-2.8334847814326301</v>
       </c>
       <c r="E99">
-        <v>-3.4915865003927</v>
+        <v>-3.49851080002975</v>
       </c>
       <c r="F99" s="1">
-        <v>1.9790530589619099E-39</v>
+        <v>1.14815991895159E-11</v>
       </c>
       <c r="G99" s="1">
-        <v>9.7948619823172805E-101</v>
+        <v>5.6817590209201096E-63</v>
       </c>
       <c r="H99" s="1">
-        <v>3.3827332255373598E-151</v>
+        <v>2.2797177351219299E-163</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3585,22 +3605,22 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>-3.4424015353180001E-4</v>
+        <v>-3.444225790718E-4</v>
       </c>
       <c r="D100">
-        <v>-1.6153026835908E-3</v>
+        <v>-1.6157495585232E-3</v>
       </c>
       <c r="E100" s="1">
-        <v>-1.1124878698342601E-5</v>
+        <v>-1.0910972551015099E-5</v>
       </c>
       <c r="F100" s="1">
-        <v>1.11558672468286E-227</v>
+        <v>1.8268180709509499E-83</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1.00890972601E-4</v>
+        <v>2.1037518947869E-3</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3611,22 +3631,22 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>0.72980252004058999</v>
+        <v>0.73091520488273698</v>
       </c>
       <c r="D101">
-        <v>1.88486970114996</v>
+        <v>1.8759420574461301</v>
       </c>
       <c r="E101">
-        <v>0.59038557628571298</v>
-      </c>
-      <c r="F101" s="1">
-        <v>9.4028779303750598E-6</v>
+        <v>0.59154475056564604</v>
+      </c>
+      <c r="F101">
+        <v>9.2569340375650002E-4</v>
       </c>
       <c r="G101" s="1">
-        <v>7.2599535213640098E-37</v>
+        <v>1.16841098937451E-9</v>
       </c>
       <c r="H101">
-        <v>4.5913627418259998E-4</v>
+        <v>2.0337974566492001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3637,22 +3657,22 @@
         <v>14</v>
       </c>
       <c r="C102">
-        <v>0.43040513162322502</v>
+        <v>0.43934041316984701</v>
       </c>
       <c r="D102">
-        <v>0.94440199186231599</v>
+        <v>0.94579116992996604</v>
       </c>
       <c r="E102">
-        <v>0.93351855004642803</v>
-      </c>
-      <c r="F102">
-        <v>4.3112240120240001E-4</v>
+        <v>0.93681544745259504</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5.3686857786583402E-5</v>
       </c>
       <c r="G102" s="1">
-        <v>2.67508143265456E-14</v>
-      </c>
-      <c r="H102" s="1">
-        <v>1.13543847613525E-6</v>
+        <v>2.9505333976421798E-10</v>
+      </c>
+      <c r="H102">
+        <v>1.2278505603019999E-4</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3663,22 +3683,22 @@
         <v>15</v>
       </c>
       <c r="C103">
-        <v>0.10353264768727299</v>
+        <v>0.108772362188216</v>
       </c>
       <c r="D103">
-        <v>0.70913538279640798</v>
+        <v>0.70562529939080498</v>
       </c>
       <c r="E103">
-        <v>0.51252572212254499</v>
+        <v>0.51784491270937505</v>
       </c>
       <c r="F103">
-        <v>0.40211993077233998</v>
+        <v>0.43617492826259402</v>
       </c>
       <c r="G103" s="1">
-        <v>3.79612107995871E-7</v>
+        <v>1.4739540484017101E-5</v>
       </c>
       <c r="H103">
-        <v>1.7362491350751E-3</v>
+        <v>3.7509087119190397E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,22 +3709,22 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>1.2585697237245901</v>
+        <v>1.2684962898336101</v>
       </c>
       <c r="D104">
-        <v>0.75143467253081897</v>
+        <v>0.74780951966338505</v>
       </c>
       <c r="E104">
-        <v>1.3479030228900299</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1.9811160101771101E-21</v>
+        <v>1.3541204798158599</v>
+      </c>
+      <c r="F104">
+        <v>9.8144508592442996E-3</v>
       </c>
       <c r="G104" s="1">
-        <v>3.5519751084692002E-12</v>
+        <v>1.0081546506021299E-9</v>
       </c>
       <c r="H104" s="1">
-        <v>6.9045646858380602E-17</v>
+        <v>2.9201137658451801E-6</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3715,22 +3735,22 @@
         <v>17</v>
       </c>
       <c r="C105">
-        <v>9.9037824304810604E-2</v>
+        <v>0.11231750854408</v>
       </c>
       <c r="D105">
-        <v>0.55478968721052702</v>
+        <v>0.53959374189618403</v>
       </c>
       <c r="E105">
-        <v>0.22905638309350901</v>
+        <v>0.25264626565077503</v>
       </c>
       <c r="F105">
-        <v>0.57724922939572099</v>
+        <v>0.62895385353636502</v>
       </c>
       <c r="G105">
-        <v>1.5092157136893001E-3</v>
+        <v>2.4902056155868799E-2</v>
       </c>
       <c r="H105">
-        <v>0.26773807915491199</v>
+        <v>0.28030192580954699</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3741,22 +3761,22 @@
         <v>18</v>
       </c>
       <c r="C106">
-        <v>-1.7641819616338102E-2</v>
+        <v>-1.7960900097093599E-2</v>
       </c>
       <c r="D106">
-        <v>-2.09416429782611E-2</v>
+        <v>-2.42965584844381E-2</v>
       </c>
       <c r="E106">
-        <v>-1.5294794982088701E-2</v>
+        <v>-1.0675303020450701E-2</v>
       </c>
       <c r="F106">
-        <v>8.7525161111970007E-2</v>
+        <v>0.115699328476889</v>
       </c>
       <c r="G106">
-        <v>6.30178735647208E-2</v>
+        <v>0.124444423706256</v>
       </c>
       <c r="H106">
-        <v>0.14220347642794201</v>
+        <v>0.32661655700328901</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3767,22 +3787,22 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>-3.8054662539206398E-2</v>
+        <v>-4.7672010985152398E-2</v>
       </c>
       <c r="D107">
-        <v>4.7993723709380001E-2</v>
+        <v>5.5469710239458299E-2</v>
       </c>
       <c r="E107">
-        <v>3.03805317816555E-2</v>
+        <v>1.0645822620885001E-2</v>
       </c>
       <c r="F107">
-        <v>6.17716382681101E-2</v>
+        <v>4.7112457804917303E-2</v>
       </c>
       <c r="G107">
-        <v>7.6681709583349003E-3</v>
+        <v>5.1686585463631002E-3</v>
       </c>
       <c r="H107">
-        <v>7.8155997388559301E-2</v>
+        <v>0.44696686601264302</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3793,22 +3813,22 @@
         <v>20</v>
       </c>
       <c r="C108">
-        <v>3.9308120701259299E-3</v>
+        <v>4.5208703752921998E-3</v>
       </c>
       <c r="D108">
-        <v>5.8302906349294199E-3</v>
+        <v>5.7640408737075002E-3</v>
       </c>
       <c r="E108">
-        <v>3.7746160511888398E-3</v>
+        <v>4.9389598593939004E-3</v>
       </c>
       <c r="F108">
-        <v>9.3995685511338006E-3</v>
-      </c>
-      <c r="G108" s="1">
-        <v>2.8427507486754901E-7</v>
-      </c>
-      <c r="H108">
-        <v>5.3053624537080003E-4</v>
+        <v>3.6278112650038E-3</v>
+      </c>
+      <c r="G108">
+        <v>1.0819925542974E-3</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3.9482139765131203E-5</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3819,22 +3839,42 @@
         <v>29</v>
       </c>
       <c r="C109">
-        <v>-5.2803631465448203E-3</v>
+        <v>-2.6784841615837301E-2</v>
       </c>
       <c r="D109">
-        <v>1.3245764984016201E-4</v>
+        <v>1.13163568887333E-2</v>
       </c>
       <c r="E109">
-        <v>3.10635517199282E-3</v>
+        <v>-4.1943253918545399E-2</v>
       </c>
       <c r="F109">
-        <v>0.241988866640508</v>
+        <v>0.20798213288814901</v>
       </c>
       <c r="G109">
-        <v>0.77313879386356898</v>
+        <v>0.47846975384047102</v>
       </c>
       <c r="H109">
-        <v>0.439675196666932</v>
+        <v>1.7190456850748999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>1.388583621751E-4</v>
+      </c>
+      <c r="D110">
+        <v>-3.3261133130610002E-3</v>
+      </c>
+      <c r="E110">
+        <v>4.8984384459776001E-3</v>
+      </c>
+      <c r="F110">
+        <v>0.81438635211952703</v>
+      </c>
+      <c r="G110">
+        <v>0.31974194129390199</v>
+      </c>
+      <c r="H110">
+        <v>7.2448151633564106E-2</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3845,22 +3885,22 @@
         <v>22</v>
       </c>
       <c r="C111">
-        <v>3.0779825422462001E-3</v>
-      </c>
-      <c r="D111" s="1">
-        <v>-8.6436186898525502E-5</v>
-      </c>
-      <c r="E111">
-        <v>-6.645454737039E-4</v>
+        <v>2.9844674010889001E-3</v>
+      </c>
+      <c r="D111">
+        <v>-7.7347870562740001E-4</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4.0780222566288302E-5</v>
       </c>
       <c r="F111">
-        <v>7.3911546577992995E-2</v>
+        <v>0.29206826826899801</v>
       </c>
       <c r="G111">
-        <v>0.71824638082665904</v>
+        <v>0.63602013734118001</v>
       </c>
       <c r="H111">
-        <v>0.59969862621791903</v>
+        <v>0.59503629847167205</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3871,22 +3911,22 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>2.1726060501657901E-2</v>
+        <v>2.0914134952675599E-2</v>
       </c>
       <c r="D112">
-        <v>1.06412457995744E-2</v>
+        <v>1.17548845993243E-2</v>
       </c>
       <c r="E112">
-        <v>9.5580403631904901E-3</v>
+        <v>7.0551621836488004E-3</v>
       </c>
       <c r="F112" s="1">
-        <v>1.06406703624393E-24</v>
+        <v>6.5946707708943199E-25</v>
       </c>
       <c r="G112">
-        <v>1.241166971172E-4</v>
-      </c>
-      <c r="H112" s="1">
-        <v>2.7923612306598999E-5</v>
+        <v>4.8186194060730004E-3</v>
+      </c>
+      <c r="H112">
+        <v>6.8998125267970998E-3</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3896,23 +3936,23 @@
       <c r="B113" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="1">
-        <v>2.1494458177168501E-6</v>
-      </c>
-      <c r="D113" s="1">
-        <v>-2.1373437407862701E-5</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1.7972903737794601E-5</v>
+      <c r="C113">
+        <v>1.2757991490273E-3</v>
+      </c>
+      <c r="D113">
+        <v>-2.1586426457493001E-3</v>
+      </c>
+      <c r="E113">
+        <v>2.6359730378593001E-3</v>
       </c>
       <c r="F113">
-        <v>0.83900376070953697</v>
+        <v>0.623585631540716</v>
       </c>
       <c r="G113">
-        <v>0.42245039063709899</v>
+        <v>0.32654518235610303</v>
       </c>
       <c r="H113">
-        <v>0.53401967067372802</v>
+        <v>0.220275777452728</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3923,22 +3963,22 @@
         <v>25</v>
       </c>
       <c r="C114">
-        <v>-5.6495632926336602E-3</v>
+        <v>-6.8902168215049997E-3</v>
       </c>
       <c r="D114">
-        <v>-3.1050198193417798E-3</v>
+        <v>-1.0574131889698999E-3</v>
       </c>
       <c r="E114">
-        <v>4.94446971053541E-3</v>
+        <v>8.3396169633050002E-4</v>
       </c>
       <c r="F114">
-        <v>5.7484151603520002E-2</v>
+        <v>8.0576574510822202E-2</v>
       </c>
       <c r="G114">
-        <v>0.204997675935956</v>
+        <v>0.68212224570561897</v>
       </c>
       <c r="H114">
-        <v>2.6500879841567002E-2</v>
+        <v>0.76548891704484501</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3949,22 +3989,22 @@
         <v>26</v>
       </c>
       <c r="C115">
-        <v>-2.0645881060795401E-3</v>
+        <v>-5.5411450994620004E-4</v>
       </c>
       <c r="D115">
-        <v>5.5152689619850596E-3</v>
+        <v>5.0293634608718002E-3</v>
       </c>
       <c r="E115">
-        <v>7.3728634595093302E-3</v>
+        <v>1.1085639013092299E-2</v>
       </c>
       <c r="F115">
-        <v>0.318279029489624</v>
+        <v>0.69756654099614401</v>
       </c>
       <c r="G115">
-        <v>2.4180497257725701E-2</v>
-      </c>
-      <c r="H115">
-        <v>1.1231241260782E-3</v>
+        <v>9.3888959122483906E-2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>4.6707369218066901E-6</v>
       </c>
     </row>
   </sheetData>
@@ -3973,18 +4013,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L62" sqref="J1:L62"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -4033,355 +4078,331 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>-4.7205982709628898E-2</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
-        <v>-4.7205982709628898E-2</v>
+        <v>-4.3891218804291102E-2</v>
       </c>
       <c r="D4" s="6">
-        <v>6.6562082538554404E-2</v>
+        <v>6.7454219317951106E-2</v>
       </c>
       <c r="E4" s="5">
-        <v>0.316059565001725</v>
+        <v>0.31418598513256202</v>
       </c>
       <c r="F4" s="6">
-        <v>-0.18239592880987099</v>
+        <v>-0.165931902692976</v>
       </c>
       <c r="G4" s="5">
-        <v>0.27726128206057299</v>
+        <v>0.27343208832049198</v>
       </c>
       <c r="H4" s="5">
-        <v>0.56121346823348195</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+        <v>0.56583394002259202</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>-4.4411540004012998E-3</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>-4.4411540004012998E-3</v>
+        <v>-4.5053759320806E-3</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.6799715784807899E-2</v>
+        <v>-1.6719516374362101E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>-9.0324746056126993E-3</v>
+        <v>-9.0545949220727992E-3</v>
       </c>
       <c r="F5" s="5">
-        <v>-5.5016371545831997E-3</v>
+        <v>-5.8618025640976004E-3</v>
       </c>
       <c r="G5" s="6">
-        <v>-4.9662597417903E-3</v>
+        <v>-5.0740398641838996E-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-6.4289639088492001E-3</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+        <v>-6.4580579811502996E-3</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>-2.8714023111527398</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="5">
-        <v>-2.8714023111527398</v>
+        <v>-2.8703718848349302</v>
       </c>
       <c r="D6" s="5">
-        <v>-2.5411215503268498</v>
+        <v>-2.54328622381915</v>
       </c>
       <c r="E6" s="5">
-        <v>-3.2227176632050498</v>
+        <v>-3.2238789384895301</v>
       </c>
       <c r="F6" s="11">
-        <v>-2.3955342055524</v>
+        <v>-2.3838532245294299</v>
       </c>
       <c r="G6" s="11">
-        <v>-2.6995286152792901</v>
+        <v>-2.6802905106686001</v>
       </c>
       <c r="H6" s="11">
-        <v>-2.9594756441218699</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>-2.9402391235449001</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>-3.0673799503219999E-4</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>-3.0673799503219999E-4</v>
+        <v>-3.064056530382E-4</v>
       </c>
       <c r="D7" s="7">
-        <v>-1.6706180489834E-3</v>
+        <v>-1.6721239930837001E-3</v>
       </c>
       <c r="E7" s="8">
-        <v>2.0665819815577399E-5</v>
+        <v>2.0601885751886701E-5</v>
       </c>
       <c r="F7" s="7">
-        <v>-4.303620466061E-4</v>
+        <v>-4.2747320156030002E-4</v>
       </c>
       <c r="G7" s="7">
-        <v>-2.935672125717E-3</v>
+        <v>-2.9362652010844E-3</v>
       </c>
       <c r="H7" s="7">
-        <v>5.5273273355999597E-5</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+        <v>5.5303370015256203E-5</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>0.61782737897831697</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5">
-        <v>0.61782737897831697</v>
+        <v>0.61849609067922695</v>
       </c>
       <c r="D8" s="5">
-        <v>1.87038938776991</v>
+        <v>1.8722308271063299</v>
       </c>
       <c r="E8" s="5">
-        <v>0.516059832790425</v>
+        <v>0.51488718921451804</v>
       </c>
       <c r="F8" s="11">
-        <v>1.4019002234598801</v>
+        <v>1.37572885088648</v>
       </c>
       <c r="G8" s="11">
-        <v>1.0367661492587501</v>
+        <v>1.0312383811227399</v>
       </c>
       <c r="H8" s="11">
-        <v>1.58145859531946</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+        <v>1.5985525188318299</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>0.24748171136186101</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5">
-        <v>0.24748171136186101</v>
+        <v>0.24265624300718999</v>
       </c>
       <c r="D9" s="5">
-        <v>0.60116888304968696</v>
+        <v>0.60511482728871901</v>
       </c>
       <c r="E9" s="5">
-        <v>0.59370737713802502</v>
+        <v>0.59391911133174602</v>
       </c>
       <c r="F9" s="11">
-        <v>1.4202707200165401</v>
+        <v>1.3184122771747</v>
       </c>
       <c r="G9" s="11">
-        <v>1.9084146572173499</v>
+        <v>1.89443589575474</v>
       </c>
       <c r="H9" s="11">
-        <v>2.5655731756081801</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+        <v>2.5496571199454801</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>-0.16874451609158</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="5">
-        <v>-0.16874451609158</v>
+        <v>-0.16792998177763799</v>
       </c>
       <c r="D10" s="5">
-        <v>0.51538955396347697</v>
+        <v>0.51928397898241696</v>
       </c>
       <c r="E10" s="5">
-        <v>0.31088118697926298</v>
+        <v>0.312915555855309</v>
       </c>
       <c r="F10" s="11">
-        <v>1.1922642259990599</v>
+        <v>1.17964288755997</v>
       </c>
       <c r="G10" s="11">
-        <v>0.72543545959210998</v>
+        <v>0.73095696685122802</v>
       </c>
       <c r="H10" s="11">
-        <v>1.0776293572829001</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+        <v>1.0912672766957401</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1.3702814478610299</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5">
-        <v>1.3702814478610299</v>
+        <v>1.3669485808936599</v>
       </c>
       <c r="D11" s="5">
-        <v>0.94964730276686304</v>
+        <v>0.95284755551445699</v>
       </c>
       <c r="E11" s="5">
-        <v>1.2816889682947199</v>
+        <v>1.28172704384319</v>
       </c>
       <c r="F11" s="11">
-        <v>2.3912333436348399</v>
+        <v>2.4026244937635899</v>
       </c>
       <c r="G11" s="11">
-        <v>1.3656881706600701</v>
+        <v>1.36895033440118</v>
       </c>
       <c r="H11" s="11">
-        <v>2.2545968293751599</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>2.27069410276152</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>-0.335170265698093</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.335170265698093</v>
+        <v>-0.34044890179311599</v>
       </c>
       <c r="D12" s="6">
-        <v>0.34221725873092401</v>
+        <v>0.340916704253095</v>
       </c>
       <c r="E12" s="5">
-        <v>-1.6788678823311101E-2</v>
+        <v>-1.67370478085168E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>-21.514831622383401</v>
+        <v>-17.925523013073299</v>
       </c>
       <c r="G12" s="5">
-        <v>-0.37802760932061102</v>
+        <v>-0.43197571841182802</v>
       </c>
       <c r="H12" s="5">
-        <v>0.91133070118471204</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+        <v>0.94451145884288401</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>-5.6673143962717401E-2</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>-5.6673143962717401E-2</v>
+        <v>-5.3779960511092698E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>-1.8397283772040001E-4</v>
+        <v>-1.3659872326918E-3</v>
       </c>
       <c r="E13" s="5">
-        <v>-1.11421088201848E-2</v>
+        <v>-1.10289637087378E-2</v>
       </c>
       <c r="F13" s="5">
-        <v>-1.6211011981039799E-2</v>
+        <v>-1.66129412751253E-2</v>
       </c>
       <c r="G13" s="5">
-        <v>-7.6753939778166205E-2</v>
+        <v>-8.3382324864562804E-2</v>
       </c>
       <c r="H13" s="5">
-        <v>-7.8017657808353305E-2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+        <v>-7.87008838336722E-2</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>1.9838080285088E-3</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="5">
-        <v>1.9838080285088E-3</v>
+        <v>1.7593882396621E-3</v>
       </c>
       <c r="D14" s="5">
-        <v>-3.8532223503890399E-2</v>
+        <v>-4.0506088698429699E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>-2.5469449698889899E-2</v>
+        <v>-2.6723406246433601E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>4.66806933842287E-2</v>
+        <v>4.6893514526292999E-2</v>
       </c>
       <c r="G14" s="5">
-        <v>-1.3494039853029501E-2</v>
+        <v>-1.5386858539044101E-2</v>
       </c>
       <c r="H14" s="5">
-        <v>2.4369760891151501E-2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+        <v>2.0386210503155901E-2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>3.3320305587701102E-3</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="5">
-        <v>3.3320305587701102E-3</v>
+        <v>3.3477945248358999E-3</v>
       </c>
       <c r="D15" s="5">
-        <v>3.6603195513156299E-3</v>
+        <v>3.7097221209881001E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>1.67986356335815E-3</v>
+        <v>1.7139584124084E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>2.1665139984054899E-3</v>
+        <v>2.2767435328166002E-3</v>
       </c>
       <c r="G15" s="5">
-        <v>3.0576719115924102E-3</v>
+        <v>3.1955624398377E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>1.7511442996833799E-3</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+        <v>1.8514362089914001E-3</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -4391,183 +4412,171 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>-9.8057221319669996E-4</v>
-      </c>
+      <c r="A17" s="7"/>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="7">
-        <v>-9.8057221319669996E-4</v>
+        <v>-1.3615104261074E-3</v>
       </c>
       <c r="D17" s="5">
-        <v>-4.6298279128209998E-4</v>
+        <v>1.00188051688E-4</v>
       </c>
       <c r="E17" s="8">
-        <v>-2.3822308463755E-3</v>
+        <v>-1.8102667343789999E-3</v>
       </c>
       <c r="F17" s="5">
-        <v>1.7749253108802699E-2</v>
+        <v>1.6535929928971699E-2</v>
       </c>
       <c r="G17" s="5">
-        <v>1.0215250768602101E-2</v>
+        <v>1.08394019787136E-2</v>
       </c>
       <c r="H17" s="6">
-        <v>7.2722379479389998E-3</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+        <v>7.0180514546447003E-3</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>-4.7150172378522997E-3</v>
-      </c>
+      <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="6">
-        <v>-4.7150172378522997E-3</v>
+        <v>-4.6965966443980999E-3</v>
       </c>
       <c r="D18" s="5">
-        <v>-1.3672982398077E-3</v>
+        <v>-1.3634737964591001E-3</v>
       </c>
       <c r="E18" s="5">
-        <v>-8.6898998551530003E-4</v>
+        <v>-9.4131024108109996E-4</v>
       </c>
       <c r="F18" s="5">
-        <v>2.5255039283318799E-2</v>
+        <v>2.3495817495855401E-2</v>
       </c>
       <c r="G18" s="6">
-        <v>8.1696864427831997E-3</v>
+        <v>8.2286452649181999E-3</v>
       </c>
       <c r="H18" s="5">
-        <v>2.9119831864862001E-3</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+        <v>2.8237004382384002E-3</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>-6.1188050276035303E-3</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5">
-        <v>-6.1188050276035303E-3</v>
+        <v>-6.2477826483407E-3</v>
       </c>
       <c r="D19" s="5">
-        <v>-1.29641910873067E-2</v>
+        <v>-1.21365520886583E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>-1.1631483786908901E-2</v>
+        <v>-1.09879466374988E-2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.8705610395869E-2</v>
+        <v>2.8014323714348002E-2</v>
       </c>
       <c r="G19" s="6">
-        <v>-8.08610428448844E-3</v>
+        <v>-5.6001087643380004E-3</v>
       </c>
       <c r="H19" s="5">
-        <v>-4.1533654649396701E-3</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+        <v>-4.1263462846113002E-3</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>-6.0168064301663702E-5</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>-6.0168064301663702E-5</v>
+        <v>-3.0760677287395002E-3</v>
       </c>
       <c r="D20" s="7">
-        <v>9.6206518194700305E-5</v>
+        <v>5.5731537455449998E-3</v>
       </c>
       <c r="E20" s="7">
-        <v>1.164155475603E-4</v>
+        <v>7.2044963802833E-3</v>
       </c>
       <c r="F20" s="7">
-        <v>7.3042390236343005E-5</v>
+        <v>6.568301491769E-3</v>
       </c>
       <c r="G20" s="7">
-        <v>7.8622350635615493E-5</v>
+        <v>4.2402907273481E-3</v>
       </c>
       <c r="H20" s="7">
-        <v>7.5981063743307497E-5</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+        <v>6.243194078112E-3</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>-6.8130476678005397E-3</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="5">
-        <v>-6.8130476678005397E-3</v>
+        <v>-7.1108121414079004E-3</v>
       </c>
       <c r="D21" s="5">
-        <v>-1.04820871639799E-2</v>
+        <v>-1.03474577583963E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>-4.45863550692179E-3</v>
+        <v>-4.3456789502653E-3</v>
       </c>
       <c r="F21" s="5">
-        <v>-8.3390313438155093E-3</v>
+        <v>-9.1739376578312999E-3</v>
       </c>
       <c r="G21" s="5">
-        <v>-1.1572987169121401E-2</v>
+        <v>-1.1444134262571499E-2</v>
       </c>
       <c r="H21" s="5">
-        <v>-1.03467835398633E-2</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+        <v>-1.0165013187998E-2</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>-6.2660664114133E-3</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="5">
-        <v>-6.2660664114133E-3</v>
+        <v>-6.7613424217834997E-3</v>
       </c>
       <c r="D22" s="5">
-        <v>4.3334236673685999E-3</v>
+        <v>4.4543791667016998E-3</v>
       </c>
       <c r="E22" s="5">
-        <v>3.5292949828858102E-3</v>
+        <v>3.6813721181964002E-3</v>
       </c>
       <c r="F22" s="5">
-        <v>7.3644471233385404E-3</v>
+        <v>6.2544735150417002E-3</v>
       </c>
       <c r="G22" s="5">
-        <v>-1.02221435215394E-2</v>
+        <v>-1.0221385764019099E-2</v>
       </c>
       <c r="H22" s="5">
-        <v>-8.2404938126144102E-4</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+        <v>-5.248467806274E-4</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
@@ -4589,325 +4598,325 @@
         <v>9</v>
       </c>
       <c r="C24" s="5">
-        <v>-1.3411399335922101</v>
+        <v>-1.3392456443755201</v>
       </c>
       <c r="D24" s="5">
-        <v>0.14405000382559999</v>
+        <v>0.141151097188673</v>
       </c>
       <c r="E24" s="5">
-        <v>0.53140168421780798</v>
+        <v>0.53175258696863004</v>
       </c>
       <c r="F24" s="5">
-        <v>-0.16542512708793899</v>
+        <v>-0.173348477354412</v>
       </c>
       <c r="G24" s="5">
-        <v>0.240813827189505</v>
+        <v>0.23848718743254099</v>
       </c>
       <c r="H24" s="5">
-        <v>0.49268381072400502</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+        <v>0.48418885306239701</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="5">
-        <v>-2.89019927497139E-2</v>
+        <v>-2.87753313318517E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>2.9557827435583001E-3</v>
+        <v>3.0494872926784002E-3</v>
       </c>
       <c r="E25" s="5">
-        <v>-6.9015594245140004E-4</v>
+        <v>-6.7422720242139996E-4</v>
       </c>
       <c r="F25" s="5">
-        <v>-1.702669845225E-3</v>
+        <v>-2.1922216941643998E-3</v>
       </c>
       <c r="G25" s="5">
-        <v>-6.8585141451429996E-3</v>
+        <v>-7.8255547137577007E-3</v>
       </c>
       <c r="H25" s="5">
-        <v>-1.6089122998139901E-2</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+        <v>-1.6267871217134199E-2</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="5">
-        <v>-1.8922852533908101</v>
+        <v>-1.8912390395875001</v>
       </c>
       <c r="D26" s="5">
-        <v>-1.7561790035717999</v>
+        <v>-1.75011997618792</v>
       </c>
       <c r="E26" s="5">
-        <v>-2.30319116551575</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-1.7834018060772501</v>
-      </c>
-      <c r="G26" s="5">
-        <v>-1.8590709246272401</v>
+        <v>-2.3025546165528001</v>
+      </c>
+      <c r="F26" s="11">
+        <v>-1.7854255842996301</v>
+      </c>
+      <c r="G26" s="11">
+        <v>-1.85487238148926</v>
       </c>
       <c r="H26" s="5">
-        <v>-2.1743759872610999</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+        <v>-2.17311423007515</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="7">
-        <v>-2.6359108866209999E-4</v>
+        <v>-2.627420838419E-4</v>
       </c>
       <c r="D27" s="7">
-        <v>-1.5218599484909999E-3</v>
+        <v>-1.5216805588415001E-3</v>
       </c>
       <c r="E27" s="8">
-        <v>1.5842692351141101E-5</v>
+        <v>1.5814157137961299E-5</v>
       </c>
       <c r="F27" s="7">
-        <v>-2.148350738968E-4</v>
+        <v>-2.1364047148439999E-4</v>
       </c>
       <c r="G27" s="7">
-        <v>-1.0128294268893E-3</v>
+        <v>-1.0140879694273E-3</v>
       </c>
       <c r="H27" s="7">
-        <v>-5.60556079516599E-6</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+        <v>-6.1947400720298298E-6</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="5">
-        <v>1.73539592378422</v>
+        <v>1.73677680558966</v>
       </c>
       <c r="D28" s="5">
-        <v>1.5358262291968101</v>
+        <v>1.5339704308220801</v>
       </c>
       <c r="E28" s="5">
-        <v>1.5190761919578499</v>
+        <v>1.5222733756098401</v>
       </c>
       <c r="F28" s="5">
-        <v>1.42701873243514</v>
+        <v>1.43386718191859</v>
       </c>
       <c r="G28" s="5">
-        <v>1.64233184418628</v>
+        <v>1.6626587621602</v>
       </c>
       <c r="H28" s="5">
-        <v>1.48335022053556</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+        <v>1.47695346301845</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="5">
-        <v>0.69104630053439198</v>
+        <v>0.69422188505483196</v>
       </c>
       <c r="D29" s="5">
-        <v>1.5022775670492201</v>
+        <v>1.5035224459234999</v>
       </c>
       <c r="E29" s="5">
-        <v>1.6901698398943701</v>
+        <v>1.6940001937384901</v>
       </c>
       <c r="F29" s="5">
-        <v>0.83116596597794101</v>
+        <v>0.86567786098026001</v>
       </c>
       <c r="G29" s="5">
-        <v>1.44969770577193</v>
+        <v>1.48709688196428</v>
       </c>
       <c r="H29" s="11">
-        <v>2.27456280571971</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+        <v>2.30439476819982</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="5">
-        <v>0.71003574055951102</v>
+        <v>0.71023210203835796</v>
       </c>
       <c r="D30" s="5">
-        <v>1.1247477809217099</v>
+        <v>1.12167160289497</v>
       </c>
       <c r="E30" s="5">
-        <v>0.99696722034479601</v>
+        <v>0.99446460345815701</v>
       </c>
       <c r="F30" s="5">
-        <v>0.97622019014384098</v>
+        <v>0.96685639623125796</v>
       </c>
       <c r="G30" s="5">
-        <v>1.21200098649564</v>
+        <v>1.23036146206654</v>
       </c>
       <c r="H30" s="5">
-        <v>0.78052832967118702</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+        <v>0.779412019944279</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="5">
-        <v>1.78341279307046</v>
+        <v>1.7823591476514999</v>
       </c>
       <c r="D31" s="5">
-        <v>0.84562825096543603</v>
+        <v>0.84485939950681199</v>
       </c>
       <c r="E31" s="5">
-        <v>1.68843842152176</v>
+        <v>1.69423694224319</v>
       </c>
       <c r="F31" s="5">
-        <v>1.7389897110630099</v>
+        <v>1.72602708667649</v>
       </c>
       <c r="G31" s="5">
-        <v>0.825157709382905</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1.9934861463173601</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+        <v>0.85269805812382005</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1.99511598536783</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="5">
-        <v>1.0337989796023199</v>
+        <v>1.0314627119981501</v>
       </c>
       <c r="D32" s="5">
-        <v>0.67577974938591301</v>
+        <v>0.674926273808785</v>
       </c>
       <c r="E32" s="5">
-        <v>1.24845346822238</v>
+        <v>1.24633319210226</v>
       </c>
       <c r="F32" s="5">
-        <v>0.95762438931304805</v>
+        <v>0.87561405234709999</v>
       </c>
       <c r="G32" s="6">
-        <v>0.95054953595719405</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1.0711785537259999</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+        <v>0.93798139684279702</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1.05649983842217</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="5">
-        <v>3.74275137649187E-2</v>
+        <v>3.8532574305332801E-2</v>
       </c>
       <c r="D33" s="5">
-        <v>-6.0559172221419995E-4</v>
+        <v>-1.0998138038225999E-3</v>
       </c>
       <c r="E33" s="5">
-        <v>-4.43113532255308E-2</v>
+        <v>-4.3866478421642797E-2</v>
       </c>
       <c r="F33" s="5">
-        <v>-8.8038952297185294E-2</v>
+        <v>-8.8982807099194899E-2</v>
       </c>
       <c r="G33" s="5">
-        <v>-0.12795766001780801</v>
+        <v>-0.127747666548644</v>
       </c>
       <c r="H33" s="5">
-        <v>-0.15184887081967799</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+        <v>-0.149536576105811</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="5">
-        <v>-1.3959635844072E-2</v>
+        <v>-1.52581212580077E-2</v>
       </c>
       <c r="D34" s="5">
-        <v>-2.49974148902849E-2</v>
+        <v>-2.5619301037095001E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>-9.2851943071557991E-3</v>
+        <v>-8.4437472432662003E-3</v>
       </c>
       <c r="F34" s="5">
-        <v>4.5237257668385697E-2</v>
+        <v>5.1162376989313203E-2</v>
       </c>
       <c r="G34" s="5">
-        <v>4.2433321463686002E-3</v>
+        <v>7.3446473945604999E-3</v>
       </c>
       <c r="H34" s="5">
-        <v>-7.7201399223442001E-3</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+        <v>-9.1420561932385996E-3</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="5">
-        <v>-1.46104449741112E-3</v>
+        <v>-1.5111038538037E-3</v>
       </c>
       <c r="D35" s="5">
-        <v>2.9563236518825599E-3</v>
+        <v>2.9714258774087001E-3</v>
       </c>
       <c r="E35" s="5">
-        <v>2.5012099566112602E-3</v>
+        <v>2.4973367909132999E-3</v>
       </c>
       <c r="F35" s="5">
-        <v>3.0059567438246103E-4</v>
+        <v>1.69719447384E-4</v>
       </c>
       <c r="G35" s="5">
-        <v>2.5846903415416801E-3</v>
+        <v>2.5644074910513002E-3</v>
       </c>
       <c r="H35" s="8">
-        <v>3.9878698401893103E-3</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+        <v>4.1139846541013003E-3</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="5">
-        <v>-4.9828509930642797E-3</v>
+        <v>-6.6667372918556003E-3</v>
       </c>
       <c r="D36" s="5">
-        <v>3.5436380609320901E-3</v>
+        <v>2.9087459690420002E-3</v>
       </c>
       <c r="E36" s="5">
-        <v>4.7269988147212198E-3</v>
+        <v>5.6151245364872001E-3</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>55</v>
@@ -4918,22 +4927,22 @@
       <c r="H36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="5">
-        <v>8.5255764946041996E-3</v>
+        <v>8.4556442956002995E-3</v>
       </c>
       <c r="D37" s="6">
-        <v>3.3324828693592E-3</v>
+        <v>3.4234129431201001E-3</v>
       </c>
       <c r="E37" s="5">
-        <v>3.5476746229176001E-3</v>
+        <v>3.7416758262052998E-3</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>55</v>
@@ -4944,74 +4953,74 @@
       <c r="H37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="5">
-        <v>5.6828308878445997E-3</v>
+        <v>5.4154042196825998E-3</v>
       </c>
       <c r="D38" s="6">
-        <v>-2.9180830326272999E-3</v>
+        <v>-2.7989251370459001E-3</v>
       </c>
       <c r="E38" s="5">
-        <v>-8.2003019863900002E-4</v>
+        <v>-7.0512339090160003E-4</v>
       </c>
       <c r="F38" s="5">
-        <v>1.21035548533682E-2</v>
+        <v>1.15209334175409E-2</v>
       </c>
       <c r="G38" s="6">
-        <v>2.1163245700708002E-3</v>
+        <v>2.0489060221725E-3</v>
       </c>
       <c r="H38" s="5">
-        <v>2.6746575622732002E-3</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+        <v>2.7282473164594E-3</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="5">
-        <v>2.72250069059429E-2</v>
+        <v>2.44642227803996E-2</v>
       </c>
       <c r="D39" s="5">
-        <v>5.7419169548798797E-3</v>
+        <v>5.7427633152038002E-3</v>
       </c>
       <c r="E39" s="5">
-        <v>4.4482739119497596E-3</v>
+        <v>4.7339027924587001E-3</v>
       </c>
       <c r="F39" s="5">
-        <v>2.3737315059421098E-2</v>
+        <v>2.42371020700641E-2</v>
       </c>
       <c r="G39" s="5">
-        <v>2.6878794215042402E-3</v>
+        <v>2.9215949905640999E-3</v>
       </c>
       <c r="H39" s="5">
-        <v>-2.48854686884164E-3</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+        <v>-2.5160708436122998E-3</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="7">
-        <v>1.2541419233770001E-4</v>
+        <v>8.6504757658423005E-3</v>
       </c>
       <c r="D40" s="7">
-        <v>5.3350506429638198E-5</v>
+        <v>3.4107285993124998E-3</v>
       </c>
       <c r="E40" s="8">
-        <v>2.9748046294751599E-5</v>
+        <v>1.8171657191089E-3</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>55</v>
@@ -5022,22 +5031,22 @@
       <c r="H40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="5">
-        <v>6.7691755398486802E-3</v>
+        <v>7.0548654457437002E-3</v>
       </c>
       <c r="D41" s="5">
-        <v>-7.8415542783698798E-3</v>
+        <v>-7.7802090992915001E-3</v>
       </c>
       <c r="E41" s="5">
-        <v>-1.0271227260366601E-2</v>
+        <v>-1.01687257691751E-2</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>55</v>
@@ -5048,35 +5057,35 @@
       <c r="H41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="5">
-        <v>-1.7099543550683099E-3</v>
+        <v>-1.557864013126E-3</v>
       </c>
       <c r="D42" s="5">
-        <v>7.8839518228591299E-3</v>
+        <v>8.0334048088973996E-3</v>
       </c>
       <c r="E42" s="5">
-        <v>-1.2009911448953099E-3</v>
+        <v>-1.1165795350403999E-3</v>
       </c>
       <c r="F42" s="5">
-        <v>-1.5390251187094001E-2</v>
+        <v>-1.4039528208284999E-2</v>
       </c>
       <c r="G42" s="5">
-        <v>-2.6549870482787999E-3</v>
+        <v>-2.1519884051058001E-3</v>
       </c>
       <c r="H42" s="5">
-        <v>7.5876594396056098E-3</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+        <v>8.1373526178802995E-3</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
@@ -5098,482 +5107,494 @@
         <v>9</v>
       </c>
       <c r="C44" s="5">
-        <v>-0.160295445934866</v>
+        <v>-0.160717246393379</v>
       </c>
       <c r="D44" s="6">
-        <v>9.5788782022244195E-2</v>
+        <v>9.3431988212747896E-2</v>
       </c>
       <c r="E44" s="5">
-        <v>0.26408450472824002</v>
+        <v>0.26393753666752101</v>
       </c>
       <c r="F44" s="5">
-        <v>-0.61047931768638697</v>
+        <v>-0.61165625912370103</v>
       </c>
       <c r="G44" s="5">
-        <v>7.3599117193724195E-2</v>
+        <v>7.2213373300335504E-2</v>
       </c>
       <c r="H44" s="5">
-        <v>0.41472720454883899</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+        <v>0.41269876949614998</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="5">
-        <v>4.493773198147E-4</v>
+        <v>3.7014812372100002E-4</v>
       </c>
       <c r="D45" s="5">
-        <v>-7.9824736911074008E-3</v>
+        <v>-8.0670225734169997E-3</v>
       </c>
       <c r="E45" s="5">
-        <v>-3.7619095163368001E-3</v>
+        <v>-3.9124851305229E-3</v>
       </c>
       <c r="F45" s="5">
-        <v>-1.3840983442449999E-4</v>
+        <v>-9.0563588941026298E-5</v>
       </c>
       <c r="G45" s="5">
-        <v>-5.5046509814808001E-3</v>
+        <v>-5.3959969687170997E-3</v>
       </c>
       <c r="H45" s="5">
-        <v>-9.5795239036360995E-3</v>
-      </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+        <v>-9.4947368378329993E-3</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="5">
-        <v>-3.0408488051461799</v>
+        <v>-3.0394652237445299</v>
       </c>
       <c r="D46" s="5">
-        <v>-2.8372729824935301</v>
+        <v>-2.8334847814326301</v>
       </c>
       <c r="E46" s="5">
-        <v>-3.4915865003927</v>
-      </c>
-      <c r="F46" s="5">
-        <v>-2.2082787722450599</v>
+        <v>-3.49851080002975</v>
+      </c>
+      <c r="F46" s="11">
+        <v>-2.2149010302245098</v>
       </c>
       <c r="G46" s="5">
-        <v>-2.47505976157642</v>
+        <v>-2.4790194496160698</v>
       </c>
       <c r="H46" s="5">
-        <v>-3.0866955687367299</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+        <v>-3.1029112271229198</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="7">
-        <v>-3.4424015353180001E-4</v>
+        <v>-3.444225790718E-4</v>
       </c>
       <c r="D47" s="7">
-        <v>-1.6153026835908E-3</v>
+        <v>-1.6157495585232E-3</v>
       </c>
       <c r="E47" s="8">
-        <v>-1.1124878698342601E-5</v>
+        <v>-1.0910972551015099E-5</v>
       </c>
       <c r="F47" s="7">
-        <v>-3.0579963303179998E-4</v>
+        <v>-3.0539271568019998E-4</v>
       </c>
       <c r="G47" s="7">
-        <v>-1.7606540187877001E-3</v>
+        <v>-1.761721882046E-3</v>
       </c>
       <c r="H47" s="8">
-        <v>3.8863504011758297E-5</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+        <v>3.9102168850109099E-5</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="5">
-        <v>0.72980252004058999</v>
+        <v>0.73091520488273698</v>
       </c>
       <c r="D48" s="11">
-        <v>1.88486970114996</v>
+        <v>1.8759420574461301</v>
       </c>
       <c r="E48" s="5">
-        <v>0.59038557628571298</v>
+        <v>0.59154475056564604</v>
       </c>
       <c r="F48" s="5">
-        <v>1.86712396639014</v>
+        <v>1.86738440168648</v>
       </c>
       <c r="G48" s="5">
-        <v>1.7740770034466999</v>
+        <v>1.7741612249883201</v>
       </c>
       <c r="H48" s="11">
-        <v>1.6849171384080901</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+        <v>1.6811445953395201</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="5">
-        <v>0.43040513162322502</v>
+        <v>0.43934041316984701</v>
       </c>
       <c r="D49" s="5">
-        <v>0.94440199186231599</v>
+        <v>0.94579116992996604</v>
       </c>
       <c r="E49" s="5">
-        <v>0.93351855004642803</v>
+        <v>0.93681544745259504</v>
       </c>
       <c r="F49" s="5">
-        <v>2.0818274426306198</v>
+        <v>2.0826571731436299</v>
       </c>
       <c r="G49" s="5">
-        <v>2.01351507585641</v>
+        <v>2.0209595458288701</v>
       </c>
       <c r="H49" s="11">
-        <v>2.4882065319296101</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+        <v>2.4893286707913602</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="5">
-        <v>0.10353264768727299</v>
+        <v>0.108772362188216</v>
       </c>
       <c r="D50" s="5">
-        <v>0.70913538279640798</v>
+        <v>0.70562529939080498</v>
       </c>
       <c r="E50" s="5">
-        <v>0.51252572212254499</v>
+        <v>0.51784491270937505</v>
       </c>
       <c r="F50" s="5">
-        <v>1.1696237014212201</v>
+        <v>1.1720405441550099</v>
       </c>
       <c r="G50" s="5">
-        <v>0.80037211266622998</v>
+        <v>0.80239406674858105</v>
       </c>
       <c r="H50" s="11">
-        <v>1.2406447951091899</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+        <v>1.2339582666857201</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="5">
-        <v>1.2585697237245901</v>
+        <v>1.2684962898336101</v>
       </c>
       <c r="D51" s="5">
-        <v>0.75143467253081897</v>
+        <v>0.74780951966338505</v>
       </c>
       <c r="E51" s="5">
-        <v>1.3479030228900299</v>
+        <v>1.3541204798158599</v>
       </c>
       <c r="F51" s="5">
-        <v>2.1308929464287401</v>
+        <v>2.1257502461511999</v>
       </c>
       <c r="G51" s="5">
-        <v>0.75526287488948196</v>
+        <v>0.75165672483188195</v>
       </c>
       <c r="H51" s="11">
-        <v>1.75790405178334</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+        <v>1.75878832024901</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="5">
-        <v>9.9037824304810604E-2</v>
+        <v>0.11231750854408</v>
       </c>
       <c r="D52" s="5">
-        <v>0.55478968721052702</v>
+        <v>0.53959374189618403</v>
       </c>
       <c r="E52" s="5">
-        <v>0.22905638309350901</v>
+        <v>0.25264626565077503</v>
       </c>
       <c r="F52" s="11">
-        <v>1.2147990328001601</v>
+        <v>1.2151092288129599</v>
       </c>
       <c r="G52" s="5">
-        <v>0.599695715548617</v>
+        <v>0.60105389240030604</v>
       </c>
       <c r="H52" s="11">
-        <v>1.67067280510994</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+        <v>1.67241806745475</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="5">
-        <v>-1.7641819616338102E-2</v>
+        <v>-1.7960900097093599E-2</v>
       </c>
       <c r="D53" s="5">
-        <v>-2.09416429782611E-2</v>
+        <v>-2.42965584844381E-2</v>
       </c>
       <c r="E53" s="5">
-        <v>-1.5294794982088701E-2</v>
+        <v>-1.0675303020450701E-2</v>
       </c>
       <c r="F53" s="5">
-        <v>-5.6827045375313898E-2</v>
+        <v>-5.5518956800066702E-2</v>
       </c>
       <c r="G53" s="5">
-        <v>-4.1791441746405401E-2</v>
+        <v>-3.78763210078224E-2</v>
       </c>
       <c r="H53" s="5">
-        <v>-5.8534595603577898E-2</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+        <v>-6.9938348721407695E-2</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="5">
-        <v>-3.8054662539206398E-2</v>
+        <v>-4.7672010985152398E-2</v>
       </c>
       <c r="D54" s="5">
-        <v>4.7993723709380001E-2</v>
+        <v>5.5469710239458299E-2</v>
       </c>
       <c r="E54" s="6">
-        <v>3.03805317816555E-2</v>
+        <v>1.0645822620885001E-2</v>
       </c>
       <c r="F54" s="5">
-        <v>1.4420154619364E-3</v>
+        <v>4.6209084034439998E-4</v>
       </c>
       <c r="G54" s="5">
-        <v>1.53803911694687E-2</v>
+        <v>1.85760856341954E-2</v>
       </c>
       <c r="H54" s="5">
-        <v>9.4584040107301998E-3</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+        <v>1.25816597238413E-2</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="5">
-        <v>3.9308120701259299E-3</v>
+        <v>4.5208703752921998E-3</v>
       </c>
       <c r="D55" s="5">
-        <v>5.8302906349294199E-3</v>
+        <v>5.7640408737075002E-3</v>
       </c>
       <c r="E55" s="5">
-        <v>3.7746160511888398E-3</v>
+        <v>4.9389598593939004E-3</v>
       </c>
       <c r="F55" s="5">
-        <v>3.4344886647687599E-3</v>
+        <v>2.8803240014441001E-3</v>
       </c>
       <c r="G55" s="5">
-        <v>7.70275832016279E-3</v>
+        <v>7.6566552795115997E-3</v>
       </c>
       <c r="H55" s="5">
-        <v>6.4705421066408898E-3</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+        <v>6.9221638386242996E-3</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="5">
-        <v>-5.2803631465448203E-3</v>
+        <v>-2.6784841615837301E-2</v>
       </c>
       <c r="D56" s="5">
-        <v>1.3245764984016201E-4</v>
+        <v>1.13163568887333E-2</v>
       </c>
       <c r="E56" s="5">
-        <v>3.10635517199282E-3</v>
+        <v>-4.1943253918545399E-2</v>
       </c>
       <c r="F56" s="5">
-        <v>2.3325969627381701E-2</v>
+        <v>2.2306260648402802E-2</v>
       </c>
       <c r="G56" s="5">
-        <v>2.6452620039817201E-2</v>
+        <v>2.7597227041104701E-2</v>
       </c>
       <c r="H56" s="5">
-        <v>-1.3183336059017199E-2</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+        <v>8.6363768239552993E-3</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="C57" s="5">
+        <v>1.388583621751E-4</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-3.3261133130610002E-3</v>
+      </c>
+      <c r="E57" s="5">
+        <v>4.8984384459776001E-3</v>
+      </c>
+      <c r="F57" s="5">
+        <v>-6.1028565241270005E-4</v>
+      </c>
+      <c r="G57" s="5">
+        <v>4.7969882723545004E-3</v>
+      </c>
+      <c r="H57" s="5">
+        <v>-2.9660465618649998E-3</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="6">
-        <v>3.0779825422462001E-3</v>
+        <v>2.9844674010889001E-3</v>
       </c>
       <c r="D58" s="5">
-        <v>-8.6436186898525502E-5</v>
+        <v>-7.7347870562740001E-4</v>
       </c>
       <c r="E58" s="5">
-        <v>-6.645454737039E-4</v>
+        <v>4.0780222566288302E-5</v>
       </c>
       <c r="F58" s="5">
-        <v>-9.2166112675844004E-3</v>
+        <v>-9.6203945222505007E-3</v>
       </c>
       <c r="G58" s="5">
-        <v>4.0581395417782001E-3</v>
+        <v>7.7400963731827001E-3</v>
       </c>
       <c r="H58" s="5">
-        <v>4.6999625047263998E-3</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+        <v>2.6810748734979002E-3</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="5">
-        <v>2.1726060501657901E-2</v>
+        <v>2.0914134952675599E-2</v>
       </c>
       <c r="D59" s="5">
-        <v>1.06412457995744E-2</v>
+        <v>1.17548845993243E-2</v>
       </c>
       <c r="E59" s="5">
-        <v>9.5580403631904901E-3</v>
+        <v>7.0551621836488004E-3</v>
       </c>
       <c r="F59" s="5">
-        <v>8.5581408713349301E-3</v>
+        <v>8.9696184275765006E-3</v>
       </c>
       <c r="G59" s="5">
-        <v>-2.3003447164122001E-3</v>
+        <v>1.0218799365563E-3</v>
       </c>
       <c r="H59" s="5">
-        <v>-4.1784767557075298E-4</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+        <v>4.0394323103647998E-3</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>50</v>
       </c>
       <c r="C60" s="7">
-        <v>2.1494458177168501E-6</v>
+        <v>1.2757991490273E-3</v>
       </c>
       <c r="D60" s="7">
-        <v>-2.1373437407862701E-5</v>
+        <v>-2.1586426457493001E-3</v>
       </c>
       <c r="E60" s="7">
-        <v>1.7972903737794601E-5</v>
+        <v>2.6359730378593001E-3</v>
       </c>
       <c r="F60" s="7">
-        <v>7.91166328364304E-5</v>
+        <v>1.08816837694429E-2</v>
       </c>
       <c r="G60" s="7">
-        <v>1.769484449567E-4</v>
+        <v>1.1133191491578501E-2</v>
       </c>
       <c r="H60" s="7">
-        <v>2.6516514596279999E-4</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+        <v>1.5827825474715201E-2</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="6">
-        <v>-5.6495632926336602E-3</v>
+        <v>-6.8902168215049997E-3</v>
       </c>
       <c r="D61" s="5">
-        <v>-3.1050198193417798E-3</v>
+        <v>-1.0574131889698999E-3</v>
       </c>
       <c r="E61" s="5">
-        <v>4.94446971053541E-3</v>
+        <v>8.3396169633050002E-4</v>
       </c>
       <c r="F61" s="5">
-        <v>-2.5886559206994299E-3</v>
+        <v>-1.4781791447487E-3</v>
       </c>
       <c r="G61" s="5">
-        <v>-3.0938121324389899E-3</v>
+        <v>-3.5775121268595E-3</v>
       </c>
       <c r="H61" s="5">
-        <v>-8.49835808567671E-4</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+        <v>1.3121596828417001E-3</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="9">
-        <v>-2.0645881060795401E-3</v>
+        <v>-5.5411450994620004E-4</v>
       </c>
       <c r="D62" s="9">
-        <v>5.5152689619850596E-3</v>
+        <v>5.0293634608718002E-3</v>
       </c>
       <c r="E62" s="9">
-        <v>7.3728634595093302E-3</v>
+        <v>1.1085639013092299E-2</v>
       </c>
       <c r="F62" s="10">
-        <v>-4.4609944795206396E-3</v>
+        <v>-4.4804274131342E-3</v>
       </c>
       <c r="G62" s="9">
-        <v>4.3689071505063799E-3</v>
+        <v>3.8764220036178998E-3</v>
       </c>
       <c r="H62" s="9">
-        <v>1.0558133104104099E-2</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+        <v>9.9792558463673992E-3</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
